--- a/urllists.xlsx
+++ b/urllists.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\daohang\excel_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFT\phpstudy_pro\WWW\www.bendi.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6960F7B9-29DF-4909-8645-160D2BA9EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375CE45-DE8E-4DF6-8175-5D8B9954728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1005">
   <si>
     <t>爱悦读网</t>
   </si>
@@ -4356,6 +4356,18 @@
   </si>
   <si>
     <t>https://macos-web.app/</t>
+  </si>
+  <si>
+    <t>webtools</t>
+  </si>
+  <si>
+    <t>本导航的在线工具</t>
+  </si>
+  <si>
+    <t>https://kapukapu.netlify.app/tools/</t>
+  </si>
+  <si>
+    <t>https://fav.farm/%F0%9F%94%A5</t>
   </si>
 </sst>
 </file>
@@ -4759,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10273,6 +10285,28 @@
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10772,6 +10806,8 @@
     <hyperlink ref="C249" r:id="rId493" xr:uid="{1B037EC1-82C9-492E-B50E-EDFEEC366C05}"/>
     <hyperlink ref="F249" r:id="rId494" xr:uid="{DCD139F7-3E11-4CD7-BFFD-C8338CFE7F53}"/>
     <hyperlink ref="C250" r:id="rId495" xr:uid="{D97C979E-37C1-4F3C-AF64-6ABC68CC5002}"/>
+    <hyperlink ref="C251" r:id="rId496" xr:uid="{C9BE812D-44DD-49ED-9783-685ACE6E3DEE}"/>
+    <hyperlink ref="F251" r:id="rId497" xr:uid="{3BDD70FB-C9FC-49E7-BD41-D073CE104EC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/urllists.xlsx
+++ b/urllists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFT\phpstudy_pro\WWW\www.bendi.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\SVN\导航\excel_type\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375CE45-DE8E-4DF6-8175-5D8B9954728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4071A-DD95-4761-9A46-5B177CF4BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1041">
   <si>
     <t>爱悦读网</t>
   </si>
@@ -1836,15 +1836,6 @@
     <t>https://qr.io/qrfav/favicon-120-precomposed.png</t>
   </si>
   <si>
-    <t>百家姓磁链转换</t>
-  </si>
-  <si>
-    <t>https://www.ttti.cc/minitools/bjxsignal.html</t>
-  </si>
-  <si>
-    <t>https://www.ttti.cc/favicon.ico</t>
-  </si>
-  <si>
     <t>核心价值观加密</t>
   </si>
   <si>
@@ -2286,19 +2277,7 @@
     <t>https://fliqlo.com/images/favicon.ico</t>
   </si>
   <si>
-    <t>随机一言语录</t>
-  </si>
-  <si>
-    <t>随机一言语录API</t>
-  </si>
-  <si>
-    <t>https://api.7585.net.cn/yan/</t>
-  </si>
-  <si>
     <t>API接口</t>
-  </si>
-  <si>
-    <t>https://api.7585.net.cn/favicon.ico</t>
   </si>
   <si>
     <t>资源铺</t>
@@ -4368,13 +4347,142 @@
   </si>
   <si>
     <t>https://fav.farm/%F0%9F%94%A5</t>
+  </si>
+  <si>
+    <t>小羿</t>
+  </si>
+  <si>
+    <t>专注收录各种优秀软件！</t>
+  </si>
+  <si>
+    <t>https://xiaoyi.vc/</t>
+  </si>
+  <si>
+    <t>https://xiaoyi.vc/favicon.ico</t>
+  </si>
+  <si>
+    <t>Escrcpy</t>
+  </si>
+  <si>
+    <t>安卓设备控制</t>
+  </si>
+  <si>
+    <t>https://gitee.com/viarotel-org/escrcpy/releases</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>svglogo</t>
+  </si>
+  <si>
+    <t>收录了很多国内企业、大学、产品软件的矢量 logo 图标</t>
+  </si>
+  <si>
+    <t>https://svglogo.top/</t>
+  </si>
+  <si>
+    <t>https://svglogo.top/images/logo.svg</t>
+  </si>
+  <si>
+    <t>markdown在线编辑器</t>
+  </si>
+  <si>
+    <t>https://markdown-editor.org/</t>
+  </si>
+  <si>
+    <t>https://markdown-editor.org/favicon.ico</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>让排版变 Nice</t>
+  </si>
+  <si>
+    <t>https://editor.mdnice.com/</t>
+  </si>
+  <si>
+    <t>https://editor.mdnice.com/favicon.svg</t>
+  </si>
+  <si>
+    <t>文本对比工具</t>
+  </si>
+  <si>
+    <t>带有合并及若干功能的在线文件对比工具</t>
+  </si>
+  <si>
+    <t>https://diffsuite.com/</t>
+  </si>
+  <si>
+    <t>https://diffsuite.com/favicon.png</t>
+  </si>
+  <si>
+    <t>免费消除图片背景</t>
+  </si>
+  <si>
+    <t>极快的免登陆一键抠图工具</t>
+  </si>
+  <si>
+    <t>https://ezpic.fun/zh</t>
+  </si>
+  <si>
+    <t>https://ezpic.fun/favicon-48.png</t>
+  </si>
+  <si>
+    <t>抠抠图</t>
+  </si>
+  <si>
+    <t>永久免费 的在线抠图工具</t>
+  </si>
+  <si>
+    <t>https://www.koukoutu.com/</t>
+  </si>
+  <si>
+    <t>https://www.koukoutu.com/icons/57.png</t>
+  </si>
+  <si>
+    <t>老朱独立开发</t>
+  </si>
+  <si>
+    <t>独立开发，自由职业</t>
+  </si>
+  <si>
+    <t>https://ilaozhu.com/</t>
+  </si>
+  <si>
+    <t>https://ilaozhu.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>小学试卷网</t>
+  </si>
+  <si>
+    <t>提供小学等各年级语文、数学、英语、科学试卷</t>
+  </si>
+  <si>
+    <t>https://appsj.szxuexiao.com/</t>
+  </si>
+  <si>
+    <t>https://appsj.szxuexiao.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>在线屏幕共享</t>
+  </si>
+  <si>
+    <t>无需安装任何软件，输入一个房间号即可在线共享屏幕、摄像头</t>
+  </si>
+  <si>
+    <t>https://pin.gl/</t>
+  </si>
+  <si>
+    <t>https://pin.gl/favicon.ico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4428,6 +4536,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF202020"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4465,7 +4581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -4490,6 +4606,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4771,23 +4888,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="2" max="2" width="82.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.2">
+    <row r="1" spans="1:8" ht="56.6">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>103</v>
@@ -4806,7 +4923,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="96.6">
+    <row r="2" spans="1:8" ht="99">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -4830,7 +4947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="55.2">
+    <row r="3" spans="1:8" ht="56.6">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -4852,12 +4969,12 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="69">
+    <row r="4" spans="1:8" ht="56.6">
       <c r="A4" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>255</v>
@@ -4874,7 +4991,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="138">
+    <row r="5" spans="1:8" ht="127.3">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -4896,7 +5013,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="55.2">
+    <row r="6" spans="1:8" ht="56.6">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -4918,7 +5035,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="55.2">
+    <row r="7" spans="1:8" ht="56.6">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4940,7 +5057,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="69">
+    <row r="8" spans="1:8" ht="70.75">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -4962,7 +5079,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="55.2">
+    <row r="9" spans="1:8" ht="56.6">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -4984,7 +5101,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="69">
+    <row r="10" spans="1:8" ht="56.6">
       <c r="A10" s="1" t="s">
         <v>259</v>
       </c>
@@ -5006,7 +5123,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="55.2">
+    <row r="11" spans="1:8" ht="56.6">
       <c r="A11" s="1" t="s">
         <v>263</v>
       </c>
@@ -5028,7 +5145,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="55.2">
+    <row r="12" spans="1:8" ht="56.6">
       <c r="A12" s="1" t="s">
         <v>268</v>
       </c>
@@ -5050,7 +5167,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="69">
+    <row r="13" spans="1:8" ht="56.6">
       <c r="A13" s="1" t="s">
         <v>271</v>
       </c>
@@ -5072,7 +5189,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="55.2">
+    <row r="14" spans="1:8" ht="56.6">
       <c r="A14" s="1" t="s">
         <v>223</v>
       </c>
@@ -5094,7 +5211,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="69">
+    <row r="15" spans="1:8" ht="56.6">
       <c r="A15" s="1" t="s">
         <v>228</v>
       </c>
@@ -5116,7 +5233,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="55.2">
+    <row r="16" spans="1:8" ht="42.45">
       <c r="A16" s="1" t="s">
         <v>232</v>
       </c>
@@ -5140,7 +5257,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="55.2">
+    <row r="17" spans="1:8" ht="56.6">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -5164,7 +5281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="55.2">
+    <row r="18" spans="1:8" ht="56.6">
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
@@ -5188,7 +5305,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="69">
+    <row r="19" spans="1:8" ht="56.6">
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
@@ -5212,7 +5329,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="55.2">
+    <row r="20" spans="1:8" ht="56.6">
       <c r="A20" s="1" t="s">
         <v>274</v>
       </c>
@@ -5234,7 +5351,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="96.6">
+    <row r="21" spans="1:8" ht="84.9">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -5256,12 +5373,12 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="69">
+    <row r="22" spans="1:8" ht="56.6">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>1</v>
@@ -5278,7 +5395,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="69">
+    <row r="23" spans="1:8" ht="56.6">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -5300,12 +5417,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="55.2">
+    <row r="24" spans="1:8" ht="42.45">
       <c r="A24" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>287</v>
@@ -5322,7 +5439,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="69">
+    <row r="25" spans="1:8" ht="56.6">
       <c r="A25" s="1" t="s">
         <v>289</v>
       </c>
@@ -5344,7 +5461,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="69">
+    <row r="26" spans="1:8" ht="70.75">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -5368,12 +5485,12 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="55.2">
+    <row r="27" spans="1:8" ht="56.6">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>7</v>
@@ -5392,7 +5509,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="69">
+    <row r="28" spans="1:8" ht="56.6">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -5414,7 +5531,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="96.6">
+    <row r="29" spans="1:8" ht="99">
       <c r="A29" s="1" t="s">
         <v>295</v>
       </c>
@@ -5436,7 +5553,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="55.2">
+    <row r="30" spans="1:8" ht="56.6">
       <c r="A30" s="1" t="s">
         <v>300</v>
       </c>
@@ -5458,12 +5575,12 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="165.6">
+    <row r="31" spans="1:8" ht="169.75">
       <c r="A31" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>305</v>
@@ -5480,7 +5597,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="55.2">
+    <row r="32" spans="1:8" ht="56.6">
       <c r="A32" s="1" t="s">
         <v>307</v>
       </c>
@@ -5502,12 +5619,12 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="55.2">
+    <row r="33" spans="1:8" ht="56.6">
       <c r="A33" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>563</v>
@@ -5524,15 +5641,15 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="55.2">
+    <row r="34" spans="1:8" ht="56.6">
       <c r="A34" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>2</v>
@@ -5541,22 +5658,22 @@
         <v>298</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="3" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>2</v>
@@ -5565,42 +5682,42 @@
         <v>298</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="69">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="56.6">
+      <c r="A37" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="69">
-      <c r="A37" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
@@ -5609,20 +5726,20 @@
         <v>314</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="82.8">
+    <row r="38" spans="1:8" ht="70.75">
       <c r="A38" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -5631,20 +5748,20 @@
         <v>314</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="55.2">
+    <row r="39" spans="1:8" ht="70.75">
       <c r="A39" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
@@ -5653,20 +5770,20 @@
         <v>314</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="55.2">
+    <row r="40" spans="1:8" ht="56.6">
       <c r="A40" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
@@ -5675,42 +5792,42 @@
         <v>314</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="69">
+    <row r="41" spans="1:8" ht="42.45">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="41.4">
+    <row r="42" spans="1:8" ht="56.6">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>2</v>
@@ -5719,20 +5836,20 @@
         <v>15</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="69">
+    <row r="43" spans="1:8" ht="42.45">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>2</v>
@@ -5741,20 +5858,20 @@
         <v>15</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="69">
+    <row r="44" spans="1:8" ht="56.6">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
@@ -5763,20 +5880,20 @@
         <v>15</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="317.39999999999998">
+    <row r="45" spans="1:8" ht="56.6">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>2</v>
@@ -5785,20 +5902,20 @@
         <v>15</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="96.6">
+    <row r="46" spans="1:8" ht="311.14999999999998">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>870</v>
+        <v>139</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
@@ -5807,20 +5924,20 @@
         <v>15</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="69">
+    <row r="47" spans="1:8" ht="70.75">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>27</v>
+        <v>863</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>2</v>
@@ -5829,20 +5946,20 @@
         <v>15</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="55.2">
+    <row r="48" spans="1:8" ht="56.6">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>2</v>
@@ -5851,20 +5968,20 @@
         <v>15</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="138">
+    <row r="49" spans="1:8" ht="42.45">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>2</v>
@@ -5873,20 +5990,20 @@
         <v>15</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="69">
+    <row r="50" spans="1:8" ht="141.44999999999999">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
@@ -5895,22 +6012,20 @@
         <v>15</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="69">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="70.75">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>2</v>
@@ -5919,20 +6034,22 @@
         <v>15</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="69">
+      <c r="H51" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="70.75">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>2</v>
@@ -5941,20 +6058,20 @@
         <v>15</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="69">
+    <row r="53" spans="1:8" ht="56.6">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
@@ -5963,20 +6080,20 @@
         <v>15</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="82.8">
+    <row r="54" spans="1:8" ht="70.75">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
@@ -5985,20 +6102,20 @@
         <v>15</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="70.75">
       <c r="A55" s="1" t="s">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
@@ -6006,19 +6123,21 @@
       <c r="E55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" ht="69">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>343</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>2</v>
@@ -6026,21 +6145,19 @@
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>346</v>
-      </c>
+      <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="55.2">
+    <row r="57" spans="1:8" ht="56.6">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>871</v>
+        <v>47</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>2</v>
@@ -6049,20 +6166,20 @@
         <v>15</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="69">
+    <row r="58" spans="1:8" ht="42.45">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
@@ -6071,20 +6188,20 @@
         <v>15</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="96.6">
+    <row r="59" spans="1:8" ht="70.75">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>54</v>
+        <v>865</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>2</v>
@@ -6093,20 +6210,20 @@
         <v>15</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="55.2">
+    <row r="60" spans="1:8" ht="84.9">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>2</v>
@@ -6115,20 +6232,20 @@
         <v>15</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" ht="69">
+    <row r="61" spans="1:8" ht="56.6">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
@@ -6137,20 +6254,20 @@
         <v>15</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="69">
+    <row r="62" spans="1:8" ht="56.6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>2</v>
@@ -6159,20 +6276,20 @@
         <v>15</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="82.8">
+    <row r="63" spans="1:8" ht="56.6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>2</v>
@@ -6181,20 +6298,20 @@
         <v>15</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="69">
+    <row r="64" spans="1:8" ht="70.75">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
@@ -6203,20 +6320,20 @@
         <v>15</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" ht="55.2">
+    <row r="65" spans="1:8" ht="56.6">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
@@ -6225,20 +6342,20 @@
         <v>15</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" ht="317.39999999999998">
+    <row r="66" spans="1:8" ht="56.6">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>2</v>
@@ -6247,20 +6364,20 @@
         <v>15</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="124.2">
+    <row r="67" spans="1:8" ht="297">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
@@ -6269,20 +6386,20 @@
         <v>15</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="69">
+    <row r="68" spans="1:8" ht="113.15">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>873</v>
+        <v>78</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
@@ -6291,20 +6408,20 @@
         <v>15</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="69">
+    <row r="69" spans="1:8" ht="56.6">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>147</v>
+        <v>866</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>2</v>
@@ -6313,42 +6430,42 @@
         <v>15</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="96.6">
+    <row r="70" spans="1:8" ht="70.75">
       <c r="A70" s="1" t="s">
-        <v>745</v>
+        <v>146</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" ht="55.2">
+        <v>149</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" ht="84.9">
       <c r="A71" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>2</v>
@@ -6357,20 +6474,20 @@
         <v>15</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="14.4">
+    <row r="72" spans="1:8" ht="56.6">
       <c r="A72" s="1" t="s">
-        <v>874</v>
+        <v>746</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>876</v>
+        <v>747</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>748</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>2</v>
@@ -6378,21 +6495,21 @@
       <c r="E72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>877</v>
+      <c r="F72" s="8" t="s">
+        <v>749</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="14.6">
       <c r="A73" s="1" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>2</v>
@@ -6401,64 +6518,62 @@
         <v>15</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="41.4">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" ht="42.45">
+      <c r="A76" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" ht="82.8">
-      <c r="A75" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="1:8" ht="409.6">
-      <c r="A76" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>2</v>
@@ -6467,20 +6582,20 @@
         <v>362</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" ht="110.4">
+    <row r="77" spans="1:8" ht="84.9">
       <c r="A77" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>2</v>
@@ -6489,20 +6604,20 @@
         <v>362</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" ht="55.2">
+    <row r="78" spans="1:8" ht="381.9">
       <c r="A78" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>2</v>
@@ -6511,20 +6626,20 @@
         <v>362</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" ht="69">
+    <row r="79" spans="1:8" ht="99">
       <c r="A79" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>882</v>
+        <v>371</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>2</v>
@@ -6533,20 +6648,20 @@
         <v>362</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" ht="165.6">
+    <row r="80" spans="1:8" ht="56.6">
       <c r="A80" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>883</v>
+        <v>374</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>2</v>
@@ -6555,20 +6670,20 @@
         <v>362</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" ht="96.6">
+    <row r="81" spans="1:8" ht="56.6">
       <c r="A81" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>384</v>
+        <v>875</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>2</v>
@@ -6577,20 +6692,20 @@
         <v>362</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" ht="151.80000000000001">
+    <row r="82" spans="1:8" ht="169.75">
       <c r="A82" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
@@ -6599,20 +6714,20 @@
         <v>362</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" ht="82.8">
+    <row r="83" spans="1:8" ht="70.75">
       <c r="A83" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>2</v>
@@ -6621,20 +6736,20 @@
         <v>362</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" ht="110.4">
+    <row r="84" spans="1:8" ht="141.44999999999999">
       <c r="A84" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>395</v>
+        <v>877</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>2</v>
@@ -6643,64 +6758,64 @@
         <v>362</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="69">
+    <row r="85" spans="1:8" ht="70.75">
       <c r="A85" s="1" t="s">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>151</v>
+        <v>391</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>153</v>
+        <v>362</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>158</v>
+        <v>393</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" ht="55.2">
+    <row r="86" spans="1:8" ht="99">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>153</v>
+        <v>362</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" ht="69">
+    <row r="87" spans="1:8" ht="70.75">
       <c r="A87" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>885</v>
+        <v>151</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>2</v>
@@ -6709,64 +6824,64 @@
         <v>153</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="41.4">
+    <row r="88" spans="1:8" ht="56.6">
       <c r="A88" s="1" t="s">
-        <v>398</v>
+        <v>155</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>399</v>
+        <v>156</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>400</v>
+        <v>157</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>402</v>
+        <v>161</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" ht="96.6">
+    <row r="89" spans="1:8" ht="56.6">
       <c r="A89" s="1" t="s">
-        <v>403</v>
+        <v>159</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>404</v>
+        <v>878</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>405</v>
+        <v>160</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>406</v>
+        <v>154</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" ht="55.2">
+    <row r="90" spans="1:8" ht="42.45">
       <c r="A90" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>2</v>
@@ -6775,20 +6890,20 @@
         <v>401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" ht="55.2">
+    <row r="91" spans="1:8" ht="84.9">
       <c r="A91" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>2</v>
@@ -6797,20 +6912,20 @@
         <v>401</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" ht="69">
+    <row r="92" spans="1:8" ht="56.6">
       <c r="A92" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>2</v>
@@ -6819,20 +6934,20 @@
         <v>401</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" ht="69">
+    <row r="93" spans="1:8" ht="56.6">
       <c r="A93" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>2</v>
@@ -6841,42 +6956,42 @@
         <v>401</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" ht="55.2">
+    <row r="94" spans="1:8" ht="56.6">
       <c r="A94" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" ht="82.8">
+    <row r="95" spans="1:8" ht="56.6">
       <c r="A95" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>886</v>
+        <v>418</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>2</v>
@@ -6885,20 +7000,20 @@
         <v>401</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" ht="55.2">
+    <row r="96" spans="1:8" ht="56.6">
       <c r="A96" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>2</v>
@@ -6907,20 +7022,20 @@
         <v>401</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" ht="41.4">
+    <row r="97" spans="1:8" ht="56.6">
       <c r="A97" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>2</v>
@@ -6929,62 +7044,64 @@
         <v>401</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" ht="55.2">
-      <c r="A98" s="5" t="s">
-        <v>435</v>
+    <row r="98" spans="1:8" ht="56.6">
+      <c r="A98" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" ht="82.8">
-      <c r="A99" s="5" t="s">
-        <v>439</v>
+    <row r="99" spans="1:8" ht="42.45">
+      <c r="A99" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>437</v>
+        <v>880</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" ht="138">
+    <row r="100" spans="1:8" ht="42.45">
       <c r="A100" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B100" s="5"/>
+        <v>435</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>881</v>
+      </c>
       <c r="C100" s="8" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>2</v>
@@ -6993,20 +7110,20 @@
         <v>437</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" ht="55.2">
+    <row r="101" spans="1:8" ht="56.6">
       <c r="A101" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>2</v>
@@ -7015,20 +7132,18 @@
         <v>437</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" ht="55.2">
+    <row r="102" spans="1:8" ht="127.3">
       <c r="A102" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>451</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="B102" s="5"/>
       <c r="C102" s="8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>2</v>
@@ -7037,20 +7152,20 @@
         <v>437</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" ht="41.4">
-      <c r="A103" s="1" t="s">
-        <v>794</v>
+    <row r="103" spans="1:8" ht="42.45">
+      <c r="A103" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>889</v>
+        <v>447</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>795</v>
+        <v>448</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>2</v>
@@ -7059,20 +7174,20 @@
         <v>437</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" ht="55.2">
-      <c r="A104" s="1" t="s">
-        <v>797</v>
+        <v>449</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" ht="56.6">
+      <c r="A104" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>890</v>
+        <v>451</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>798</v>
+        <v>452</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>2</v>
@@ -7081,238 +7196,238 @@
         <v>437</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="1:8" ht="55.2">
+        <v>453</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" ht="42.45">
       <c r="A105" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" ht="56.6">
+      <c r="A106" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" ht="56.6">
+      <c r="A107" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="D107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F107" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" ht="179.4">
-      <c r="A106" s="1" t="s">
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" ht="183.9">
+      <c r="A108" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C108" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F108" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" spans="1:8" ht="96.6">
-      <c r="A107" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" ht="84.9">
       <c r="A109" s="1" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>902</v>
+        <v>885</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>886</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="F109" s="13"/>
+      <c r="E109" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>888</v>
+      </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="14.4">
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>903</v>
+        <v>1006</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>904</v>
+        <v>1007</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>905</v>
+        <v>1008</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>906</v>
+      <c r="E110" s="5" t="s">
+        <v>887</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>907</v>
+        <v>1009</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" ht="55.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>252</v>
+        <v>889</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="D111" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-    </row>
-    <row r="112" spans="1:8" ht="55.2">
+        <v>887</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>792</v>
+        <v>894</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>793</v>
-      </c>
+      <c r="E112" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F112" s="13"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="124.2">
+    <row r="113" spans="1:8" ht="14.6">
       <c r="A113" s="1" t="s">
-        <v>804</v>
+        <v>896</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>806</v>
+        <v>897</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>807</v>
+      <c r="E113" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>900</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="138">
+    <row r="114" spans="1:8" ht="56.6">
       <c r="A114" s="1" t="s">
-        <v>808</v>
+        <v>252</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>458</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="1:8" ht="55.2">
+        <v>459</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" ht="56.6">
       <c r="A115" s="1" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>2</v>
@@ -7321,20 +7436,20 @@
         <v>458</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="124.2">
+    <row r="116" spans="1:8" ht="113.15">
       <c r="A116" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>2</v>
@@ -7343,20 +7458,20 @@
         <v>458</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="55.2">
+    <row r="117" spans="1:8" ht="127.3">
       <c r="A117" s="1" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>2</v>
@@ -7365,156 +7480,152 @@
         <v>458</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="56.6">
       <c r="A118" s="1" t="s">
-        <v>910</v>
+        <v>804</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>912</v>
+        <v>804</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>913</v>
+      <c r="F118" s="8" t="s">
+        <v>806</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" ht="179.4">
+    <row r="119" spans="1:8" ht="113.15">
       <c r="A119" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" ht="42.45">
+      <c r="A120" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" ht="183.9">
+      <c r="A122" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="B122" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="D122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F122" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-    </row>
-    <row r="120" spans="1:8" ht="69">
-      <c r="A120" s="1" t="s">
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" ht="56.6">
+      <c r="A123" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="B123" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="D123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F123" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-    </row>
-    <row r="121" spans="1:8" ht="96.6">
-      <c r="A121" s="1" t="s">
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" ht="70.75">
+      <c r="A124" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B124" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C124" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-    </row>
-    <row r="122" spans="1:8" ht="96.6">
-      <c r="A122" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="82.8">
-      <c r="A123" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="82.8">
-      <c r="A124" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>2</v>
@@ -7523,86 +7634,90 @@
         <v>464</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" ht="110.4">
+    <row r="125" spans="1:8" ht="70.75">
       <c r="A125" s="1" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>95</v>
+        <v>467</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="1:8" ht="124.2">
+      <c r="H125" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="84.9">
       <c r="A126" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-    </row>
-    <row r="127" spans="1:8" ht="82.8">
+      <c r="H126" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="84.9">
       <c r="A127" s="1" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" ht="110.4">
+    <row r="128" spans="1:8" ht="99">
       <c r="A128" s="1" t="s">
-        <v>569</v>
+        <v>94</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>571</v>
+        <v>96</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>2</v>
@@ -7611,20 +7726,20 @@
         <v>97</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>572</v>
+        <v>478</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" ht="55.2">
+    <row r="129" spans="1:8" ht="113.15">
       <c r="A129" s="1" t="s">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>574</v>
+        <v>480</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>2</v>
@@ -7633,20 +7748,20 @@
         <v>97</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" ht="82.8">
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>577</v>
+        <v>1010</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>579</v>
+        <v>1010</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>1011</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>2</v>
@@ -7654,21 +7769,21 @@
       <c r="E130" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>580</v>
+      <c r="F130" s="3" t="s">
+        <v>1012</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" ht="69">
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>581</v>
+        <v>1013</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>583</v>
+        <v>1014</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>2</v>
@@ -7676,21 +7791,21 @@
       <c r="E131" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F131" s="8" t="s">
-        <v>584</v>
+      <c r="F131" s="3" t="s">
+        <v>1016</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" ht="69">
+    <row r="132" spans="1:8" ht="84.9">
       <c r="A132" s="1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>2</v>
@@ -7699,20 +7814,20 @@
         <v>97</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" ht="69">
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>590</v>
+        <v>1017</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>2</v>
@@ -7720,149 +7835,153 @@
       <c r="E133" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="8" t="s">
-        <v>591</v>
+      <c r="F133" s="3" t="s">
+        <v>1020</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" ht="82.8">
+    <row r="134" spans="1:8" ht="113.15">
       <c r="A134" s="1" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" ht="55.2">
+    <row r="135" spans="1:8" ht="42.45">
       <c r="A135" s="1" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E135" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:8" ht="82.8">
+        <v>576</v>
+      </c>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="1:8" ht="70.75">
       <c r="A136" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:8" ht="69">
+        <v>580</v>
+      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="1:8" ht="56.6">
       <c r="A137" s="1" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:8">
+        <v>584</v>
+      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="1:8" ht="70.75">
       <c r="A138" s="1" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F138" s="5"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="1:8" ht="82.8">
+      <c r="F138" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="1:8" ht="70.75">
       <c r="A139" s="1" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:8" ht="69">
+      <c r="F139" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="1:8" ht="70.75">
       <c r="A140" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>2</v>
@@ -7871,20 +7990,20 @@
         <v>97</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-    </row>
-    <row r="141" spans="1:8" ht="69">
+        <v>595</v>
+      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="1:8" ht="56.6">
       <c r="A141" s="1" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>2</v>
@@ -7893,20 +8012,20 @@
         <v>97</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" ht="96.6">
+    <row r="142" spans="1:8" ht="84.9">
       <c r="A142" s="1" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>2</v>
@@ -7915,20 +8034,20 @@
         <v>97</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" ht="165.6">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>625</v>
+        <v>604</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>2</v>
@@ -7936,21 +8055,19 @@
       <c r="E143" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F143" s="8" t="s">
-        <v>626</v>
-      </c>
+      <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" ht="138">
+    <row r="144" spans="1:8" ht="70.75">
       <c r="A144" s="1" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>2</v>
@@ -7958,21 +8075,19 @@
       <c r="E144" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F144" s="8" t="s">
-        <v>630</v>
-      </c>
+      <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="41.4">
+    <row r="145" spans="1:8" ht="56.6">
       <c r="A145" s="1" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>2</v>
@@ -7981,20 +8096,20 @@
         <v>97</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" ht="55.2">
+    <row r="146" spans="1:8" ht="70.75">
       <c r="A146" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>2</v>
@@ -8003,20 +8118,20 @@
         <v>97</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="55.2">
+    <row r="147" spans="1:8" ht="99">
       <c r="A147" s="1" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>2</v>
@@ -8025,20 +8140,20 @@
         <v>97</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="96.6">
+    <row r="148" spans="1:8" ht="155.6">
       <c r="A148" s="1" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>2</v>
@@ -8047,20 +8162,20 @@
         <v>97</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="69">
+    <row r="149" spans="1:8" ht="127.3">
       <c r="A149" s="1" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>2</v>
@@ -8069,20 +8184,20 @@
         <v>97</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="165.6">
+    <row r="150" spans="1:8" ht="42.45">
       <c r="A150" s="1" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>2</v>
@@ -8091,20 +8206,20 @@
         <v>97</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="55.2">
+    <row r="151" spans="1:8" ht="56.6">
       <c r="A151" s="1" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>2</v>
@@ -8113,20 +8228,20 @@
         <v>97</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="41.4">
+    <row r="152" spans="1:8" ht="56.6">
       <c r="A152" s="1" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>2</v>
@@ -8135,20 +8250,20 @@
         <v>97</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" ht="55.2">
+    <row r="153" spans="1:8" ht="70.75">
       <c r="A153" s="1" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>2</v>
@@ -8157,20 +8272,20 @@
         <v>97</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" ht="69">
+    <row r="154" spans="1:8" ht="56.6">
       <c r="A154" s="1" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>2</v>
@@ -8179,20 +8294,20 @@
         <v>97</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="69">
+    <row r="155" spans="1:8" ht="155.6">
       <c r="A155" s="1" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>2</v>
@@ -8201,20 +8316,20 @@
         <v>97</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" ht="55.2">
+    <row r="156" spans="1:8" ht="56.6">
       <c r="A156" s="1" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>110</v>
+        <v>652</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>2</v>
@@ -8223,20 +8338,20 @@
         <v>97</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="69">
+    <row r="157" spans="1:8" ht="42.45">
       <c r="A157" s="1" t="s">
-        <v>832</v>
+        <v>655</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>833</v>
+        <v>656</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>834</v>
+        <v>657</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>2</v>
@@ -8245,42 +8360,42 @@
         <v>97</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>835</v>
+        <v>658</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="56.6">
       <c r="A158" s="1" t="s">
-        <v>916</v>
+        <v>659</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>918</v>
+        <v>660</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>661</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>919</v>
+      <c r="F158" s="8" t="s">
+        <v>662</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" ht="56.6">
       <c r="A159" s="1" t="s">
-        <v>920</v>
+        <v>663</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>921</v>
+        <v>664</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>665</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>2</v>
@@ -8288,21 +8403,21 @@
       <c r="E159" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>922</v>
+      <c r="F159" s="8" t="s">
+        <v>666</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" ht="70.75">
       <c r="A160" s="1" t="s">
-        <v>923</v>
+        <v>667</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>925</v>
+        <v>668</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>669</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>2</v>
@@ -8310,217 +8425,217 @@
       <c r="E160" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F160" s="6"/>
+      <c r="F160" s="8" t="s">
+        <v>670</v>
+      </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" ht="56.6">
       <c r="A161" s="1" t="s">
-        <v>926</v>
+        <v>671</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>928</v>
+        <v>110</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>672</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>930</v>
+      <c r="E161" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>673</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" ht="70.75">
       <c r="A162" s="1" t="s">
-        <v>931</v>
+        <v>825</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>933</v>
+        <v>826</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>827</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>934</v>
+      <c r="E162" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>828</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" ht="110.4">
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>677</v>
+        <v>909</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>679</v>
+        <v>910</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>911</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>680</v>
+      <c r="E163" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>912</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" ht="124.2">
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>681</v>
+        <v>913</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>683</v>
+        <v>913</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>914</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>684</v>
+        <v>97</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>915</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="55.2">
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>685</v>
+        <v>916</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>686</v>
+        <v>917</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>687</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" ht="82.8">
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>688</v>
+        <v>919</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>689</v>
+        <v>920</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>921</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>690</v>
+      <c r="E166" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>923</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" ht="55.2">
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>691</v>
+        <v>924</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>693</v>
+        <v>925</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>926</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>694</v>
+      <c r="E167" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>927</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" ht="96.6">
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>695</v>
+        <v>1021</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>697</v>
+        <v>1022</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>1023</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>698</v>
+      <c r="E168" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>1024</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" ht="69">
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>699</v>
+        <v>1025</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>701</v>
+        <v>1026</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>1027</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>702</v>
+      <c r="E169" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>1028</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="96.6">
+    <row r="170" spans="1:8" ht="99">
       <c r="A170" s="1" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>2</v>
@@ -8529,20 +8644,20 @@
         <v>101</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" ht="110.4">
+    <row r="171" spans="1:8" ht="99">
       <c r="A171" s="1" t="s">
-        <v>98</v>
+        <v>678</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>99</v>
+        <v>679</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>2</v>
@@ -8551,20 +8666,20 @@
         <v>101</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-    </row>
-    <row r="172" spans="1:8" ht="124.2">
+        <v>681</v>
+      </c>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" ht="56.6">
       <c r="A172" s="1" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>2</v>
@@ -8573,20 +8688,20 @@
         <v>101</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-    </row>
-    <row r="173" spans="1:8" ht="82.8">
+        <v>684</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" ht="70.75">
       <c r="A173" s="1" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>2</v>
@@ -8595,20 +8710,20 @@
         <v>101</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-    </row>
-    <row r="174" spans="1:8" ht="96.6">
+        <v>687</v>
+      </c>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" ht="56.6">
       <c r="A174" s="1" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>2</v>
@@ -8617,20 +8732,20 @@
         <v>101</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-    </row>
-    <row r="175" spans="1:8" ht="69">
+        <v>691</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" ht="84.9">
       <c r="A175" s="1" t="s">
-        <v>97</v>
+        <v>692</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>935</v>
+        <v>693</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>836</v>
+        <v>694</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>2</v>
@@ -8639,20 +8754,20 @@
         <v>101</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>837</v>
+        <v>695</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="41.4">
+    <row r="176" spans="1:8" ht="56.6">
       <c r="A176" s="1" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>2</v>
@@ -8660,531 +8775,535 @@
       <c r="E176" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F176" s="5"/>
+      <c r="F176" s="8" t="s">
+        <v>699</v>
+      </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="55.2">
+    <row r="177" spans="1:8" ht="84.9">
       <c r="A177" s="1" t="s">
-        <v>162</v>
+        <v>700</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>163</v>
+        <v>701</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>164</v>
+        <v>702</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H177" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="69">
+        <v>703</v>
+      </c>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" ht="99">
       <c r="A178" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>171</v>
+        <v>478</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" ht="69">
+    <row r="179" spans="1:8" ht="99">
       <c r="A179" s="1" t="s">
-        <v>172</v>
+        <v>704</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>173</v>
+        <v>705</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>174</v>
+        <v>706</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>175</v>
+        <v>101</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>707</v>
       </c>
       <c r="G179" s="5"/>
-      <c r="H179" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="96.6">
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="1:8" ht="84.9">
       <c r="A180" s="1" t="s">
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>178</v>
+        <v>709</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>179</v>
+        <v>710</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>180</v>
+        <v>711</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" ht="55.2">
+    <row r="181" spans="1:8" ht="84.9">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>712</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>165</v>
+        <v>713</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>183</v>
+        <v>715</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8" ht="82.8">
+    <row r="182" spans="1:8" ht="56.6">
       <c r="A182" s="1" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>185</v>
+        <v>928</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" ht="42.45">
+      <c r="A183" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" ht="56.6">
+      <c r="A184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F182" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="55.2">
-      <c r="A183" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G183" s="5" t="s">
+      <c r="F184" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H183" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="82.8">
-      <c r="A184" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="G184" s="5"/>
       <c r="H184" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="69">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="70.75">
       <c r="A185" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" ht="165.6">
+    <row r="186" spans="1:8" ht="56.6">
       <c r="A186" s="1" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>206</v>
+        <v>173</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-    </row>
-    <row r="187" spans="1:8" ht="96.6">
+      <c r="H186" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="99">
       <c r="A187" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F187" s="5"/>
-      <c r="G187" s="8" t="s">
-        <v>211</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G187" s="5"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8" ht="69">
+    <row r="188" spans="1:8" ht="56.6">
       <c r="A188" s="1" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" ht="70.75">
       <c r="A189" s="1" t="s">
-        <v>484</v>
+        <v>184</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>486</v>
+        <v>185</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F189" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-    </row>
-    <row r="190" spans="1:8" ht="41.4">
+      <c r="H189" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="56.6">
       <c r="A190" s="1" t="s">
-        <v>487</v>
+        <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>936</v>
+        <v>190</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>488</v>
+        <v>191</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-    </row>
-    <row r="191" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="70.75">
       <c r="A191" s="1" t="s">
-        <v>937</v>
+        <v>195</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="D191" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G191" s="5"/>
+      <c r="H191" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="56.6">
       <c r="A192" s="1" t="s">
-        <v>940</v>
+        <v>199</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D192" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" ht="124.2">
+        <v>192</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="1:8" ht="155.6">
       <c r="A193" s="1" t="s">
-        <v>490</v>
+        <v>203</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>491</v>
+        <v>204</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>492</v>
+        <v>205</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>493</v>
+        <v>192</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>494</v>
+        <v>206</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" ht="84.9">
       <c r="A194" s="1" t="s">
-        <v>495</v>
+        <v>207</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>496</v>
+        <v>208</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>497</v>
+        <v>209</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>493</v>
+        <v>210</v>
       </c>
       <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
+      <c r="G194" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:8" ht="55.2">
+    <row r="195" spans="1:8" ht="56.6">
       <c r="A195" s="1" t="s">
-        <v>498</v>
+        <v>212</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>499</v>
+        <v>213</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>500</v>
+        <v>214</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>493</v>
+        <v>210</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>501</v>
+        <v>215</v>
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:8" ht="110.4">
+    <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>505</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" ht="42.45">
       <c r="A197" s="1" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>506</v>
+        <v>929</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F197" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>489</v>
+      </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8" ht="110.4">
+    <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>508</v>
+        <v>930</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D198" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-    </row>
-    <row r="199" spans="1:8" ht="110.4">
+        <v>210</v>
+      </c>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>512</v>
+        <v>933</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D199" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-    </row>
-    <row r="200" spans="1:8" ht="110.4">
+        <v>210</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:8" ht="127.3">
       <c r="A200" s="1" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>2</v>
@@ -9193,20 +9312,20 @@
         <v>493</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8" ht="138">
+    <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>2</v>
@@ -9214,21 +9333,19 @@
       <c r="E201" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F201" s="8" t="s">
-        <v>522</v>
-      </c>
+      <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="1:8" ht="165.6">
+    <row r="202" spans="1:8" ht="56.6">
       <c r="A202" s="1" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>2</v>
@@ -9237,868 +9354,866 @@
         <v>493</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="1:8" ht="69">
+    <row r="203" spans="1:8" ht="113.15">
       <c r="A203" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="1:8" ht="99">
+      <c r="A205" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:8" ht="99">
+      <c r="A206" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="1:8" ht="84.9">
+      <c r="A207" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="1:8" ht="141.44999999999999">
+      <c r="A208" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="1:8" ht="141.44999999999999">
+      <c r="A209" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="1:8" ht="56.6">
+      <c r="A210" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="F210" s="8" t="s">
         <v>734</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="1:8" ht="55.2">
-      <c r="A204" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:8" ht="55.2">
-      <c r="A205" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:8" ht="55.2">
-      <c r="A206" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="F206" s="5"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:8" ht="55.2">
-      <c r="A207" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="1:8" ht="55.2">
-      <c r="A208" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="1:8" ht="55.2">
-      <c r="A209" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" ht="55.2">
-      <c r="A210" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>773</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" spans="1:8" ht="69">
+    <row r="211" spans="1:8" ht="42.45">
       <c r="A211" s="1" t="s">
-        <v>774</v>
+        <v>735</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>775</v>
+        <v>937</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:8" ht="55.2">
+    <row r="212" spans="1:8" ht="56.6">
       <c r="A212" s="1" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" spans="1:8" ht="55.2">
+    <row r="213" spans="1:8" ht="56.6">
       <c r="A213" s="1" t="s">
-        <v>782</v>
+        <v>938</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>783</v>
+        <v>939</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>784</v>
+        <v>940</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>785</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="F213" s="5"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
     </row>
-    <row r="214" spans="1:8" ht="55.2">
+    <row r="214" spans="1:8" ht="56.6">
       <c r="A214" s="1" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
-    <row r="215" spans="1:8" ht="82.8">
+    <row r="215" spans="1:8" ht="42.45">
       <c r="A215" s="1" t="s">
-        <v>842</v>
+        <v>759</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>843</v>
+        <v>760</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>844</v>
+        <v>761</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>845</v>
+        <v>762</v>
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
-    <row r="216" spans="1:8" ht="55.2">
+    <row r="216" spans="1:8" ht="42.45">
       <c r="A216" s="1" t="s">
-        <v>823</v>
+        <v>763</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>824</v>
+        <v>764</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>825</v>
+        <v>765</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>826</v>
+        <v>750</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>827</v>
+        <v>766</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" spans="1:8" ht="55.2">
+    <row r="217" spans="1:8" ht="56.6">
       <c r="A217" s="1" t="s">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>724</v>
+        <v>769</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-    </row>
-    <row r="218" spans="1:8" ht="55.2">
+        <v>750</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" ht="56.6">
       <c r="A218" s="1" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" ht="55.2">
+    <row r="219" spans="1:8" ht="42.45">
       <c r="A219" s="1" t="s">
-        <v>846</v>
+        <v>775</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>948</v>
+        <v>776</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>847</v>
+        <v>777</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>848</v>
+        <v>778</v>
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:8" ht="82.8">
+    <row r="220" spans="1:8" ht="42.45">
       <c r="A220" s="1" t="s">
-        <v>849</v>
+        <v>779</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>850</v>
+        <v>780</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>852</v>
+        <v>782</v>
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" spans="1:8" ht="55.2">
-      <c r="A221" s="12" t="s">
-        <v>857</v>
+    <row r="221" spans="1:8" ht="84.9">
+      <c r="A221" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" ht="14.4">
+    <row r="222" spans="1:8" ht="56.6">
       <c r="A222" s="1" t="s">
-        <v>949</v>
+        <v>816</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>951</v>
+        <v>817</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>818</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>952</v>
+      <c r="E222" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" ht="41.4">
+    <row r="223" spans="1:8" ht="56.6">
       <c r="A223" s="1" t="s">
-        <v>953</v>
+        <v>719</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>954</v>
+        <v>720</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>955</v>
+        <v>721</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F223" s="5"/>
-      <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:8" ht="69">
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="1:8" ht="56.6">
       <c r="A224" s="1" t="s">
-        <v>956</v>
+        <v>793</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>957</v>
+        <v>794</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>958</v>
+        <v>795</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>959</v>
+        <v>722</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>960</v>
+        <v>796</v>
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
     </row>
-    <row r="225" spans="1:8" ht="82.8">
+    <row r="225" spans="1:8" ht="56.6">
       <c r="A225" s="1" t="s">
-        <v>961</v>
+        <v>839</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>963</v>
+        <v>840</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>959</v>
+        <v>722</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>964</v>
+        <v>841</v>
       </c>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" ht="55.2">
+    <row r="226" spans="1:8" ht="84.9">
       <c r="A226" s="1" t="s">
-        <v>965</v>
+        <v>842</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>966</v>
+        <v>843</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>967</v>
+        <v>844</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>959</v>
+        <v>722</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>968</v>
+        <v>845</v>
       </c>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
     </row>
-    <row r="227" spans="1:8" ht="82.8">
-      <c r="A227" s="1" t="s">
-        <v>969</v>
+    <row r="227" spans="1:8" ht="42.45">
+      <c r="A227" s="12" t="s">
+        <v>850</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>970</v>
+        <v>847</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>971</v>
+        <v>846</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>959</v>
+        <v>722</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>972</v>
+        <v>848</v>
       </c>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
     </row>
-    <row r="228" spans="1:8" ht="96.6">
+    <row r="228" spans="1:8" ht="14.6">
       <c r="A228" s="1" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>975</v>
+        <v>943</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>944</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E228" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="F228" s="8" t="s">
-        <v>976</v>
+      <c r="E228" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>945</v>
       </c>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
-    <row r="229" spans="1:8" ht="55.2">
+    <row r="229" spans="1:8" ht="42.45">
       <c r="A229" s="1" t="s">
-        <v>977</v>
+        <v>946</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>959</v>
+        <v>722</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:8" ht="82.8">
+    <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
-        <v>979</v>
+        <v>1029</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>981</v>
+        <v>1030</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>1031</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="F230" s="5"/>
+        <v>722</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>1032</v>
+      </c>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" ht="70.75">
       <c r="A231" s="1" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>984</v>
+        <v>950</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>951</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>985</v>
+        <v>952</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>953</v>
       </c>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
     </row>
-    <row r="232" spans="1:8" ht="55.2">
+    <row r="232" spans="1:8" ht="84.9">
       <c r="A232" s="1" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>989</v>
+        <v>957</v>
       </c>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" spans="1:8" ht="69">
+    <row r="233" spans="1:8" ht="56.6">
       <c r="A233" s="1" t="s">
-        <v>990</v>
+        <v>958</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>991</v>
+        <v>959</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>992</v>
+        <v>960</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>993</v>
+        <v>952</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
     </row>
-    <row r="234" spans="1:8" ht="55.2">
+    <row r="234" spans="1:8" ht="70.75">
       <c r="A234" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" ht="84.9">
+      <c r="A235" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:8" ht="56.6">
+      <c r="A236" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="1:8" ht="84.9">
+      <c r="A237" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:8" ht="56.6">
+      <c r="A239" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8" ht="56.6">
+      <c r="A240" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" ht="42.45">
+      <c r="A241" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="C234" s="8" t="s">
+      <c r="B241" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="C241" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D234" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E234" s="5" t="s">
+      <c r="D241" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F234" s="8" t="s">
+      <c r="F241" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-    </row>
-    <row r="235" spans="1:8" ht="55.2">
-      <c r="A235" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-    </row>
-    <row r="236" spans="1:8" ht="69">
-      <c r="A236" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F236" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-    </row>
-    <row r="237" spans="1:8" ht="69">
-      <c r="A237" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-    </row>
-    <row r="238" spans="1:8" ht="55.2">
-      <c r="A238" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F238" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-    </row>
-    <row r="239" spans="1:8" ht="138">
-      <c r="A239" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F239" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-    </row>
-    <row r="240" spans="1:8" ht="110.4">
-      <c r="A240" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-    </row>
-    <row r="241" spans="1:8" ht="69">
-      <c r="A241" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F241" s="8" t="s">
-        <v>550</v>
       </c>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" spans="1:8" ht="41.4">
+    <row r="242" spans="1:8" ht="56.6">
       <c r="A242" s="1" t="s">
-        <v>551</v>
+        <v>219</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>552</v>
+        <v>220</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>553</v>
+        <v>221</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>2</v>
@@ -10107,20 +10222,20 @@
         <v>218</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>554</v>
+        <v>222</v>
       </c>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="1:8" ht="69">
+    <row r="243" spans="1:8" ht="56.6">
       <c r="A243" s="1" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>2</v>
@@ -10129,20 +10244,20 @@
         <v>218</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" spans="1:8" ht="69">
+    <row r="244" spans="1:8" ht="70.75">
       <c r="A244" s="1" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>2</v>
@@ -10151,663 +10266,878 @@
         <v>218</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" spans="1:8" ht="55.2">
+    <row r="245" spans="1:8" ht="56.6">
       <c r="A245" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="1:8" ht="127.3">
+      <c r="A246" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="1:8" ht="99">
+      <c r="A247" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" spans="1:8" ht="56.6">
+      <c r="A248" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" spans="1:8" ht="42.45">
+      <c r="A249" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" spans="1:8" ht="70.75">
+      <c r="A250" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" spans="1:8" ht="70.75">
+      <c r="A251" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" spans="1:8" ht="56.6">
+      <c r="A252" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" spans="1:8" ht="56.6">
+      <c r="A253" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B253" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254" spans="1:8" ht="127.3">
+      <c r="A254" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="1:8" ht="99">
+      <c r="A255" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256" spans="1:8" ht="56.6">
+      <c r="A256" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="1:8" ht="42.45">
+      <c r="A258" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E245" s="5" t="s">
+      <c r="D259" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F245" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="G245" s="6"/>
-      <c r="H245" s="6"/>
-    </row>
-    <row r="246" spans="1:8" ht="69">
-      <c r="A246" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E246" s="5" t="s">
+      <c r="F259" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E260" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F246" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="G246" s="6"/>
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" spans="1:8" ht="124.2">
-      <c r="A247" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F247" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="G247" s="6"/>
-      <c r="H247" s="6"/>
-    </row>
-    <row r="248" spans="1:8" ht="96.6">
-      <c r="A248" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F248" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="G248" s="6"/>
-      <c r="H248" s="6"/>
-    </row>
-    <row r="249" spans="1:8" ht="55.2">
-      <c r="A249" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="G249" s="6"/>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="1:8" ht="41.4">
-      <c r="A250" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F250" s="5"/>
-      <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E251" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
+      <c r="F260" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{4C3882BD-068A-49BD-A1A1-C80041734D72}"/>
-    <hyperlink ref="F1" r:id="rId2" xr:uid="{9CF7DE1E-7257-49F3-97A8-E66A0267FC8F}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://www.notion.so/" xr:uid="{FFB55CBC-809F-4A8D-8673-0DB3EEB5C42D}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{5433ABB5-0DE6-4519-B295-0DFA13F2B200}"/>
-    <hyperlink ref="A3" r:id="rId5" display="https://note.ms/" xr:uid="{CD13B1BC-F0E3-4546-B431-619C1B349429}"/>
-    <hyperlink ref="C3" r:id="rId6" display="https://note.ms/" xr:uid="{0FAEC50A-FB4A-4315-8C88-410AA23258E9}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{AE1F7D80-9929-418D-96C9-47EEAEDCD6E7}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{6D397B6D-56D8-4866-8E0D-D658D9672D5B}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{D72575D9-C7DD-4037-A963-28C73A315CB4}"/>
-    <hyperlink ref="C5" r:id="rId10" display="https://tophub.today/" xr:uid="{2E55D19F-31D3-48E4-8D76-D486A49DA2FC}"/>
-    <hyperlink ref="F5" r:id="rId11" xr:uid="{29F11EC5-9420-4145-B0B1-26C415E214E3}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{1F067955-65D6-42C7-9686-B29F4DC1FE76}"/>
-    <hyperlink ref="F6" r:id="rId13" xr:uid="{906B9502-1007-414D-8E6F-A3514B0B7000}"/>
-    <hyperlink ref="C7" r:id="rId14" xr:uid="{E06A6BD8-AAB3-47F7-8637-73EEF714B121}"/>
-    <hyperlink ref="F7" r:id="rId15" xr:uid="{6409DC67-C33D-4EB2-AEF4-C14CDD8E3EBC}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{FDD91CD3-3E6E-4DCD-BCAD-90D9D6A638F6}"/>
-    <hyperlink ref="F8" r:id="rId17" xr:uid="{13DFB186-FE4B-4EE7-A846-62F64811F1F7}"/>
-    <hyperlink ref="C9" r:id="rId18" xr:uid="{5F176F55-7831-4D28-9BAA-74787A16DB36}"/>
-    <hyperlink ref="F9" r:id="rId19" xr:uid="{625FF901-98C5-4744-827C-969DE0BD6AF5}"/>
-    <hyperlink ref="C10" r:id="rId20" xr:uid="{863EC5E7-4899-4E40-88D8-3AF2153C09A7}"/>
-    <hyperlink ref="F10" r:id="rId21" xr:uid="{071C7B09-09DA-4E80-96E1-6056692ECA29}"/>
-    <hyperlink ref="C11" r:id="rId22" tooltip="https://www.mtime.com" display="https://www.mtime.com/" xr:uid="{AC4A89B2-7560-4E95-837D-AE5E363C3F29}"/>
-    <hyperlink ref="F11" r:id="rId23" xr:uid="{C9E56AA8-A1DC-4978-A0DD-B531BF6C7018}"/>
-    <hyperlink ref="C12" r:id="rId24" display="https://www.1905.com/" xr:uid="{F3845972-F127-45DA-8746-80D17600BFEC}"/>
-    <hyperlink ref="F12" r:id="rId25" xr:uid="{7ABB5307-3AF9-4281-B1E1-2C1D6A999C97}"/>
-    <hyperlink ref="C13" r:id="rId26" display="https://movie.douban.com/" xr:uid="{6572CA5A-4F5C-4A67-8D5E-5786ABBB1C43}"/>
-    <hyperlink ref="F13" r:id="rId27" xr:uid="{A5692FB0-0576-4890-A328-EF1854A936C5}"/>
-    <hyperlink ref="C14" r:id="rId28" xr:uid="{86ECD756-D811-4624-B845-33FC3CC5DF19}"/>
-    <hyperlink ref="F14" r:id="rId29" xr:uid="{B2077B43-AB12-4F63-B8CE-E653DC35898F}"/>
-    <hyperlink ref="C15" r:id="rId30" xr:uid="{FA7DB2F2-D2BE-4BEB-8303-917E0781048B}"/>
-    <hyperlink ref="F15" r:id="rId31" xr:uid="{92DDB0D6-56C2-4D6E-BCB3-D316D3EF6ABF}"/>
-    <hyperlink ref="C16" r:id="rId32" xr:uid="{93487223-E803-42BB-98C3-79D22A020B60}"/>
-    <hyperlink ref="F16" r:id="rId33" xr:uid="{2EE3B1CC-4794-4DE4-B9EA-0F9A96215741}"/>
-    <hyperlink ref="H16" r:id="rId34" xr:uid="{AAFB43CD-DE68-490A-B46B-CE9F203E7523}"/>
-    <hyperlink ref="C17" r:id="rId35" xr:uid="{FFCD51BF-0FC0-4F95-94CE-A03350766ACE}"/>
-    <hyperlink ref="F17" r:id="rId36" xr:uid="{9F7CA82E-EC84-4564-9807-8581715D7843}"/>
-    <hyperlink ref="H17" r:id="rId37" xr:uid="{18BDFF19-4153-41EC-A6F9-5F737585E95C}"/>
-    <hyperlink ref="C18" r:id="rId38" xr:uid="{08A6FBE2-79CD-4AAB-8E5C-A09C947F929A}"/>
-    <hyperlink ref="F18" r:id="rId39" xr:uid="{97C4B0C3-0B41-4F42-A90E-1A239F5A955F}"/>
-    <hyperlink ref="H18" r:id="rId40" display="https://www.dy2018.com/" xr:uid="{EF424A0F-68AF-4988-9262-78B478C889BB}"/>
-    <hyperlink ref="C19" r:id="rId41" xr:uid="{F8D5A4A4-54D9-496D-88DA-BC9F1208206B}"/>
-    <hyperlink ref="F19" r:id="rId42" xr:uid="{803CCDEC-B544-43A1-811C-6D9D12D1B7E4}"/>
-    <hyperlink ref="C20" r:id="rId43" xr:uid="{7945DDD3-D8FE-42B2-8686-B9A6E5695677}"/>
-    <hyperlink ref="F20" r:id="rId44" xr:uid="{F29DD181-BC21-4F53-A776-171E81EE4045}"/>
-    <hyperlink ref="C21" r:id="rId45" xr:uid="{860055A4-9873-4666-8A02-439BF70378CD}"/>
-    <hyperlink ref="F21" r:id="rId46" xr:uid="{5A081DFC-5C5B-4A17-BE08-4B72E0C9955C}"/>
-    <hyperlink ref="C22" r:id="rId47" xr:uid="{3741B5E9-9131-48AC-8A02-9433D48BFDF5}"/>
-    <hyperlink ref="F22" r:id="rId48" tooltip="https://toolb.cn/favicon/www.iyd.wang" xr:uid="{9596B047-C254-4914-B100-4A1AA5681D7E}"/>
-    <hyperlink ref="C23" r:id="rId49" xr:uid="{BF7536F3-D64F-4668-BCB0-43DBCA0C3FB7}"/>
-    <hyperlink ref="F23" r:id="rId50" xr:uid="{AE85C7D7-97F7-4F1B-9303-E6D7A8C70FFF}"/>
-    <hyperlink ref="C24" r:id="rId51" xr:uid="{62A35067-9DE3-41BF-9EAD-09F94FEADDEC}"/>
-    <hyperlink ref="F24" r:id="rId52" xr:uid="{700AF8C1-760F-498D-B08F-0D835EE77194}"/>
-    <hyperlink ref="C25" r:id="rId53" xr:uid="{7E9F950C-7FED-422E-8E85-85270A06D305}"/>
-    <hyperlink ref="F25" r:id="rId54" tooltip="https://www.book123.info/favicon.ico" xr:uid="{0F4B7BDF-1A53-4A40-B1D4-C005730CFF29}"/>
-    <hyperlink ref="C26" r:id="rId55" xr:uid="{577BCEB3-83C8-4379-AC04-1BD697A26D31}"/>
-    <hyperlink ref="F26" r:id="rId56" xr:uid="{741FAE42-F2C9-4947-BAED-583DFB2A9007}"/>
-    <hyperlink ref="C27" r:id="rId57" xr:uid="{B0843AA4-B7F3-4CAC-B401-23E00B1907B3}"/>
-    <hyperlink ref="F27" r:id="rId58" xr:uid="{D4CA7F2A-FBA6-45C8-807C-B55AF3DDD652}"/>
-    <hyperlink ref="H27" r:id="rId59" xr:uid="{41AE603E-73BB-4A6C-B6B6-877898DAD743}"/>
-    <hyperlink ref="C28" r:id="rId60" xr:uid="{2326108F-782C-4353-96C3-9FD6E2C246A2}"/>
-    <hyperlink ref="F28" r:id="rId61" xr:uid="{1F99AFE7-0254-4AC1-8B07-F8145B629802}"/>
-    <hyperlink ref="C29" r:id="rId62" display="https://www.iplaysoft.com/" xr:uid="{070FAAE2-9C22-4949-B633-43EE75468BCD}"/>
-    <hyperlink ref="F29" r:id="rId63" xr:uid="{C4202832-9556-41C7-BE9B-50AC427F64A7}"/>
-    <hyperlink ref="C30" r:id="rId64" display="https://www.ghxi.com/" xr:uid="{2E895D8C-BD7C-4079-A2CB-35E7F358AB92}"/>
-    <hyperlink ref="F30" r:id="rId65" xr:uid="{825FCB4A-FFAD-4CA6-8992-DE5F53615600}"/>
-    <hyperlink ref="C31" r:id="rId66" display="https://www.yeyulingfeng.com/" xr:uid="{1EE4777C-F84F-408A-ABD8-E4D7914C7E51}"/>
-    <hyperlink ref="F31" r:id="rId67" xr:uid="{6B7CC1D2-9715-4DF5-86B8-0F706A19742A}"/>
-    <hyperlink ref="C32" r:id="rId68" display="https://www.mpyit.com/" xr:uid="{071C0526-8892-4551-AF0F-25FAF3506BB3}"/>
-    <hyperlink ref="F32" r:id="rId69" xr:uid="{B2BAA9B1-6413-42AA-95DE-776529CF645A}"/>
-    <hyperlink ref="C33" r:id="rId70" display="https://www.ypojie.com/" xr:uid="{84CD3E3D-F59C-40F7-891B-B0ED1F2CCCF2}"/>
-    <hyperlink ref="F33" r:id="rId71" xr:uid="{C53B5169-54E3-448D-8518-D97F2A700ABE}"/>
-    <hyperlink ref="C34" r:id="rId72" xr:uid="{0D84C736-BECD-43E9-9173-C93853B8BE4C}"/>
-    <hyperlink ref="F34" r:id="rId73" xr:uid="{DCE7A325-6EFF-4C7A-B826-FB2573CE2FAC}"/>
-    <hyperlink ref="H34" r:id="rId74" xr:uid="{383B3F10-56C8-44B3-B4C3-0D461DA0D1D1}"/>
-    <hyperlink ref="C35" r:id="rId75" xr:uid="{713EB557-8A35-4EC6-A17E-E4F57F9F85CC}"/>
-    <hyperlink ref="F35" r:id="rId76" xr:uid="{4631EFF9-5472-442C-B77E-748AA528B772}"/>
-    <hyperlink ref="F36" r:id="rId77" xr:uid="{C2406929-88B4-4F86-AAC5-80034CB9E610}"/>
-    <hyperlink ref="C37" r:id="rId78" xr:uid="{36348E45-312E-4C85-93FA-818B951EE21F}"/>
-    <hyperlink ref="F37" r:id="rId79" xr:uid="{AB7892CA-4E4E-4691-B3A8-1E9DDA268D64}"/>
-    <hyperlink ref="C38" r:id="rId80" xr:uid="{652E460C-519E-4AF7-8169-782601F3AFF2}"/>
-    <hyperlink ref="F38" r:id="rId81" xr:uid="{C14D86FD-0608-415F-A197-237B4A36C8D5}"/>
-    <hyperlink ref="C39" r:id="rId82" display="https://free.apprcn.com/" xr:uid="{04F9E08B-FDD2-485D-82EA-8F18E2112556}"/>
-    <hyperlink ref="F39" r:id="rId83" xr:uid="{E640B142-10A3-420B-BAA6-C1BED6D7B17D}"/>
-    <hyperlink ref="C40" r:id="rId84" display="https://gofans.cn/" xr:uid="{B159F3E2-5BA9-42FA-BD5B-F1C3BF1F9FC1}"/>
-    <hyperlink ref="F40" r:id="rId85" xr:uid="{9EE7AC8C-4B5E-43E1-868F-3A0335BEE603}"/>
-    <hyperlink ref="C41" r:id="rId86" xr:uid="{481A0B8B-29B5-4C33-887F-B731890A567A}"/>
-    <hyperlink ref="F41" r:id="rId87" tooltip="https://toolb.cn/favicon/zh.snipaste.com" xr:uid="{3E471387-9E17-444F-9790-958D6794A56D}"/>
-    <hyperlink ref="C42" r:id="rId88" xr:uid="{AB90989A-7B74-4AC8-9F2C-8A0543328DAB}"/>
-    <hyperlink ref="F42" r:id="rId89" xr:uid="{C4E6B377-E04A-4E03-8290-FA17F9AE3217}"/>
-    <hyperlink ref="C43" r:id="rId90" xr:uid="{3F6CBDE4-CBA4-4CA6-A7A5-2C01E00DEBE8}"/>
-    <hyperlink ref="F43" r:id="rId91" xr:uid="{7FB8C313-DA4B-4C66-8555-6554DFC46EF3}"/>
-    <hyperlink ref="C44" r:id="rId92" xr:uid="{BEC867D3-9325-4C0E-AC45-39EF7B7FE485}"/>
-    <hyperlink ref="F44" r:id="rId93" xr:uid="{9E1EAE18-CDCF-467C-B008-EA8D810A54E2}"/>
-    <hyperlink ref="C45" r:id="rId94" xr:uid="{FC9D6340-9405-421A-B836-3B2BA53634DB}"/>
-    <hyperlink ref="F45" r:id="rId95" xr:uid="{561DFA95-9469-403C-A6AB-3F2E6AEF5212}"/>
-    <hyperlink ref="C46" r:id="rId96" xr:uid="{500B19E4-7760-44DC-9B03-4CE1FD8F3063}"/>
-    <hyperlink ref="F46" r:id="rId97" xr:uid="{54C19CE7-D5B3-48A1-A803-878B676F048D}"/>
-    <hyperlink ref="C47" r:id="rId98" xr:uid="{49308D8A-DC28-44C0-B696-83880875BD47}"/>
-    <hyperlink ref="F47" r:id="rId99" xr:uid="{850A4BBF-E35F-4849-824F-78372D7AFD90}"/>
-    <hyperlink ref="C48" r:id="rId100" xr:uid="{18624DC9-622A-4E0F-9A08-AE9C7E4F5B8B}"/>
-    <hyperlink ref="F48" r:id="rId101" xr:uid="{C750AB99-46B7-4769-BD93-66622705666A}"/>
-    <hyperlink ref="C49" r:id="rId102" xr:uid="{B5943A45-0983-43AD-ABEC-6A3EEF71C5A3}"/>
-    <hyperlink ref="F49" r:id="rId103" xr:uid="{478C0254-A849-4971-88E8-EA0BB6E3C6E7}"/>
-    <hyperlink ref="C50" r:id="rId104" tooltip="https://calibre-ebook.com/zh_CN" xr:uid="{25DE7066-426D-4978-9CF2-E5BFBAA2CA5A}"/>
-    <hyperlink ref="F50" r:id="rId105" xr:uid="{3DCB7587-1648-41F0-9194-1B2A480972FC}"/>
-    <hyperlink ref="H50" r:id="rId106" tooltip="https://calibre-ebook.com/" xr:uid="{1990DADF-7EF8-412F-856D-5E5D975FB7C8}"/>
-    <hyperlink ref="C51" r:id="rId107" xr:uid="{AAFD91D9-D8D4-41A5-9AC9-DE0C6B9A2D6B}"/>
-    <hyperlink ref="F51" r:id="rId108" xr:uid="{ED175853-0E3A-4810-9291-FC77C6FA818A}"/>
-    <hyperlink ref="C52" r:id="rId109" xr:uid="{389D2C53-CDBC-42F6-B02F-EEC3A2784A52}"/>
-    <hyperlink ref="F52" r:id="rId110" xr:uid="{4F27CBDC-C146-4A8E-BC5D-887171557DC8}"/>
-    <hyperlink ref="C53" r:id="rId111" xr:uid="{BF9D5D74-6B44-4DF6-B32B-F2252524BE31}"/>
-    <hyperlink ref="F53" r:id="rId112" xr:uid="{1EA52763-6564-47DF-9F05-A5DA71BA3744}"/>
-    <hyperlink ref="C54" r:id="rId113" xr:uid="{1595D492-35A3-4759-9476-31646616BB59}"/>
-    <hyperlink ref="F54" r:id="rId114" xr:uid="{20BB7AE8-AEFC-46D6-8311-34F24C9D88FD}"/>
-    <hyperlink ref="C55" r:id="rId115" xr:uid="{08DD244B-F4AE-48BC-8967-DB57B4ED4A09}"/>
-    <hyperlink ref="C56" r:id="rId116" xr:uid="{C1346DF7-2A6C-4977-B142-9AA4DF77E887}"/>
-    <hyperlink ref="F56" r:id="rId117" xr:uid="{3C31811E-B7A6-41F5-9CB9-9432D8084285}"/>
-    <hyperlink ref="C57" r:id="rId118" xr:uid="{5D70B582-66A0-4DAF-B574-33BE39D39699}"/>
-    <hyperlink ref="F57" r:id="rId119" xr:uid="{1693C424-7FD4-496D-ACC7-13C7D68C5248}"/>
-    <hyperlink ref="C58" r:id="rId120" xr:uid="{BED64F6E-53DD-496A-AC07-1F56A322CB83}"/>
-    <hyperlink ref="F58" r:id="rId121" xr:uid="{349FFF86-5065-4F13-8CE9-A41F7D66E0F5}"/>
-    <hyperlink ref="C59" r:id="rId122" xr:uid="{C1EB7949-B7FE-45EA-B823-91D787210B67}"/>
-    <hyperlink ref="F59" r:id="rId123" xr:uid="{FE9D1D57-0229-4D47-A85B-3D5AE39B7A2B}"/>
-    <hyperlink ref="C60" r:id="rId124" xr:uid="{C5F994D0-800C-47CE-9018-A1DA39300018}"/>
-    <hyperlink ref="F60" r:id="rId125" xr:uid="{C470022A-752D-4829-9B28-6507FCC5386C}"/>
-    <hyperlink ref="C61" r:id="rId126" xr:uid="{25875DFD-30D4-4343-A3D0-576F89D676B1}"/>
-    <hyperlink ref="F61" r:id="rId127" xr:uid="{EBAC1A26-BC1A-4CFA-98BF-6BF2F53CF187}"/>
-    <hyperlink ref="C62" r:id="rId128" xr:uid="{7353F409-7A03-492F-AE78-23F7D680540F}"/>
-    <hyperlink ref="F62" r:id="rId129" xr:uid="{54F0A3AB-7EB8-4981-911F-D308FB95BC38}"/>
-    <hyperlink ref="C63" r:id="rId130" xr:uid="{93E07574-8575-4C81-8BB4-D8FFE1E38914}"/>
-    <hyperlink ref="F63" r:id="rId131" xr:uid="{99BA1300-0AA2-4EF0-BE20-991502E340FA}"/>
-    <hyperlink ref="C64" r:id="rId132" xr:uid="{DFE0CF7F-5FA2-48E4-9D2F-AB9D7240D253}"/>
-    <hyperlink ref="F64" r:id="rId133" xr:uid="{71117645-0875-4060-80B6-2127248D3DCC}"/>
-    <hyperlink ref="C65" r:id="rId134" xr:uid="{C1179E16-0887-47AE-A843-E60B185E25E8}"/>
-    <hyperlink ref="F65" r:id="rId135" xr:uid="{1E80552D-F33C-42D4-94A8-A84B35D3A667}"/>
-    <hyperlink ref="C66" r:id="rId136" xr:uid="{34E4F200-C76D-432C-BAC5-A1175C2AD867}"/>
-    <hyperlink ref="F66" r:id="rId137" xr:uid="{697A572C-F193-4073-B034-74996780F570}"/>
-    <hyperlink ref="C67" r:id="rId138" xr:uid="{48122024-A926-4088-A6CA-40A5E170035E}"/>
-    <hyperlink ref="F67" r:id="rId139" xr:uid="{A8FB6CED-58AE-434D-A8AD-D5D1E3FA5D84}"/>
-    <hyperlink ref="C68" r:id="rId140" xr:uid="{0A30299E-44C6-46CC-B369-F8C8BC7AB61F}"/>
-    <hyperlink ref="F68" r:id="rId141" xr:uid="{F69AA57C-402A-439A-8F28-FC6D1F71AB75}"/>
-    <hyperlink ref="C69" r:id="rId142" xr:uid="{CDDDAA5A-04FB-4D74-831D-67B75C688799}"/>
-    <hyperlink ref="F69" r:id="rId143" xr:uid="{E3B96CB0-E1D3-4CCF-81A9-95941E8AB5C0}"/>
-    <hyperlink ref="C70" r:id="rId144" display="https://cloud.hiksemi.cn/web/clientdownload/download.html" xr:uid="{21132F37-1F71-43FC-A9EF-383DD7CA35B4}"/>
-    <hyperlink ref="F70" r:id="rId145" xr:uid="{A95924D2-559F-41CD-9395-CEABE1419B7A}"/>
-    <hyperlink ref="C71" r:id="rId146" xr:uid="{9CE9781F-8B8B-4254-933E-9F0D0FEA8041}"/>
-    <hyperlink ref="F71" r:id="rId147" xr:uid="{27264BB9-9B9A-4352-BBE3-8087E61242BD}"/>
-    <hyperlink ref="C72" r:id="rId148" xr:uid="{E6554B59-A05E-4B5B-A423-CAC9DF5699B8}"/>
-    <hyperlink ref="F72" r:id="rId149" xr:uid="{2DEEDDEB-B8A9-4950-A658-D93D9B70D8B5}"/>
-    <hyperlink ref="C73" r:id="rId150" xr:uid="{E920575A-0F5C-4C6E-9392-0459AA336F11}"/>
-    <hyperlink ref="F73" r:id="rId151" xr:uid="{B31DFC9F-EDEE-4BEE-A658-1B9713B47048}"/>
-    <hyperlink ref="C74" r:id="rId152" xr:uid="{80E22AAC-2371-4C4D-80F4-C32E64A8A3CA}"/>
-    <hyperlink ref="F74" r:id="rId153" xr:uid="{EDEC6BBB-6170-422F-9BBE-F7866B630D9D}"/>
-    <hyperlink ref="C75" r:id="rId154" tooltip="https://limestart.cn/intro" xr:uid="{8FFC24D9-CD5E-4AE8-A002-34C3FC1E76BB}"/>
-    <hyperlink ref="F75" r:id="rId155" xr:uid="{558078B8-A949-49F3-A9E1-81128601CBEF}"/>
-    <hyperlink ref="C76" r:id="rId156" xr:uid="{8BEDC2B4-E276-4C59-BBBB-CDB12E7C37EC}"/>
-    <hyperlink ref="F76" r:id="rId157" xr:uid="{95EC9460-DBB9-472E-AFC3-27BD7BB0D4A6}"/>
-    <hyperlink ref="C77" r:id="rId158" xr:uid="{AC9CAFB3-33F6-4693-87A1-A5444DECB8BF}"/>
-    <hyperlink ref="F77" r:id="rId159" xr:uid="{00BE122F-EF77-43E5-AA1B-F47B19E83869}"/>
-    <hyperlink ref="C78" r:id="rId160" tooltip="https://www.wetab.link" display="https://www.wetab.link/" xr:uid="{FDC4AF0B-184C-4A20-8B21-EE0280AB3073}"/>
-    <hyperlink ref="F78" r:id="rId161" xr:uid="{282E03D5-4AC4-42C7-8006-ACEB808842DB}"/>
-    <hyperlink ref="C79" r:id="rId162" xr:uid="{8FDB9F23-C2A7-4A07-9C8F-DF72135B9312}"/>
-    <hyperlink ref="F79" r:id="rId163" xr:uid="{C1655CBA-4473-43A6-98FD-1BC6D9915964}"/>
-    <hyperlink ref="C80" r:id="rId164" xr:uid="{0D11E88A-B3A9-4A44-9AC9-BA1E8C0E64F7}"/>
-    <hyperlink ref="F80" r:id="rId165" xr:uid="{A1F12D8D-8925-41A2-857C-D5F893449DDE}"/>
-    <hyperlink ref="C81" r:id="rId166" xr:uid="{12EF3B90-8671-4DD9-B8C6-278508E884CA}"/>
-    <hyperlink ref="F81" r:id="rId167" xr:uid="{55533D6E-EDC3-401F-AE49-F74F2199F8D4}"/>
-    <hyperlink ref="C82" r:id="rId168" xr:uid="{8BC9F0CC-3AE3-44B4-B513-1F73F6C77526}"/>
-    <hyperlink ref="F82" r:id="rId169" xr:uid="{2E1F41BD-7F29-48A6-B2C0-B185553D48E1}"/>
-    <hyperlink ref="C83" r:id="rId170" xr:uid="{4728C44C-E436-419E-AE43-F5BF96ACDA07}"/>
-    <hyperlink ref="F83" r:id="rId171" xr:uid="{E31CA55D-77DC-44C0-A400-85C65FC3F35B}"/>
-    <hyperlink ref="C84" r:id="rId172" xr:uid="{C735B294-B595-4D2A-9B84-611438CBE562}"/>
-    <hyperlink ref="F84" r:id="rId173" xr:uid="{D3635E7B-D5F9-4774-8E9F-CD663CB72078}"/>
-    <hyperlink ref="C85" r:id="rId174" xr:uid="{7241C265-F3CE-410D-A035-CDABA0691759}"/>
-    <hyperlink ref="F85" r:id="rId175" xr:uid="{A434F07B-1A24-4E7F-B16F-49FC0388F0EF}"/>
-    <hyperlink ref="C86" r:id="rId176" xr:uid="{4A46913F-B749-492F-9AA3-55DCD959F3E5}"/>
-    <hyperlink ref="F86" r:id="rId177" xr:uid="{38F67435-5E0E-4EE8-AD5C-9DB6942DD692}"/>
-    <hyperlink ref="C87" r:id="rId178" xr:uid="{87418FFA-F910-444B-AA99-9DCBAFA26170}"/>
-    <hyperlink ref="F87" r:id="rId179" xr:uid="{6D66FB1C-8E3F-4A9D-B621-B71CEB2C7160}"/>
-    <hyperlink ref="C88" r:id="rId180" xr:uid="{770362BD-20C7-4C48-B230-DD5558B734B1}"/>
-    <hyperlink ref="F88" r:id="rId181" xr:uid="{F87E8A15-7821-4F1D-ABAC-0BA4E43526CE}"/>
-    <hyperlink ref="C89" r:id="rId182" xr:uid="{794419AD-70D5-4475-8730-AFA354F1D8A5}"/>
-    <hyperlink ref="F89" r:id="rId183" xr:uid="{89C7BA4D-D5FF-44FD-A382-937A7DCEEB05}"/>
-    <hyperlink ref="C90" r:id="rId184" xr:uid="{F4A81583-062D-4103-A525-322382F1EA08}"/>
-    <hyperlink ref="F90" r:id="rId185" xr:uid="{19963E10-9143-4D0E-A16F-BC0DAF045ADE}"/>
-    <hyperlink ref="C91" r:id="rId186" xr:uid="{68A35543-6722-4C0E-B4D0-C789DB4716CB}"/>
-    <hyperlink ref="F91" r:id="rId187" xr:uid="{CB041115-635C-41F2-A6A9-9DC473E187FC}"/>
-    <hyperlink ref="C92" r:id="rId188" display="https://www.ruanyifeng.com/blog/" xr:uid="{985D12F4-0478-4C82-8FF5-EA96CB0FB7FB}"/>
-    <hyperlink ref="F92" r:id="rId189" xr:uid="{65ABD7DC-CAB6-4D42-9AA0-A218A8A2D135}"/>
-    <hyperlink ref="C93" r:id="rId190" display="https://toolight.zhubai.love/" xr:uid="{B93CAAB4-8350-463B-9924-A59387CF3E74}"/>
-    <hyperlink ref="F93" r:id="rId191" xr:uid="{5B4D7953-B2BF-46B3-A680-DD934D7E3430}"/>
-    <hyperlink ref="C94" r:id="rId192" xr:uid="{7F12F7B2-C34F-49EB-B5B5-7A4CD4D5A0DE}"/>
-    <hyperlink ref="F94" r:id="rId193" xr:uid="{42816CDB-F143-47EE-ABE7-A21425E8B92A}"/>
-    <hyperlink ref="C95" r:id="rId194" display="https://hao.logosc.cn/" xr:uid="{FC0E61D0-6BA5-43BC-BDD1-10ECC71CCF41}"/>
-    <hyperlink ref="F95" r:id="rId195" xr:uid="{FA13A5AA-3D93-4BE4-A3BA-8F2666808350}"/>
-    <hyperlink ref="C96" r:id="rId196" display="https://www.xinquji.com/" xr:uid="{97BA07E8-3057-456A-A137-83E7FCCE62CA}"/>
-    <hyperlink ref="F96" r:id="rId197" xr:uid="{C1AC2B35-ADFF-4149-A93C-6DD3555369C3}"/>
-    <hyperlink ref="C97" r:id="rId198" xr:uid="{C184A959-20B7-4450-B33D-A34604D1A83B}"/>
-    <hyperlink ref="F97" r:id="rId199" xr:uid="{D901A660-C0A1-483E-824A-3B0EDB591DDF}"/>
-    <hyperlink ref="C98" r:id="rId200" xr:uid="{AF786377-8FFC-4C31-A6F7-9293AEE2F828}"/>
-    <hyperlink ref="F98" r:id="rId201" xr:uid="{A45BFD19-72C4-471D-9671-A650ECC6801D}"/>
-    <hyperlink ref="C99" r:id="rId202" xr:uid="{7198A6E2-6235-49C1-A6EE-1F4077759E93}"/>
-    <hyperlink ref="F99" r:id="rId203" xr:uid="{71421A6A-6506-4475-817E-E7EE6F07B50C}"/>
-    <hyperlink ref="C100" r:id="rId204" display="https://halo.run/" xr:uid="{E5784EF9-CFAC-4E22-930B-54A2CC8339D2}"/>
-    <hyperlink ref="F100" r:id="rId205" xr:uid="{0EF86391-8CBD-4707-973F-AB9FB57BE4C3}"/>
-    <hyperlink ref="C101" r:id="rId206" display="https://cn.wordpress.org/" xr:uid="{BCCD0B36-2660-4595-A547-524A6AB073F8}"/>
-    <hyperlink ref="F101" r:id="rId207" tooltip="https://s.w.org/favicon.ico?2" xr:uid="{A27B52C8-3E0C-4948-8076-3447DB5BDD21}"/>
-    <hyperlink ref="C102" r:id="rId208" display="https://1panel.cn/" xr:uid="{E751E530-1927-4C2C-AB71-A9041ACE8F04}"/>
-    <hyperlink ref="F102" r:id="rId209" xr:uid="{A661699B-371C-451C-A1A7-1536A36DF32D}"/>
-    <hyperlink ref="C103" r:id="rId210" xr:uid="{C97DBD06-C965-4FE9-BC78-50B049251655}"/>
-    <hyperlink ref="F103" r:id="rId211" xr:uid="{F31B91E3-5344-41B7-A855-E35ED91C1012}"/>
-    <hyperlink ref="C104" r:id="rId212" xr:uid="{BB87866A-3969-4550-81BD-2DDB548019E2}"/>
-    <hyperlink ref="F104" r:id="rId213" xr:uid="{9E82CC4F-E203-4FA1-AAE8-6D0F4B6FCCEF}"/>
-    <hyperlink ref="C105" r:id="rId214" xr:uid="{C21DBD30-EAC2-4AAB-8B84-F7A3F8D7BF38}"/>
-    <hyperlink ref="F105" r:id="rId215" xr:uid="{C7872953-002C-4796-946B-4C7238213C7D}"/>
-    <hyperlink ref="C106" r:id="rId216" xr:uid="{BFFD9DFB-72CB-40F0-89D0-52A8DE949F07}"/>
-    <hyperlink ref="F106" r:id="rId217" xr:uid="{4BA230A5-9676-4CD8-B2B8-4DD14383053B}"/>
-    <hyperlink ref="C107" r:id="rId218" xr:uid="{363D9B89-44A3-4A81-8B85-049868F36FDC}"/>
-    <hyperlink ref="F107" r:id="rId219" xr:uid="{4AEB951C-B725-4A47-BC08-9398B0CAE100}"/>
-    <hyperlink ref="C108" r:id="rId220" xr:uid="{247E27F7-4977-4D03-B3D3-D72B00554D85}"/>
-    <hyperlink ref="F108" r:id="rId221" xr:uid="{80847C3A-A160-4DBE-8372-AAF74B51F393}"/>
-    <hyperlink ref="C109" r:id="rId222" xr:uid="{8461FA68-7CA8-4316-AC17-B2E003D0BB62}"/>
-    <hyperlink ref="C110" r:id="rId223" xr:uid="{13E3978C-B00B-4FE6-87CA-31127F931EFB}"/>
-    <hyperlink ref="F110" r:id="rId224" xr:uid="{E7F3BA32-9668-4231-B501-F06D7DBC8DAE}"/>
-    <hyperlink ref="C111" r:id="rId225" display="https://www.superbed.cn/" xr:uid="{7B0CADE3-3BA1-4312-BCB3-B63A85422505}"/>
-    <hyperlink ref="F111" r:id="rId226" xr:uid="{9E654213-7495-4E84-BBFC-BB67D9E792B8}"/>
-    <hyperlink ref="C112" r:id="rId227" xr:uid="{841E9C54-4FD9-443D-9BD6-672336736CBA}"/>
-    <hyperlink ref="F112" r:id="rId228" xr:uid="{B2821209-5854-4F09-8B7A-EEDC40D82806}"/>
-    <hyperlink ref="C113" r:id="rId229" xr:uid="{C82A8C97-1C4B-4B45-9F5A-5D7464F44622}"/>
-    <hyperlink ref="F113" r:id="rId230" xr:uid="{74E05938-623B-4F7B-A4B6-CD51B3F34F75}"/>
-    <hyperlink ref="C114" r:id="rId231" xr:uid="{959F9D1E-9625-4647-B632-3870781704BE}"/>
-    <hyperlink ref="F114" r:id="rId232" xr:uid="{C1AF767E-8B1F-4A5D-91F1-FB4DDEB73AB6}"/>
-    <hyperlink ref="C115" r:id="rId233" xr:uid="{30149BB1-D135-4D1B-AE89-F4A5354466D4}"/>
-    <hyperlink ref="F115" r:id="rId234" tooltip="https://www.locimg.com/favicon.ico" xr:uid="{70D082C1-C990-4A3E-A2F3-926D2C8702D7}"/>
-    <hyperlink ref="C116" r:id="rId235" xr:uid="{0129A33C-DE1B-4B3A-BB11-93894737C735}"/>
-    <hyperlink ref="F116" r:id="rId236" xr:uid="{0E2CBDA5-1628-4334-AB5C-2956F7E0AA8F}"/>
-    <hyperlink ref="C117" r:id="rId237" xr:uid="{F9E8CC80-A7D0-44AB-B59B-8333CABD8884}"/>
-    <hyperlink ref="F117" r:id="rId238" xr:uid="{8BF11170-C91A-4822-B1A8-C1F61E094E72}"/>
-    <hyperlink ref="C118" r:id="rId239" xr:uid="{942F7A75-209F-4B5C-8FD6-68BF51B75CFA}"/>
-    <hyperlink ref="F118" r:id="rId240" xr:uid="{69B128EE-366F-46E4-9DB0-731260F27538}"/>
-    <hyperlink ref="C119" r:id="rId241" xr:uid="{77ABF01D-9202-4536-A6CD-ECE06EB64621}"/>
-    <hyperlink ref="F119" r:id="rId242" xr:uid="{46AC0464-8DB4-411E-AA07-76D9AD5E8F62}"/>
-    <hyperlink ref="C120" r:id="rId243" xr:uid="{68425657-9860-4E97-9314-588B0C512A01}"/>
-    <hyperlink ref="F120" r:id="rId244" xr:uid="{852E4347-22FB-4062-8BE6-03A354F7CC2D}"/>
-    <hyperlink ref="C121" r:id="rId245" xr:uid="{01C3C7E5-9058-49C1-83B8-8C561720A6BA}"/>
-    <hyperlink ref="F121" r:id="rId246" xr:uid="{5DF7274A-0F5F-46D5-BFA7-59176521CFC2}"/>
-    <hyperlink ref="C122" r:id="rId247" tooltip="https://hellogithub.com/" xr:uid="{807F3410-32E0-4F40-8EF0-DB84AE2C4A0A}"/>
-    <hyperlink ref="F122" r:id="rId248" xr:uid="{DAB59E57-2EED-4ABC-9EEA-A5BB8A624587}"/>
-    <hyperlink ref="H122" r:id="rId249" xr:uid="{EDB344F3-F468-4E4F-897F-98F892F543A2}"/>
-    <hyperlink ref="C123" r:id="rId250" xr:uid="{E935B222-08CE-4466-B478-FAEAA674EF82}"/>
-    <hyperlink ref="F123" r:id="rId251" xr:uid="{54C49CA0-780C-4D76-8C14-CDA571A99ECB}"/>
-    <hyperlink ref="H123" r:id="rId252" xr:uid="{295B6C02-6A52-4C1D-8CF9-E517CF998417}"/>
-    <hyperlink ref="C124" r:id="rId253" xr:uid="{C007B77C-151D-4AD2-89CA-16DF3F87118E}"/>
-    <hyperlink ref="F124" r:id="rId254" xr:uid="{B9F1E929-45D1-4C95-9882-8F76134E7D76}"/>
-    <hyperlink ref="C125" r:id="rId255" xr:uid="{E13141DE-234B-4501-9991-0273143F057C}"/>
-    <hyperlink ref="F125" r:id="rId256" xr:uid="{3E8DF82E-6282-4D82-915D-9E86EDC28AEE}"/>
-    <hyperlink ref="C126" r:id="rId257" display="https://stackedit.cn/app" xr:uid="{E49B96C1-8190-45CF-ABAD-B8D952DCADFD}"/>
-    <hyperlink ref="F126" r:id="rId258" xr:uid="{B4B689CD-1B2B-416D-9EFF-13D616015DC8}"/>
-    <hyperlink ref="C127" r:id="rId259" xr:uid="{786DBCC6-6659-47C0-8FBA-603A911E241C}"/>
-    <hyperlink ref="F127" r:id="rId260" xr:uid="{5244DC85-88A6-49C4-9E4E-C0E755424A7C}"/>
-    <hyperlink ref="C128" r:id="rId261" display="https://ttsmaker.cn/" xr:uid="{181BA94E-84D8-44FB-87BC-8A7FDAD03A6A}"/>
-    <hyperlink ref="F128" r:id="rId262" xr:uid="{3AC8260E-261F-4DE9-8275-07ACAB569F54}"/>
-    <hyperlink ref="C129" r:id="rId263" display="https://qrbtf.com/" xr:uid="{E6423694-8CAD-4D71-8DBE-F8E79273F225}"/>
-    <hyperlink ref="F129" r:id="rId264" xr:uid="{B7909557-0C36-4824-8760-9F61CBF305C7}"/>
-    <hyperlink ref="C130" r:id="rId265" xr:uid="{5BDE6F0A-8435-4621-A505-AAC55D45117E}"/>
-    <hyperlink ref="F130" r:id="rId266" xr:uid="{EC4ADEA5-F974-4995-8DCA-2A1D54330334}"/>
-    <hyperlink ref="C131" r:id="rId267" display="https://www.weiciyun.com/" xr:uid="{BD72A86F-D870-44E0-9AA7-8C887B90D33E}"/>
-    <hyperlink ref="F131" r:id="rId268" xr:uid="{74436E31-4B8A-492E-A17A-1A227FD2B629}"/>
-    <hyperlink ref="C132" r:id="rId269" display="https://vscode.dev/" xr:uid="{5482E549-2F7F-4EAD-AF17-96048A5DBEE6}"/>
-    <hyperlink ref="F132" r:id="rId270" xr:uid="{A44A4B2D-F782-40F2-8FE8-E6CB7967032E}"/>
-    <hyperlink ref="C133" r:id="rId271" xr:uid="{A591B90C-0B89-4061-99B9-C8D6E5EC6231}"/>
-    <hyperlink ref="F133" r:id="rId272" xr:uid="{4F3324FF-9019-4EFE-A16D-EECF2E4E7ADC}"/>
-    <hyperlink ref="C134" r:id="rId273" xr:uid="{54855549-EDC8-4FA7-AF59-212F0FF521EC}"/>
-    <hyperlink ref="F134" r:id="rId274" xr:uid="{314F66D2-5B34-4746-AD68-C8B3E65B05C5}"/>
-    <hyperlink ref="C135" r:id="rId275" xr:uid="{762A583D-83B8-4097-AB5B-10654ABCB2ED}"/>
-    <hyperlink ref="F135" r:id="rId276" xr:uid="{A9F25E24-50DE-4D89-89BF-D4CD123F5E83}"/>
-    <hyperlink ref="C136" r:id="rId277" xr:uid="{37B7508E-A1AB-4266-BA66-93A97B5893B3}"/>
-    <hyperlink ref="F136" r:id="rId278" xr:uid="{5B36A991-A333-4D03-A410-87B2C3950534}"/>
-    <hyperlink ref="C137" r:id="rId279" xr:uid="{B654F2CE-B347-404B-9C85-6C7C10177E0F}"/>
-    <hyperlink ref="F137" r:id="rId280" xr:uid="{EAE60734-CBB6-4E4E-A45A-483C85182444}"/>
-    <hyperlink ref="C138" r:id="rId281" xr:uid="{FE2A6AEC-CBCD-4555-A47E-92B02DF9DAA1}"/>
-    <hyperlink ref="C139" r:id="rId282" xr:uid="{82473CF2-871E-41BC-A029-0A667207FE3D}"/>
-    <hyperlink ref="C140" r:id="rId283" xr:uid="{AC335884-3773-45F7-8942-F23A1D79EF04}"/>
-    <hyperlink ref="F140" r:id="rId284" xr:uid="{847E27A7-FD9E-4E92-AFAB-F6E25C2C07EF}"/>
-    <hyperlink ref="C141" r:id="rId285" xr:uid="{3FFC964D-68FF-444A-9002-72083181B759}"/>
-    <hyperlink ref="F141" r:id="rId286" tooltip="https://markdown.com.cn/editor/favicon.svg" xr:uid="{EF124E21-DF51-4016-8ECE-7AE9AD63C562}"/>
-    <hyperlink ref="C142" r:id="rId287" xr:uid="{7B1D8475-86E2-42A3-B699-8707382A9A6E}"/>
-    <hyperlink ref="F142" r:id="rId288" xr:uid="{0E2141CC-E8F9-4C85-8ACD-A541799562F2}"/>
-    <hyperlink ref="C143" r:id="rId289" xr:uid="{391CB635-FB9D-48A7-8278-8E2F95C35198}"/>
-    <hyperlink ref="F143" r:id="rId290" xr:uid="{8DA35024-69F7-4D4A-A716-E835448AD078}"/>
-    <hyperlink ref="C144" r:id="rId291" xr:uid="{940D41C6-5F65-44B3-BF85-410FE0D59E99}"/>
-    <hyperlink ref="F144" r:id="rId292" xr:uid="{F1260C88-2238-4908-B70C-3798B98BAC09}"/>
-    <hyperlink ref="C145" r:id="rId293" xr:uid="{838C325B-F1D0-4F7B-90E5-DDED53512536}"/>
-    <hyperlink ref="F145" r:id="rId294" xr:uid="{B7FB4613-AB91-4FE7-BCED-A153A31E4B82}"/>
-    <hyperlink ref="C146" r:id="rId295" xr:uid="{AEEB74A7-3BEC-474B-8E64-064C1457BF28}"/>
-    <hyperlink ref="F146" r:id="rId296" xr:uid="{FB8A9BFC-6A9B-4A71-A395-C25A9988EB2D}"/>
-    <hyperlink ref="C147" r:id="rId297" xr:uid="{20998689-4D35-4637-ADA3-E290638C300A}"/>
-    <hyperlink ref="F147" r:id="rId298" xr:uid="{16E36444-CA93-42FC-9883-196CC2268C73}"/>
-    <hyperlink ref="C148" r:id="rId299" xr:uid="{43F1594B-9169-41C6-8958-3AFAECE77BAE}"/>
-    <hyperlink ref="F148" r:id="rId300" xr:uid="{C4AF7CF8-EA1B-4C66-AA3B-903BDDD77E38}"/>
-    <hyperlink ref="C149" r:id="rId301" xr:uid="{FF1C7954-2A55-426F-BBD0-DDA7442EA485}"/>
-    <hyperlink ref="F149" r:id="rId302" xr:uid="{C1565C28-2BCC-4D3A-84AA-33199E1A0587}"/>
-    <hyperlink ref="C150" r:id="rId303" xr:uid="{B509D4E6-3EBD-4442-933A-1118782743FB}"/>
-    <hyperlink ref="F150" r:id="rId304" xr:uid="{8708F0E7-BC19-4130-85A1-C8E92113A39F}"/>
-    <hyperlink ref="C151" r:id="rId305" xr:uid="{06609C48-F84F-48D0-9BA3-F6A963F6C714}"/>
-    <hyperlink ref="F151" r:id="rId306" xr:uid="{FBC9EF22-5F6C-4F72-AE47-B5B22784C9C0}"/>
-    <hyperlink ref="C152" r:id="rId307" xr:uid="{295CF008-7CD2-4644-BCF9-0FBBD04D25EA}"/>
-    <hyperlink ref="F152" r:id="rId308" xr:uid="{357214FB-70A1-4454-ABC3-7B10D8222A12}"/>
-    <hyperlink ref="C153" r:id="rId309" xr:uid="{375B647A-E887-4989-A8CE-AF861B4A9FBE}"/>
-    <hyperlink ref="F153" r:id="rId310" xr:uid="{5D0CB113-17F0-4DB2-B797-3937D2EA3AEC}"/>
-    <hyperlink ref="C154" r:id="rId311" xr:uid="{D1CCBBFB-0073-45F8-AE25-9394F8032DD5}"/>
-    <hyperlink ref="F154" r:id="rId312" xr:uid="{3B6F0131-5110-4E16-8D9D-991C6266F9A5}"/>
-    <hyperlink ref="C155" r:id="rId313" location="/" display="https://pearmini.github.io/colorfu/ - /" xr:uid="{2750C9B9-D4C0-48BE-95DF-7B2A2DE39AD4}"/>
-    <hyperlink ref="F155" r:id="rId314" xr:uid="{A440CE41-AE07-4F2F-A216-483F6127C382}"/>
-    <hyperlink ref="C156" r:id="rId315" xr:uid="{038708F0-5876-4E46-AC80-FA0F36A270E6}"/>
-    <hyperlink ref="F156" r:id="rId316" xr:uid="{CD87393A-BC8F-44A0-8E37-E5661573BA26}"/>
-    <hyperlink ref="C157" r:id="rId317" xr:uid="{BC3CA673-9B82-4237-853B-F02E95C70AE0}"/>
-    <hyperlink ref="F157" r:id="rId318" xr:uid="{CAF1F886-5A6A-4E3D-AC12-47030B10A12A}"/>
-    <hyperlink ref="C158" r:id="rId319" xr:uid="{61DDA3F3-C65C-4822-AB8C-DCF060B830D2}"/>
-    <hyperlink ref="F158" r:id="rId320" xr:uid="{42379D5F-CA97-4A63-B1D8-7A379D160063}"/>
-    <hyperlink ref="C159" r:id="rId321" xr:uid="{A8454C4E-B73B-42F2-8E46-11680476D8EA}"/>
-    <hyperlink ref="F159" r:id="rId322" xr:uid="{FF54FB4A-D03C-4901-9948-27FE08D0BC09}"/>
-    <hyperlink ref="C160" r:id="rId323" xr:uid="{FBDB58B2-D9AF-4BDD-A7B5-C82A23AEDDC2}"/>
-    <hyperlink ref="C161" r:id="rId324" xr:uid="{9EF36866-E115-4668-89EA-7948FD36BA62}"/>
-    <hyperlink ref="F161" r:id="rId325" xr:uid="{21E59FEF-3116-48CF-BE50-F57A56E34E02}"/>
-    <hyperlink ref="C162" r:id="rId326" xr:uid="{9E0E8498-6154-4A54-A67C-B6BD53CBE031}"/>
-    <hyperlink ref="F162" r:id="rId327" xr:uid="{C2BC3C26-0080-4230-9D89-02D69FD2300F}"/>
-    <hyperlink ref="C163" r:id="rId328" xr:uid="{2DE96C91-B396-4717-9FAF-C122AA3361CA}"/>
-    <hyperlink ref="F163" r:id="rId329" xr:uid="{30CAA8C3-E891-4DE4-9D7E-00D74B60B13F}"/>
-    <hyperlink ref="C164" r:id="rId330" xr:uid="{D40457AC-65E9-424E-8916-E0284982163E}"/>
-    <hyperlink ref="F164" r:id="rId331" xr:uid="{E3C21236-15A0-4CBC-B1F7-24C21007456E}"/>
-    <hyperlink ref="C165" r:id="rId332" xr:uid="{E53088E9-A4FA-4E86-8B55-137FE90E93C1}"/>
-    <hyperlink ref="F165" r:id="rId333" xr:uid="{CB6FAC3E-5F9A-4FD4-8C40-188C2B0522DA}"/>
-    <hyperlink ref="C166" r:id="rId334" xr:uid="{121CC85E-5151-4FC6-8669-43B792990FAA}"/>
-    <hyperlink ref="F166" r:id="rId335" xr:uid="{E04D4153-1CF4-4F98-ACAB-58301A8AD063}"/>
-    <hyperlink ref="C167" r:id="rId336" xr:uid="{2F51ECAB-FC05-44A9-BF27-8926954B7403}"/>
-    <hyperlink ref="F167" r:id="rId337" xr:uid="{E131F2AF-610F-4358-A683-B3B470AC5589}"/>
-    <hyperlink ref="C168" r:id="rId338" xr:uid="{0EFB68A8-B29F-4625-89A7-10A954BCA37D}"/>
-    <hyperlink ref="F168" r:id="rId339" xr:uid="{FD5EF077-4B4A-43E2-B500-0AAE0CC88918}"/>
-    <hyperlink ref="C169" r:id="rId340" xr:uid="{B84139BE-252F-4139-AED5-5AE32688A2E4}"/>
-    <hyperlink ref="F169" r:id="rId341" xr:uid="{16828B3F-37BC-4910-8DD2-BC0874F36387}"/>
-    <hyperlink ref="C170" r:id="rId342" xr:uid="{1EE5E3FE-7B0C-4C10-AB34-C7343F384F7E}"/>
-    <hyperlink ref="F170" r:id="rId343" xr:uid="{F86C739D-3325-4B22-A5F4-9821E697175A}"/>
-    <hyperlink ref="C171" r:id="rId344" xr:uid="{9905AD77-A46E-4A72-991E-90B10B41BE1E}"/>
-    <hyperlink ref="F171" r:id="rId345" xr:uid="{813A6FA4-FF27-4803-BB80-89E5AE525E8D}"/>
-    <hyperlink ref="C172" r:id="rId346" tooltip="https://www.ilovepdf.com/zh-cn" xr:uid="{A189E730-2831-466E-9367-89C35C631186}"/>
-    <hyperlink ref="F172" r:id="rId347" xr:uid="{2E118B41-DBF6-4B05-9CAB-DD9C87418A88}"/>
-    <hyperlink ref="C173" r:id="rId348" xr:uid="{C15BFA80-A83B-4622-9FBF-6ABDE5E6AF30}"/>
-    <hyperlink ref="F173" r:id="rId349" xr:uid="{5A110B19-2BFE-4427-9A0F-BD83F3851080}"/>
-    <hyperlink ref="C174" r:id="rId350" xr:uid="{889180B5-CD4C-469D-9B37-54EA04EE2D5A}"/>
-    <hyperlink ref="F174" r:id="rId351" xr:uid="{21183F4E-CB53-4B87-9EE9-4462A1C581E3}"/>
-    <hyperlink ref="C175" r:id="rId352" xr:uid="{35B48027-D289-4B9D-B675-DFBA706DAE45}"/>
-    <hyperlink ref="F175" r:id="rId353" xr:uid="{C8FCED89-AC5D-4E11-B1B0-0670B0412434}"/>
-    <hyperlink ref="C176" r:id="rId354" xr:uid="{1B0572A2-D0D6-44B0-9518-494EC14A1D82}"/>
-    <hyperlink ref="C177" r:id="rId355" xr:uid="{32974C33-BEF7-4712-B0B4-82A83F770542}"/>
-    <hyperlink ref="F177" r:id="rId356" xr:uid="{68C59064-4BA8-4CB9-89AF-F133A5C9CC95}"/>
-    <hyperlink ref="H177" r:id="rId357" xr:uid="{23984AF8-A331-404F-ABB6-DD388F2010D2}"/>
-    <hyperlink ref="C178" r:id="rId358" display="https://磁力狗.xyz/" xr:uid="{3980E407-25B0-4282-BED2-8A983AE373A5}"/>
-    <hyperlink ref="F178" r:id="rId359" xr:uid="{78F16C7D-2483-452B-B3BC-AB73105A1DE7}"/>
-    <hyperlink ref="C179" r:id="rId360" tooltip="https://xn--yets15cv4k.com/" xr:uid="{28B1FD8A-5369-4EF5-8E61-21A144DDE0FF}"/>
-    <hyperlink ref="H179" r:id="rId361" display="https://小花猫.com/" xr:uid="{EA9EE7AE-58ED-4CE4-B8F6-A86AC0308E53}"/>
-    <hyperlink ref="C180" r:id="rId362" xr:uid="{219DB355-3685-4176-BCEF-02B052AD8F4A}"/>
-    <hyperlink ref="F180" r:id="rId363" xr:uid="{FFFA89CE-BA27-49F5-8B88-5201538831BA}"/>
-    <hyperlink ref="C181" r:id="rId364" xr:uid="{F51D4108-C6F4-4720-8E25-5679F3C716E2}"/>
-    <hyperlink ref="F181" r:id="rId365" xr:uid="{9E321B80-5513-4AA7-B49C-8B29924ACF01}"/>
-    <hyperlink ref="C182" r:id="rId366" xr:uid="{B431A4CC-3371-4769-87A5-7DC8F3FE463D}"/>
-    <hyperlink ref="F182" r:id="rId367" xr:uid="{1D6FFBD9-4036-404C-B18E-5483F59B95C5}"/>
-    <hyperlink ref="C183" r:id="rId368" xr:uid="{A40A717B-C2B2-472B-997A-BEC749596003}"/>
-    <hyperlink ref="F183" r:id="rId369" xr:uid="{DFA276F8-80A1-4369-A45C-416E29B03C78}"/>
-    <hyperlink ref="H183" r:id="rId370" xr:uid="{B0E3794B-DB54-4E95-BEBA-7F269E3E69B9}"/>
-    <hyperlink ref="C184" r:id="rId371" xr:uid="{D3534FFD-9586-4F6F-BA2F-D800BE0F1F21}"/>
-    <hyperlink ref="F184" r:id="rId372" xr:uid="{62DE9F49-18F5-49A0-B1E6-BDCF8A2D3B12}"/>
-    <hyperlink ref="H184" r:id="rId373" xr:uid="{4FFB7B7B-2EB2-4D70-A3F4-EC2713A2627F}"/>
-    <hyperlink ref="C185" r:id="rId374" xr:uid="{A4B28F48-737F-4859-BA23-C9233B742BFC}"/>
-    <hyperlink ref="F185" r:id="rId375" xr:uid="{74206096-C56E-4B6E-9E3A-763435968EEE}"/>
-    <hyperlink ref="C186" r:id="rId376" xr:uid="{F887CCE3-1070-4908-929E-93547C32F4DF}"/>
-    <hyperlink ref="F186" r:id="rId377" tooltip="https://docs.gtimg.com/docs-design-resources/history/png@2x/brand_logo@2x-fcdb753a44.png" xr:uid="{008883BB-12D4-48AA-8A73-648B114E57B8}"/>
-    <hyperlink ref="C187" r:id="rId378" xr:uid="{586C019A-B16E-4717-B1BA-0A5124D1722C}"/>
-    <hyperlink ref="G187" r:id="rId379" xr:uid="{9567412C-D0E4-47C9-921B-F3740A56D987}"/>
-    <hyperlink ref="C188" r:id="rId380" xr:uid="{A2187A3E-750C-4BC4-B94E-7BC29C58B353}"/>
-    <hyperlink ref="F188" r:id="rId381" xr:uid="{3797EF5F-B858-4FD8-B36E-6A874DE18F29}"/>
-    <hyperlink ref="C189" r:id="rId382" xr:uid="{352CAD3F-154A-447B-A74C-97DA39BA829E}"/>
-    <hyperlink ref="C190" r:id="rId383" xr:uid="{6B1995F8-8C21-4589-AE6A-E6765C71A422}"/>
-    <hyperlink ref="F190" r:id="rId384" xr:uid="{114BF676-863C-4E0F-9E90-A78625CFD43F}"/>
-    <hyperlink ref="C191" r:id="rId385" xr:uid="{87C05034-3064-48A3-8330-844BD7929266}"/>
-    <hyperlink ref="C192" r:id="rId386" tooltip="https://webgames.fun/zh/" xr:uid="{DF90AA86-AD89-44FC-841B-7D0365A88C5D}"/>
-    <hyperlink ref="F192" r:id="rId387" xr:uid="{607BB8F4-7A86-4D09-9AF1-1C4E17B73931}"/>
-    <hyperlink ref="C193" r:id="rId388" xr:uid="{7CF5DE5E-96AD-4C97-AFEA-901AA3897858}"/>
-    <hyperlink ref="F193" r:id="rId389" xr:uid="{D7EB8395-C41A-4896-A545-E8B22EBC3A8C}"/>
-    <hyperlink ref="C194" r:id="rId390" display="https://adzhp.cn/" xr:uid="{B39D086E-AB8E-44A3-B232-D702DE3A8923}"/>
-    <hyperlink ref="C195" r:id="rId391" tooltip="https://fuliba123.net/#" display="https://fuliba123.net/" xr:uid="{9E2233DB-31BC-480B-8E80-0E350440A90A}"/>
-    <hyperlink ref="F195" r:id="rId392" xr:uid="{74D188EA-6C64-4561-9189-80E647FF0B69}"/>
-    <hyperlink ref="C196" r:id="rId393" display="https://www.zkdh.net/" xr:uid="{E8D15130-74DD-4A97-9298-329089A18430}"/>
-    <hyperlink ref="F196" r:id="rId394" xr:uid="{A481F820-951E-4A22-862C-D4F5C1E7CB7D}"/>
-    <hyperlink ref="C197" r:id="rId395" xr:uid="{C6543DB4-C809-4403-B510-513E4554C8F3}"/>
-    <hyperlink ref="C198" r:id="rId396" display="https://shadiao.pro/" xr:uid="{DF9727F0-B3AA-4C6D-B6D6-4349080D09EE}"/>
-    <hyperlink ref="F198" r:id="rId397" xr:uid="{6A80D910-C8CF-4054-89AB-E53CDF1C8D4B}"/>
-    <hyperlink ref="C199" r:id="rId398" display="https://nav.iowen.cn/" xr:uid="{82207CEA-AAA8-4C5F-813E-19838CE65A86}"/>
-    <hyperlink ref="F199" r:id="rId399" xr:uid="{BB724CF9-4B00-4C8E-9E6A-DA321EEFF9EC}"/>
-    <hyperlink ref="C200" r:id="rId400" display="https://www.8kmm.com/" xr:uid="{6EFC0D14-33A9-4719-825C-B6CD024EDFAF}"/>
-    <hyperlink ref="F200" r:id="rId401" xr:uid="{1D9F29E4-4DDD-4CDB-9475-D083D9B6ED71}"/>
-    <hyperlink ref="C201" r:id="rId402" display="https://www.996dh.cn/" xr:uid="{02B97062-CD3B-4AEA-AAFB-154E3F84AEAD}"/>
-    <hyperlink ref="F201" r:id="rId403" xr:uid="{60EE5247-3B14-45B5-97BC-76B3C51B79CD}"/>
-    <hyperlink ref="C202" r:id="rId404" display="https://www.tboxn.com/" xr:uid="{B43A831D-8E26-4391-BE9F-5F13642C2E3E}"/>
-    <hyperlink ref="F202" r:id="rId405" xr:uid="{9040E12A-8388-4E34-87B8-F528F91441DB}"/>
-    <hyperlink ref="C203" r:id="rId406" xr:uid="{624ED487-38BC-4672-8EA9-7072D44FA15A}"/>
-    <hyperlink ref="F203" r:id="rId407" xr:uid="{57D7B5DB-4918-4376-AA60-B4BA1AAE0C29}"/>
-    <hyperlink ref="C204" r:id="rId408" display="https://hellowindows.cn/" xr:uid="{BDC33F16-7AB4-4B08-A93C-C7C00E4CCA9E}"/>
-    <hyperlink ref="F204" r:id="rId409" xr:uid="{26F7645B-F787-4029-AAA2-50E67A33263C}"/>
-    <hyperlink ref="C205" r:id="rId410" xr:uid="{59E61669-62DF-496E-81AD-AEE1B9B7DB62}"/>
-    <hyperlink ref="F205" r:id="rId411" xr:uid="{B180E805-7668-4530-878D-3DD5ED77AB75}"/>
-    <hyperlink ref="C206" r:id="rId412" xr:uid="{D868B795-F618-4180-BC58-A7CD08287D24}"/>
-    <hyperlink ref="C207" r:id="rId413" xr:uid="{B8F9B41A-CA7C-403D-B18A-5D328DE6F77D}"/>
-    <hyperlink ref="F207" r:id="rId414" xr:uid="{6151D614-FD4C-4C17-AF7F-CB430AF58821}"/>
-    <hyperlink ref="C208" r:id="rId415" xr:uid="{FC06AB2A-1D09-42EF-BC4D-EAC84E0BDC0A}"/>
-    <hyperlink ref="F208" r:id="rId416" xr:uid="{CC81FFEE-7136-46B1-8617-7C89DD91DC20}"/>
-    <hyperlink ref="C209" r:id="rId417" xr:uid="{620FBC47-94BE-4952-A735-187F8588C9D6}"/>
-    <hyperlink ref="F209" r:id="rId418" xr:uid="{55A3A769-FD1A-4485-83D9-AB8CE3AB65FE}"/>
-    <hyperlink ref="C210" r:id="rId419" xr:uid="{63F1606A-F091-4906-B3FE-0274411D3A83}"/>
-    <hyperlink ref="F210" r:id="rId420" xr:uid="{BA23B983-0511-4953-9A1E-D8B011DADABA}"/>
-    <hyperlink ref="C211" r:id="rId421" xr:uid="{32C3CAA5-C824-4718-906A-AA786E9CAC7C}"/>
-    <hyperlink ref="F211" r:id="rId422" xr:uid="{BF5A2870-C395-4FED-A551-240461C0109B}"/>
-    <hyperlink ref="C212" r:id="rId423" xr:uid="{85245582-D313-407C-B115-553C99DDAC87}"/>
-    <hyperlink ref="F212" r:id="rId424" xr:uid="{C48F122A-E947-4B52-8DD7-7278C31913CE}"/>
-    <hyperlink ref="C213" r:id="rId425" xr:uid="{56E1385D-9090-42C2-A14C-587B3D8BBF21}"/>
-    <hyperlink ref="F213" r:id="rId426" xr:uid="{A0DC8823-C097-4D8C-B80D-2211E8A393E3}"/>
-    <hyperlink ref="C214" r:id="rId427" xr:uid="{A5BAFACA-FDB6-4B6E-9D40-5F01DC08D1F4}"/>
-    <hyperlink ref="F214" r:id="rId428" xr:uid="{E9EEC926-FE8C-4FF8-BC93-2549888CE085}"/>
-    <hyperlink ref="C215" r:id="rId429" xr:uid="{2876BBEF-9439-455A-B281-6D99312B2D66}"/>
-    <hyperlink ref="F215" r:id="rId430" xr:uid="{388CEC65-6192-4A70-A2DB-8C3D0FF344C7}"/>
-    <hyperlink ref="C216" r:id="rId431" xr:uid="{405044E2-8F47-4CD7-BB16-EFF9CA64F1B7}"/>
-    <hyperlink ref="F216" r:id="rId432" xr:uid="{1181F231-3907-4496-8ACE-8DE2705D4A82}"/>
-    <hyperlink ref="C217" r:id="rId433" xr:uid="{806DF2DC-593B-49F0-98A4-53DC22FB7FDE}"/>
-    <hyperlink ref="C218" r:id="rId434" xr:uid="{F28A3E3A-50F4-489A-B01E-C634B18AF98C}"/>
-    <hyperlink ref="F218" r:id="rId435" xr:uid="{A5EB5697-98A3-4C74-8948-FD23B07A1A1B}"/>
-    <hyperlink ref="C219" r:id="rId436" xr:uid="{1EA1201E-32B1-4445-8B25-A3202850F2E6}"/>
-    <hyperlink ref="F219" r:id="rId437" xr:uid="{A0142F2E-5CA8-4E12-9833-8B94430E3F0A}"/>
-    <hyperlink ref="C220" r:id="rId438" xr:uid="{0641EAD7-2D0B-452C-9751-2ABC34B19183}"/>
-    <hyperlink ref="F220" r:id="rId439" xr:uid="{65F414D8-610F-4EB2-8023-DADFA73EB2A4}"/>
-    <hyperlink ref="C221" r:id="rId440" xr:uid="{4C9CC648-8E3C-4685-8402-5786C0A2F224}"/>
-    <hyperlink ref="F221" r:id="rId441" xr:uid="{786AB269-89EE-4A7C-A98F-F4A887A5EA77}"/>
-    <hyperlink ref="C222" r:id="rId442" xr:uid="{A245E56B-66EA-4537-B29F-55AF60572D8D}"/>
-    <hyperlink ref="F222" r:id="rId443" xr:uid="{61CD8FB5-4F9D-43C3-AB4B-DBEDF017F7F8}"/>
-    <hyperlink ref="C223" r:id="rId444" xr:uid="{2102B2FD-64D0-48DC-AE35-8AB9D5076A23}"/>
-    <hyperlink ref="C224" r:id="rId445" xr:uid="{51B5C8DC-E5FB-41B7-BA5B-5EB5DF669FA1}"/>
-    <hyperlink ref="F224" r:id="rId446" tooltip="https://zh.learnlayout.com/images/logo.png" xr:uid="{3B512A7D-8629-41E7-82C0-05113ECFC1B1}"/>
-    <hyperlink ref="C225" r:id="rId447" xr:uid="{D849C9A6-2C2C-481E-9F2F-1750C203CCD9}"/>
-    <hyperlink ref="F225" r:id="rId448" xr:uid="{AC6C5E87-F4C7-4BF4-A93F-52DB227AD4FA}"/>
-    <hyperlink ref="C226" r:id="rId449" xr:uid="{8594930D-E051-4340-A9EB-EEDCEC6C295E}"/>
-    <hyperlink ref="F226" r:id="rId450" xr:uid="{18F02FA3-A29D-40C4-AFBF-387158788CC3}"/>
-    <hyperlink ref="C227" r:id="rId451" xr:uid="{86085232-D2D3-419A-9898-3C61FD31A3DA}"/>
-    <hyperlink ref="F227" r:id="rId452" xr:uid="{C929B7CC-3F57-4D08-8B86-5E0C1135DD95}"/>
-    <hyperlink ref="C228" r:id="rId453" xr:uid="{7F587BBB-2129-4D33-B25E-291232715DC8}"/>
-    <hyperlink ref="F228" r:id="rId454" xr:uid="{CB433465-B953-45D9-9BFE-9EEE1A6D7C56}"/>
-    <hyperlink ref="C229" r:id="rId455" xr:uid="{1AA7E3EB-12D1-43AC-AD54-0341E377E5FD}"/>
-    <hyperlink ref="C230" r:id="rId456" xr:uid="{2EB1E934-6F4B-4B40-87DA-32457CC6BBB3}"/>
-    <hyperlink ref="C231" r:id="rId457" xr:uid="{086D400F-E9E8-4B4C-B470-2C135503B8FB}"/>
-    <hyperlink ref="F231" r:id="rId458" xr:uid="{42BECDDA-03E4-4B14-B592-BB916172DD36}"/>
-    <hyperlink ref="C232" r:id="rId459" xr:uid="{C52D7682-8207-4927-9B10-89D197F20BE2}"/>
-    <hyperlink ref="F232" r:id="rId460" xr:uid="{1068B33D-2499-4A3C-B87C-49FF140C2A51}"/>
-    <hyperlink ref="C233" r:id="rId461" xr:uid="{86D1D4D5-D65B-485A-A310-09286DBCA462}"/>
-    <hyperlink ref="F233" r:id="rId462" xr:uid="{1F8F3AB4-E4DC-431B-8738-EC3BB7B026F0}"/>
-    <hyperlink ref="C234" r:id="rId463" xr:uid="{74EEE6C8-8887-4A63-B534-0634AEBD3270}"/>
-    <hyperlink ref="F234" r:id="rId464" xr:uid="{518C6EDA-8A46-4666-817E-7C8D9206090D}"/>
-    <hyperlink ref="C235" r:id="rId465" xr:uid="{D20E31AC-4A67-45B2-922B-B015CADDDDC1}"/>
-    <hyperlink ref="F235" r:id="rId466" xr:uid="{222068A3-E1E7-41E7-925F-96F3B59B1162}"/>
-    <hyperlink ref="C236" r:id="rId467" xr:uid="{E172BDBB-868C-4856-8123-17AC84D04F2C}"/>
-    <hyperlink ref="F236" r:id="rId468" xr:uid="{27253DDE-330D-4233-A205-E1607274E92E}"/>
-    <hyperlink ref="C237" r:id="rId469" xr:uid="{E75812B2-4644-463F-BEC9-3653CC9B5DE8}"/>
-    <hyperlink ref="F237" r:id="rId470" xr:uid="{13BAA8BC-CB88-4440-B6FF-C58A2630A82D}"/>
-    <hyperlink ref="C238" r:id="rId471" xr:uid="{612486F9-1265-4934-9FD3-A69D0C166897}"/>
-    <hyperlink ref="F238" r:id="rId472" xr:uid="{94BBE4E4-F648-4471-AF25-FA605E535EA4}"/>
-    <hyperlink ref="C239" r:id="rId473" xr:uid="{8DEDD35C-D167-4CE4-9AB7-1E2B286DF612}"/>
-    <hyperlink ref="F239" r:id="rId474" xr:uid="{9BCACB47-E354-411E-AF57-69D3F529015C}"/>
-    <hyperlink ref="C240" r:id="rId475" display="https://xingedu.cn/" xr:uid="{B38742AE-B20D-4297-9970-353A15CDBE7D}"/>
-    <hyperlink ref="F240" r:id="rId476" xr:uid="{E836BFDF-DEFD-46C7-87EF-BAF96602DB1F}"/>
-    <hyperlink ref="C241" r:id="rId477" xr:uid="{C3DB502C-B9E9-4BC3-A446-6217900B6529}"/>
-    <hyperlink ref="F241" r:id="rId478" xr:uid="{8D82CF40-9273-48A3-918A-793DB8BD6A04}"/>
-    <hyperlink ref="C242" r:id="rId479" display="https://fuun.fun/" xr:uid="{0F6B80CE-6845-4F09-AC82-925907C2C1B9}"/>
-    <hyperlink ref="F242" r:id="rId480" tooltip="https://fuun.fun/favicon.ico" xr:uid="{FDEB1E7F-B55F-419F-8F0D-F99FB0C130F2}"/>
-    <hyperlink ref="C243" r:id="rId481" tooltip="https://pano.dpm.org.cn/" xr:uid="{A72110D0-3BEF-41F4-A06C-41B94E08F6DB}"/>
-    <hyperlink ref="F243" r:id="rId482" xr:uid="{B4816E07-2B09-47E0-807B-CBD414F7FF7F}"/>
-    <hyperlink ref="C244" r:id="rId483" display="https://www.zhijianshang.com/" xr:uid="{234BC45F-852A-4941-A85A-845AEEC7EF09}"/>
-    <hyperlink ref="F244" r:id="rId484" xr:uid="{46AFCD07-79CA-4FDC-90F8-2BDCCACCF992}"/>
-    <hyperlink ref="C245" r:id="rId485" xr:uid="{306ECFCB-A7AD-44E0-9B41-3994EB7A8190}"/>
-    <hyperlink ref="F245" r:id="rId486" xr:uid="{C82544DC-AA56-4C62-BBDC-42D1A4438F58}"/>
-    <hyperlink ref="C246" r:id="rId487" xr:uid="{1D67F4B3-62FE-4731-960C-0B8375FB284A}"/>
-    <hyperlink ref="F246" r:id="rId488" xr:uid="{33AFDC15-7AB7-42D2-9734-07332AED89FC}"/>
-    <hyperlink ref="C247" r:id="rId489" display="https://zypuu.com/" xr:uid="{6AF4F99C-C291-4CD6-9072-84C1D3CA4C53}"/>
-    <hyperlink ref="F247" r:id="rId490" xr:uid="{61726705-E860-4292-ACA1-6FFDD128AB06}"/>
-    <hyperlink ref="C248" r:id="rId491" location="/zh_CN" display="https://996.icu/ - /zh_CN" xr:uid="{6037350C-6B83-43CC-9642-12FEF372DDA9}"/>
-    <hyperlink ref="F248" r:id="rId492" xr:uid="{4572DEA0-DADF-41DC-A7DF-C4C7E03973D2}"/>
-    <hyperlink ref="C249" r:id="rId493" xr:uid="{1B037EC1-82C9-492E-B50E-EDFEEC366C05}"/>
-    <hyperlink ref="F249" r:id="rId494" xr:uid="{DCD139F7-3E11-4CD7-BFFD-C8338CFE7F53}"/>
-    <hyperlink ref="C250" r:id="rId495" xr:uid="{D97C979E-37C1-4F3C-AF64-6ABC68CC5002}"/>
-    <hyperlink ref="C251" r:id="rId496" xr:uid="{C9BE812D-44DD-49ED-9783-685ACE6E3DEE}"/>
-    <hyperlink ref="F251" r:id="rId497" xr:uid="{3BDD70FB-C9FC-49E7-BD41-D073CE104EC6}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{3E6F7E0A-D1EA-4D5F-8008-15779C824C75}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{77BB878D-D603-4A70-BC1E-B04AC3317602}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://www.notion.so/" xr:uid="{36A85EE2-F376-4EC7-A5B7-C5A5566C1F05}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{37FA15F3-54C9-4198-BD8E-A4B63CE7FA1D}"/>
+    <hyperlink ref="A3" r:id="rId5" display="https://note.ms/" xr:uid="{50C3D77E-BA3D-4CED-9201-307552340903}"/>
+    <hyperlink ref="C3" r:id="rId6" display="https://note.ms/" xr:uid="{FF3AE3B8-C0C5-4FF3-904E-ADDB03ED5833}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{71DE0DFB-2DD7-4856-BAC9-A6294F187E4F}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{2AD9A1AF-6668-4366-AFAF-150767EE4D8C}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{4A27B8EA-FA93-4C74-B6AF-B54385818A10}"/>
+    <hyperlink ref="C5" r:id="rId10" display="https://tophub.today/" xr:uid="{E9FB11F2-1E1F-4FE2-86AD-C1AC68A3CAA4}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{446E9C11-3D7C-4637-BE02-1643377B3939}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{E6AE0EBF-62F9-4D80-AF0C-F9D35A54C8D0}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{F7A5E386-5A36-453C-8950-BA6E2922D4A7}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{BE4A39ED-0A06-4305-B3E4-6C7AF27A4B6D}"/>
+    <hyperlink ref="F7" r:id="rId15" xr:uid="{B0A64D5C-2F5F-4078-9815-F67D24FAF52E}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{65D1148D-1B40-4BBF-886C-51DCBFF900FD}"/>
+    <hyperlink ref="F8" r:id="rId17" xr:uid="{38E19809-855A-41B7-BC37-95347C3FA83F}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{9B11D8A2-BA46-4FFD-81E3-0ABBFD10773E}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{503603A2-BA4D-431E-9BA9-27C9F5676102}"/>
+    <hyperlink ref="C10" r:id="rId20" xr:uid="{79F47484-4D37-4063-9B6D-B57BB35F551B}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{316327DD-0CBB-4286-96B0-1071276133F7}"/>
+    <hyperlink ref="C11" r:id="rId22" tooltip="https://www.mtime.com" display="https://www.mtime.com/" xr:uid="{281BB6C9-83A0-4EDA-BDEF-401E51B6E251}"/>
+    <hyperlink ref="F11" r:id="rId23" xr:uid="{FA95165B-2EE2-43DE-8AEB-522E01574753}"/>
+    <hyperlink ref="C12" r:id="rId24" display="https://www.1905.com/" xr:uid="{D981D881-4783-4AA2-A72C-750B28BD95F9}"/>
+    <hyperlink ref="F12" r:id="rId25" xr:uid="{B4940A82-49D1-4755-AE12-E241E05C74A8}"/>
+    <hyperlink ref="C13" r:id="rId26" display="https://movie.douban.com/" xr:uid="{243B0784-B3A7-427B-8939-258A70A86075}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{685084B3-97A6-4232-B3E1-9F026C670C85}"/>
+    <hyperlink ref="C14" r:id="rId28" xr:uid="{28A2A7DC-7003-45D6-B773-2A1FA1C61B07}"/>
+    <hyperlink ref="F14" r:id="rId29" xr:uid="{2AF8EB2B-6CE8-41E8-BB94-41735AA2D501}"/>
+    <hyperlink ref="C15" r:id="rId30" xr:uid="{347A9445-F0A6-4B5A-B773-CA90E8570E2C}"/>
+    <hyperlink ref="F15" r:id="rId31" xr:uid="{264888CA-CAB6-47D2-93B2-519227BD2E68}"/>
+    <hyperlink ref="C16" r:id="rId32" xr:uid="{D24747AC-7662-4787-865E-5083A3205420}"/>
+    <hyperlink ref="F16" r:id="rId33" xr:uid="{51EF1A47-ECE5-4F3D-8D32-9773F3269354}"/>
+    <hyperlink ref="H16" r:id="rId34" xr:uid="{2D03B011-5EDD-4325-B895-E2721B20858B}"/>
+    <hyperlink ref="C17" r:id="rId35" xr:uid="{74C94538-228D-4053-A5D8-DEA2C44A56FB}"/>
+    <hyperlink ref="F17" r:id="rId36" xr:uid="{4F45F787-965B-420D-8B91-F92BC9707244}"/>
+    <hyperlink ref="H17" r:id="rId37" xr:uid="{780D6046-F51D-4351-9427-4420417489A6}"/>
+    <hyperlink ref="C18" r:id="rId38" xr:uid="{93A7EF45-D925-40EC-B79F-A79261A080E3}"/>
+    <hyperlink ref="F18" r:id="rId39" xr:uid="{E9460AE5-E1C4-41D7-BCF5-BD1CDA590DB0}"/>
+    <hyperlink ref="H18" r:id="rId40" display="https://www.dy2018.com/" xr:uid="{7566542C-4726-468B-B652-33CF8DB22F46}"/>
+    <hyperlink ref="C19" r:id="rId41" xr:uid="{1633E23C-B647-44B1-9D61-CA78CC85415A}"/>
+    <hyperlink ref="F19" r:id="rId42" xr:uid="{1FDB7694-FB21-4CDE-A58F-5ABA1F585916}"/>
+    <hyperlink ref="C20" r:id="rId43" xr:uid="{96E639FD-A48C-49BE-B913-6BFB1592F873}"/>
+    <hyperlink ref="F20" r:id="rId44" xr:uid="{CC7EC159-E4FC-489B-BC2B-B35B374DB9CD}"/>
+    <hyperlink ref="C21" r:id="rId45" xr:uid="{A7DEC441-F20E-4750-A81B-24C7F82330E0}"/>
+    <hyperlink ref="F21" r:id="rId46" xr:uid="{1B13C36F-1683-463B-8E98-0D2D35F6D9EF}"/>
+    <hyperlink ref="C22" r:id="rId47" xr:uid="{B97BE13B-03B2-4525-9C1C-9559A7880392}"/>
+    <hyperlink ref="F22" r:id="rId48" tooltip="https://toolb.cn/favicon/www.iyd.wang" xr:uid="{44EEE7D4-C208-4002-A729-28F0E1CC664B}"/>
+    <hyperlink ref="C23" r:id="rId49" xr:uid="{6E3EF9DE-1D00-4B53-85CC-448ED5CD252E}"/>
+    <hyperlink ref="F23" r:id="rId50" xr:uid="{533E55E1-8910-49E5-BF5F-CDCC344CD07D}"/>
+    <hyperlink ref="C24" r:id="rId51" xr:uid="{0723B872-32F2-47F4-A97B-5A7DE6C50DBD}"/>
+    <hyperlink ref="F24" r:id="rId52" xr:uid="{451132A2-4A2C-46EF-826A-8D0480C233DC}"/>
+    <hyperlink ref="C25" r:id="rId53" xr:uid="{0EA7C954-DC09-4B12-BB41-02249FE84906}"/>
+    <hyperlink ref="F25" r:id="rId54" tooltip="https://www.book123.info/favicon.ico" xr:uid="{48EA733A-2083-4202-AF78-B540EC876062}"/>
+    <hyperlink ref="C26" r:id="rId55" xr:uid="{8A7F89D6-D549-4064-8D81-82C22416DC1C}"/>
+    <hyperlink ref="F26" r:id="rId56" xr:uid="{C6B7C8B3-291D-4D72-9A3E-A49F1437A995}"/>
+    <hyperlink ref="C27" r:id="rId57" xr:uid="{AC45F30A-CA9D-414E-9C50-969595EEB579}"/>
+    <hyperlink ref="F27" r:id="rId58" xr:uid="{EA83475A-889F-4845-8FF6-CB0F3AFF4B57}"/>
+    <hyperlink ref="H27" r:id="rId59" xr:uid="{4ED2C273-9861-4F88-A1F8-5A618DE0E6F3}"/>
+    <hyperlink ref="C28" r:id="rId60" xr:uid="{D480A38B-D39B-447F-AC49-AC8747825A1A}"/>
+    <hyperlink ref="F28" r:id="rId61" xr:uid="{E87F434B-D25A-4B3E-AA54-9AB103154F0C}"/>
+    <hyperlink ref="C29" r:id="rId62" display="https://www.iplaysoft.com/" xr:uid="{C7B3CE2A-3FFF-4AAC-AED1-A303D6757E37}"/>
+    <hyperlink ref="F29" r:id="rId63" xr:uid="{9BFEF90F-9762-4EAE-B86F-5DE29F2190BD}"/>
+    <hyperlink ref="C30" r:id="rId64" display="https://www.ghxi.com/" xr:uid="{6E6D22CF-173D-485D-8AE6-B22A5CDC9629}"/>
+    <hyperlink ref="F30" r:id="rId65" xr:uid="{A1A24B7F-1BB3-4950-8E3D-81520999FBDC}"/>
+    <hyperlink ref="C31" r:id="rId66" display="https://www.yeyulingfeng.com/" xr:uid="{B497E420-47BB-4DA3-87BE-57F77EDAA0D9}"/>
+    <hyperlink ref="F31" r:id="rId67" xr:uid="{0084E69B-3DA9-47EB-82C3-A88686B190BE}"/>
+    <hyperlink ref="C32" r:id="rId68" display="https://www.mpyit.com/" xr:uid="{E39D4DFF-BECF-4D4D-9569-51560524C6F5}"/>
+    <hyperlink ref="F32" r:id="rId69" xr:uid="{EADE9425-3BCD-40A6-A75F-5B4063433B21}"/>
+    <hyperlink ref="C33" r:id="rId70" display="https://www.ypojie.com/" xr:uid="{498AB918-DBF2-49DB-8F9A-3838D13E60A2}"/>
+    <hyperlink ref="F33" r:id="rId71" xr:uid="{A66CBA0C-9A6C-423D-AB1C-4A56C21B067F}"/>
+    <hyperlink ref="C34" r:id="rId72" xr:uid="{9856D71E-15FF-4C7A-9BE5-C68D6B543A10}"/>
+    <hyperlink ref="F34" r:id="rId73" xr:uid="{72B74883-8618-4369-98D1-76E035ACAE6E}"/>
+    <hyperlink ref="H34" r:id="rId74" xr:uid="{BFEB16D7-4356-4646-8542-E7A35912353E}"/>
+    <hyperlink ref="C35" r:id="rId75" xr:uid="{7D34030D-E9ED-43C7-9496-B7A31C47530D}"/>
+    <hyperlink ref="F35" r:id="rId76" xr:uid="{03465FD7-4BF9-48B5-AB9C-F8E319D0B7D2}"/>
+    <hyperlink ref="C36" r:id="rId77" xr:uid="{5BE50FAF-4BB2-4599-8C2B-4C34F8467894}"/>
+    <hyperlink ref="F36" r:id="rId78" xr:uid="{9FD471E7-2AD6-46B9-BDD2-6C73A75DF913}"/>
+    <hyperlink ref="F37" r:id="rId79" xr:uid="{AA288098-B1F5-4F0D-9A49-9080C8F43773}"/>
+    <hyperlink ref="C38" r:id="rId80" xr:uid="{ED5E081A-A4C0-4861-A681-9D77F6053AE0}"/>
+    <hyperlink ref="F38" r:id="rId81" xr:uid="{670397C7-BF47-493E-9190-264D6A37F3DE}"/>
+    <hyperlink ref="C39" r:id="rId82" xr:uid="{0E362BBD-8328-449E-BF32-663460759DA2}"/>
+    <hyperlink ref="F39" r:id="rId83" xr:uid="{71E222E3-D622-4B6E-8AC5-9477022636C7}"/>
+    <hyperlink ref="C40" r:id="rId84" display="https://free.apprcn.com/" xr:uid="{CDEDD8A7-5764-49D0-9AD1-7A39231FF873}"/>
+    <hyperlink ref="F40" r:id="rId85" xr:uid="{CC04ABE3-495B-4B5D-9335-3A5494D909E7}"/>
+    <hyperlink ref="C41" r:id="rId86" display="https://gofans.cn/" xr:uid="{A9D291E3-CBEF-44F3-ACAD-2D874A21F26B}"/>
+    <hyperlink ref="F41" r:id="rId87" xr:uid="{6CFF5702-4523-47B0-91FD-EC848ABBE9E7}"/>
+    <hyperlink ref="C42" r:id="rId88" xr:uid="{F5D4BCB3-E51D-4C13-A11C-77EFB478DD8B}"/>
+    <hyperlink ref="F42" r:id="rId89" tooltip="https://toolb.cn/favicon/zh.snipaste.com" xr:uid="{F318410C-760E-44C4-B8F5-3C94C3F5091B}"/>
+    <hyperlink ref="C43" r:id="rId90" xr:uid="{2BA47413-039F-43FE-BCA9-F79168F3BDE0}"/>
+    <hyperlink ref="F43" r:id="rId91" xr:uid="{08E6A0AF-A2A3-4C16-94DF-F992C8B00173}"/>
+    <hyperlink ref="C44" r:id="rId92" xr:uid="{C335E8A6-5A4A-480A-BE8C-0C6D9F6B4F48}"/>
+    <hyperlink ref="F44" r:id="rId93" xr:uid="{94978717-7210-4E7D-B85F-6EEF54F08C90}"/>
+    <hyperlink ref="C45" r:id="rId94" xr:uid="{BE48B6F1-5F00-45FD-825F-C6BEDDEEEC25}"/>
+    <hyperlink ref="F45" r:id="rId95" xr:uid="{27D8C171-9416-45DC-B829-3B9108D96F57}"/>
+    <hyperlink ref="C46" r:id="rId96" xr:uid="{297AD5B8-BFAD-4477-A331-BEF89A91527A}"/>
+    <hyperlink ref="F46" r:id="rId97" xr:uid="{7373DFAB-5EA8-4CCC-878E-B5E0AF51D7A0}"/>
+    <hyperlink ref="C47" r:id="rId98" xr:uid="{6EF54EE1-010C-4409-8B06-1B4232113076}"/>
+    <hyperlink ref="F47" r:id="rId99" xr:uid="{23B9A56E-456A-4D9E-B68B-72264188A54A}"/>
+    <hyperlink ref="C48" r:id="rId100" xr:uid="{033BEA11-5ECA-4611-8011-BB0DCBB94981}"/>
+    <hyperlink ref="F48" r:id="rId101" xr:uid="{B2C1459B-F444-4467-84CD-95EA0A3C5FAF}"/>
+    <hyperlink ref="C49" r:id="rId102" xr:uid="{99FEADD9-5706-4CCA-8DDC-013412051891}"/>
+    <hyperlink ref="F49" r:id="rId103" xr:uid="{9C91AA46-045F-4C3B-BFE7-5E7308A65531}"/>
+    <hyperlink ref="C50" r:id="rId104" xr:uid="{BF624EA5-FBA9-4E15-8587-1E691B85340A}"/>
+    <hyperlink ref="F50" r:id="rId105" xr:uid="{234124EA-BC6A-40F7-8CB5-AD0038FBE7A9}"/>
+    <hyperlink ref="C51" r:id="rId106" tooltip="https://calibre-ebook.com/zh_CN" xr:uid="{2A8BE3ED-54A3-4F5B-BFEB-A3470675F1D5}"/>
+    <hyperlink ref="F51" r:id="rId107" xr:uid="{4F1683FA-34E7-4256-8203-117C85CC42CE}"/>
+    <hyperlink ref="H51" r:id="rId108" tooltip="https://calibre-ebook.com/" xr:uid="{8D138670-ECDD-4B32-A740-4026CE77FC49}"/>
+    <hyperlink ref="C52" r:id="rId109" xr:uid="{1BE85ADD-B663-4BD9-95C5-35FE28EC52F3}"/>
+    <hyperlink ref="F52" r:id="rId110" xr:uid="{B759F74B-D417-417E-AA7B-83FCAA8C98CB}"/>
+    <hyperlink ref="C53" r:id="rId111" xr:uid="{31B9AF25-5030-4F2D-A791-68FF49C89318}"/>
+    <hyperlink ref="F53" r:id="rId112" xr:uid="{D8B565FA-6331-43E1-8BCE-3EF167C994DC}"/>
+    <hyperlink ref="C54" r:id="rId113" xr:uid="{C94021A9-56DD-47C0-B43D-EB886D492B35}"/>
+    <hyperlink ref="F54" r:id="rId114" xr:uid="{15F4DB6C-1B10-4A9A-A6A3-05473CEE0563}"/>
+    <hyperlink ref="C55" r:id="rId115" xr:uid="{D0E3662A-7FEF-4B8C-AB0D-9B135376C094}"/>
+    <hyperlink ref="F55" r:id="rId116" xr:uid="{B3E98678-88F0-43B3-9D15-7B3B234070DC}"/>
+    <hyperlink ref="C56" r:id="rId117" xr:uid="{68BB9CB3-2FDB-40A9-A36E-760EB6D2BC6B}"/>
+    <hyperlink ref="C57" r:id="rId118" xr:uid="{294B1771-849B-4478-BB91-FDEDD9567E42}"/>
+    <hyperlink ref="F57" r:id="rId119" xr:uid="{1007B333-4929-413D-83AD-2161D00D4D7D}"/>
+    <hyperlink ref="C58" r:id="rId120" xr:uid="{CC365755-332B-47FA-97C7-0AA535E60B0A}"/>
+    <hyperlink ref="F58" r:id="rId121" xr:uid="{883B206C-A463-4E7D-91D3-33381536203C}"/>
+    <hyperlink ref="C59" r:id="rId122" xr:uid="{D8C66A8D-02EB-4ABA-BDB3-BA558FF1954B}"/>
+    <hyperlink ref="F59" r:id="rId123" xr:uid="{028DB18F-F783-41ED-B80C-92F88BDD7E2F}"/>
+    <hyperlink ref="C60" r:id="rId124" xr:uid="{52AC836F-2D79-40F8-95C1-EBE5F6055071}"/>
+    <hyperlink ref="F60" r:id="rId125" xr:uid="{2F90C306-1694-4576-B4F2-7AB33774FA29}"/>
+    <hyperlink ref="C61" r:id="rId126" xr:uid="{D07A38B3-0FD1-408C-9120-8B4489709AA5}"/>
+    <hyperlink ref="F61" r:id="rId127" xr:uid="{9C5AC8CC-75B0-4724-8E18-60454DCE7CC2}"/>
+    <hyperlink ref="C62" r:id="rId128" xr:uid="{1309CD9F-BF41-406E-83B0-DA1F75B219BE}"/>
+    <hyperlink ref="F62" r:id="rId129" xr:uid="{25DAED1F-EE57-4DCB-B458-DC0442AACFF9}"/>
+    <hyperlink ref="C63" r:id="rId130" xr:uid="{3F6E8E90-A7D1-495B-A0C7-4BF16A0F784B}"/>
+    <hyperlink ref="F63" r:id="rId131" xr:uid="{5EF3A3CB-23E4-4F9A-A8FF-1BB9557506EF}"/>
+    <hyperlink ref="C64" r:id="rId132" xr:uid="{617CEBC9-1AC6-44CE-B3EC-656A7DCB2F69}"/>
+    <hyperlink ref="F64" r:id="rId133" xr:uid="{C464FB61-E0DB-40E9-9A13-B3E1934C07DB}"/>
+    <hyperlink ref="C65" r:id="rId134" xr:uid="{B07BE972-CE58-4C2E-96D7-FA0BD88E0E68}"/>
+    <hyperlink ref="F65" r:id="rId135" xr:uid="{3EBA60C1-93FA-4A8A-AA32-E5AC4BA2FE13}"/>
+    <hyperlink ref="C66" r:id="rId136" xr:uid="{E7252038-7234-4976-8964-AC4BB72EAC84}"/>
+    <hyperlink ref="F66" r:id="rId137" xr:uid="{12F193FA-D22D-49EA-86D3-693DF48508AD}"/>
+    <hyperlink ref="C67" r:id="rId138" xr:uid="{AFA3E12E-F0DB-4BA5-8423-2FC2766C6585}"/>
+    <hyperlink ref="F67" r:id="rId139" xr:uid="{EA5FAC32-0CA6-4732-A8E1-D439477EC624}"/>
+    <hyperlink ref="C68" r:id="rId140" xr:uid="{E9367EED-BEE2-4908-B97B-5D4B7F499F9E}"/>
+    <hyperlink ref="F68" r:id="rId141" xr:uid="{450D6C78-A5F7-4D05-BCF0-41290E4D370D}"/>
+    <hyperlink ref="C69" r:id="rId142" xr:uid="{AAEB8AD8-3D96-47F7-8DD5-0AA8EA5E26CB}"/>
+    <hyperlink ref="F69" r:id="rId143" xr:uid="{187C6529-4C3F-4695-A8C9-9622BEC6CB85}"/>
+    <hyperlink ref="C70" r:id="rId144" xr:uid="{11ECD5B4-4B5A-4427-B437-28C9E54DDAD0}"/>
+    <hyperlink ref="F70" r:id="rId145" xr:uid="{D5F85D1F-9D78-4046-8235-5240289FBEA2}"/>
+    <hyperlink ref="C71" r:id="rId146" display="https://cloud.hiksemi.cn/web/clientdownload/download.html" xr:uid="{7A6D7781-EE40-4046-BE8B-11991D94D4BF}"/>
+    <hyperlink ref="F71" r:id="rId147" xr:uid="{BC576B5A-876D-4331-B1FE-9D36849D069C}"/>
+    <hyperlink ref="C72" r:id="rId148" xr:uid="{BE36C470-83D8-4168-8D4B-E2C7A8A54B78}"/>
+    <hyperlink ref="F72" r:id="rId149" xr:uid="{46679E6E-4168-4D96-939C-49A9A1589A68}"/>
+    <hyperlink ref="C73" r:id="rId150" xr:uid="{0B10E583-054D-4383-8075-2D1E19491711}"/>
+    <hyperlink ref="F73" r:id="rId151" xr:uid="{C558C20D-46FE-406F-9F36-C62F61EA3E75}"/>
+    <hyperlink ref="C74" r:id="rId152" xr:uid="{4329E7E8-4295-40A8-8EA1-1C29CF42C142}"/>
+    <hyperlink ref="F74" r:id="rId153" xr:uid="{C9778ED0-B043-4572-859E-6F0B507B1B41}"/>
+    <hyperlink ref="C75" r:id="rId154" tooltip="https://gitee.com/viarotel-org/escrcpy/releases" xr:uid="{161C165E-65F0-4CAD-8D9C-1C3097BFD42A}"/>
+    <hyperlink ref="C76" r:id="rId155" xr:uid="{FFC7ED4D-9A13-46A9-BCE5-730D46B090CF}"/>
+    <hyperlink ref="F76" r:id="rId156" xr:uid="{63566D31-BD97-46ED-AD37-B1F23F124F19}"/>
+    <hyperlink ref="C77" r:id="rId157" tooltip="https://limestart.cn/intro" xr:uid="{3F176B78-7AC2-4D48-B6BA-0CCBA46EDCFC}"/>
+    <hyperlink ref="F77" r:id="rId158" xr:uid="{12BD876A-C0AB-443B-AF18-C419564038C8}"/>
+    <hyperlink ref="C78" r:id="rId159" xr:uid="{CFA37196-298B-443E-B492-9E48AA07D8FE}"/>
+    <hyperlink ref="F78" r:id="rId160" xr:uid="{62927C3C-1636-4D31-BB17-EB5E55E1E630}"/>
+    <hyperlink ref="C79" r:id="rId161" xr:uid="{BFE36F83-B1F8-41DC-82AA-A60FB1325128}"/>
+    <hyperlink ref="F79" r:id="rId162" xr:uid="{8D87F79A-512C-45A9-946E-98F94A4AB605}"/>
+    <hyperlink ref="C80" r:id="rId163" tooltip="https://www.wetab.link" display="https://www.wetab.link/" xr:uid="{43CA01DC-364C-49EB-8907-E984AF33369C}"/>
+    <hyperlink ref="F80" r:id="rId164" xr:uid="{D9D0555E-C929-46AF-B18C-45E4429F7706}"/>
+    <hyperlink ref="C81" r:id="rId165" xr:uid="{35202DDC-3113-4095-B13D-937AE3F63188}"/>
+    <hyperlink ref="F81" r:id="rId166" xr:uid="{A3E6915A-939B-4865-9C2E-E7458967C310}"/>
+    <hyperlink ref="C82" r:id="rId167" xr:uid="{44E89D4F-0DBB-4FB5-B155-7FE8369456B2}"/>
+    <hyperlink ref="F82" r:id="rId168" xr:uid="{80F5A5DF-38F0-462A-8124-F0CEA42B2BB4}"/>
+    <hyperlink ref="C83" r:id="rId169" xr:uid="{D2C6B0C4-3139-42D4-BAAB-0009CF3349BC}"/>
+    <hyperlink ref="F83" r:id="rId170" xr:uid="{1E0F2CBB-1261-459E-8BAA-8C754AB5FC31}"/>
+    <hyperlink ref="C84" r:id="rId171" xr:uid="{41BF1A08-DC39-4841-8991-73E7BE752EA2}"/>
+    <hyperlink ref="F84" r:id="rId172" xr:uid="{CD8AC20F-D265-4BB5-B9D8-85F21E4479AC}"/>
+    <hyperlink ref="C85" r:id="rId173" xr:uid="{9AEB7134-4F37-47F8-BFF3-301847E0B91C}"/>
+    <hyperlink ref="F85" r:id="rId174" xr:uid="{9EB151F4-DAC4-4452-8D2A-CE2B8EA423DF}"/>
+    <hyperlink ref="C86" r:id="rId175" xr:uid="{5060A365-5230-403B-BE95-0F80DDE7AF02}"/>
+    <hyperlink ref="F86" r:id="rId176" xr:uid="{2411BE2B-69BA-41C7-8F35-012B65E8D847}"/>
+    <hyperlink ref="C87" r:id="rId177" xr:uid="{07D3CFA7-A4F3-4A2C-8463-A2593F6DC8F8}"/>
+    <hyperlink ref="F87" r:id="rId178" xr:uid="{7A8F749E-771F-4D22-9208-2A01352A1F26}"/>
+    <hyperlink ref="C88" r:id="rId179" xr:uid="{FD594D84-F500-4AA0-A69E-17C9257918CE}"/>
+    <hyperlink ref="F88" r:id="rId180" xr:uid="{D0A19E79-8AB6-46F7-8959-C407EF612D9B}"/>
+    <hyperlink ref="C89" r:id="rId181" xr:uid="{CAAFC5D7-F307-425B-88BF-90BEC6EA0266}"/>
+    <hyperlink ref="F89" r:id="rId182" xr:uid="{3237EC3E-7A82-4524-878E-B651F9B49001}"/>
+    <hyperlink ref="C90" r:id="rId183" xr:uid="{C20B41C0-2C5E-4E2E-9770-FE587EB98D34}"/>
+    <hyperlink ref="F90" r:id="rId184" xr:uid="{DFB7102F-15A6-48FB-A4EA-A13AF3BF2D79}"/>
+    <hyperlink ref="C91" r:id="rId185" xr:uid="{DC8FAA1F-E3F9-4089-98F8-15BE258E3037}"/>
+    <hyperlink ref="F91" r:id="rId186" xr:uid="{D4D6B693-748A-40ED-BD0D-D3D431BA26DA}"/>
+    <hyperlink ref="C92" r:id="rId187" xr:uid="{CA52B1E2-6F04-4C8A-A464-B0C454D81FA7}"/>
+    <hyperlink ref="F92" r:id="rId188" xr:uid="{29932A56-6A04-4DC6-98F8-CF9F94BA7C9A}"/>
+    <hyperlink ref="C93" r:id="rId189" xr:uid="{AB4C56C1-42C2-4B18-99C7-734ADBD0106D}"/>
+    <hyperlink ref="F93" r:id="rId190" xr:uid="{3CC7A3E4-430C-4A32-B756-AE8596673780}"/>
+    <hyperlink ref="C94" r:id="rId191" display="https://www.ruanyifeng.com/blog/" xr:uid="{3309F92F-64D9-4210-A75B-8F8DA6CE40E8}"/>
+    <hyperlink ref="F94" r:id="rId192" xr:uid="{D9D85C83-37F4-49E8-A7D7-43EF2C188A49}"/>
+    <hyperlink ref="C95" r:id="rId193" display="https://toolight.zhubai.love/" xr:uid="{2A3CD216-8731-4847-8655-D0CE0766BF1E}"/>
+    <hyperlink ref="F95" r:id="rId194" xr:uid="{B299DB2F-A3BD-4765-B286-D564FF418720}"/>
+    <hyperlink ref="C96" r:id="rId195" xr:uid="{260DD552-2B9A-44AA-8722-0A51D1A353C5}"/>
+    <hyperlink ref="F96" r:id="rId196" xr:uid="{B4B8C629-786E-42EF-A0F5-8E8F9A476604}"/>
+    <hyperlink ref="C97" r:id="rId197" display="https://hao.logosc.cn/" xr:uid="{210565BC-F651-4D14-9236-3B9D96498CDD}"/>
+    <hyperlink ref="F97" r:id="rId198" xr:uid="{02A993D4-85F3-4D29-9EA4-A8BBB6575212}"/>
+    <hyperlink ref="C98" r:id="rId199" display="https://www.xinquji.com/" xr:uid="{525884DF-3AE9-4035-9926-79269CCC8B0C}"/>
+    <hyperlink ref="F98" r:id="rId200" xr:uid="{B31C80D8-302F-4A1F-907E-B02CD79001E9}"/>
+    <hyperlink ref="C99" r:id="rId201" xr:uid="{A4A5F16A-ABA3-473C-BDF9-B095911AEDC7}"/>
+    <hyperlink ref="F99" r:id="rId202" xr:uid="{0F20ADCB-CE96-4686-B676-7448DFDE05F6}"/>
+    <hyperlink ref="C100" r:id="rId203" xr:uid="{56F68A04-DF4C-4C5B-BD36-A7312EE2B347}"/>
+    <hyperlink ref="F100" r:id="rId204" xr:uid="{E3ADA3D9-490E-415B-A463-6E29C4151FE5}"/>
+    <hyperlink ref="C101" r:id="rId205" xr:uid="{C1989EAF-C167-411F-A585-8DCD5C6D2D2E}"/>
+    <hyperlink ref="F101" r:id="rId206" xr:uid="{80E2C54A-2620-484C-9679-53B1322D2ACB}"/>
+    <hyperlink ref="C102" r:id="rId207" display="https://halo.run/" xr:uid="{F19AC6A3-A1B1-4816-B776-686DD2CB180B}"/>
+    <hyperlink ref="F102" r:id="rId208" xr:uid="{2A27B2F6-BAC3-4936-BE21-47B2DA17F264}"/>
+    <hyperlink ref="C103" r:id="rId209" display="https://cn.wordpress.org/" xr:uid="{E9B97FCA-088A-40AF-8047-6CE84EAA2D2E}"/>
+    <hyperlink ref="F103" r:id="rId210" tooltip="https://s.w.org/favicon.ico?2" xr:uid="{C0FEF794-F90B-4221-9A81-C211642620E6}"/>
+    <hyperlink ref="C104" r:id="rId211" display="https://1panel.cn/" xr:uid="{CAA7A461-7F5D-44F8-B5F3-EA4FC4DD9A2D}"/>
+    <hyperlink ref="F104" r:id="rId212" xr:uid="{556847AE-2EB6-40A9-87A9-552DE1AEE941}"/>
+    <hyperlink ref="C105" r:id="rId213" xr:uid="{28B76494-3A80-45EB-B83A-96D7D6424F1D}"/>
+    <hyperlink ref="F105" r:id="rId214" xr:uid="{2BBFA5F3-D284-4DEF-BE99-0FE1B8ADBB50}"/>
+    <hyperlink ref="C106" r:id="rId215" xr:uid="{A9B98FA2-6E2F-4631-9CED-B47E1F0BEA33}"/>
+    <hyperlink ref="F106" r:id="rId216" xr:uid="{47EFC0B8-1C43-4674-A8F7-B944DFDA013E}"/>
+    <hyperlink ref="C107" r:id="rId217" xr:uid="{7B69E429-FCAC-4C9D-953F-541BEA96709D}"/>
+    <hyperlink ref="F107" r:id="rId218" xr:uid="{53052492-471B-4ED9-AA45-82D306D7F8A1}"/>
+    <hyperlink ref="C108" r:id="rId219" xr:uid="{E5319CC7-4AB4-4DC5-A955-DED956746E73}"/>
+    <hyperlink ref="F108" r:id="rId220" xr:uid="{075E3B19-D004-43ED-93C7-9F0A2B9C87A4}"/>
+    <hyperlink ref="C109" r:id="rId221" xr:uid="{533B4A52-55A9-415C-AED3-11DFBC3016B9}"/>
+    <hyperlink ref="F109" r:id="rId222" xr:uid="{ABE7F4E8-43DE-43A4-993A-7D6CDD9FD7A5}"/>
+    <hyperlink ref="C110" r:id="rId223" xr:uid="{CA677F2A-1604-4A82-878C-30432DE5A888}"/>
+    <hyperlink ref="F110" r:id="rId224" xr:uid="{4B5A7B4E-917B-4373-9AEA-204118748577}"/>
+    <hyperlink ref="C111" r:id="rId225" xr:uid="{C233E780-0AE3-4CCB-903E-AEBDC2FB544B}"/>
+    <hyperlink ref="F111" r:id="rId226" xr:uid="{57D934CC-7DC3-4908-9D71-A7F3E8488E75}"/>
+    <hyperlink ref="C112" r:id="rId227" xr:uid="{1D14A19E-8CF3-4D1C-8CA3-5127A21F6946}"/>
+    <hyperlink ref="C113" r:id="rId228" xr:uid="{91AE04BE-7513-4895-9CBF-AF12C6964B47}"/>
+    <hyperlink ref="F113" r:id="rId229" xr:uid="{0604556C-0F95-4A99-9441-3C0B47D688EE}"/>
+    <hyperlink ref="C114" r:id="rId230" display="https://www.superbed.cn/" xr:uid="{BDD861A8-813D-4CA8-A906-0CC94FDD2D6C}"/>
+    <hyperlink ref="F114" r:id="rId231" xr:uid="{59D1C061-3414-4BC8-BFB3-4483224510B1}"/>
+    <hyperlink ref="C115" r:id="rId232" xr:uid="{56819C25-CE75-4E43-A556-5855C36675F3}"/>
+    <hyperlink ref="F115" r:id="rId233" xr:uid="{E34619FC-78A6-42AD-9DAD-D91F8F79AD30}"/>
+    <hyperlink ref="C116" r:id="rId234" xr:uid="{1C6A928B-7446-4E25-AE42-69AEBED9E5DD}"/>
+    <hyperlink ref="F116" r:id="rId235" xr:uid="{327F9516-94D8-4519-B984-B700670B628A}"/>
+    <hyperlink ref="C117" r:id="rId236" xr:uid="{070E6410-4AFE-463D-88BB-268516C1CF4F}"/>
+    <hyperlink ref="F117" r:id="rId237" xr:uid="{AF52B67F-57FD-49FC-A7C0-86A401DD6288}"/>
+    <hyperlink ref="C118" r:id="rId238" xr:uid="{6C4124BE-14B7-4C99-B956-1656C1AF063D}"/>
+    <hyperlink ref="F118" r:id="rId239" tooltip="https://www.locimg.com/favicon.ico" xr:uid="{B8E60987-6094-4756-B3EB-A63F4EBA5083}"/>
+    <hyperlink ref="C119" r:id="rId240" xr:uid="{EA0FD1B1-5EB7-4FE8-90B5-0060BEF4AC42}"/>
+    <hyperlink ref="F119" r:id="rId241" xr:uid="{1031CB99-E490-4BF3-ADAC-3ABFBE11EAC1}"/>
+    <hyperlink ref="C120" r:id="rId242" xr:uid="{085AB879-CEA9-419A-9948-7D8573BABF23}"/>
+    <hyperlink ref="F120" r:id="rId243" xr:uid="{7C1F06D3-D972-4828-BF1D-BA97DCDCCDCD}"/>
+    <hyperlink ref="C121" r:id="rId244" xr:uid="{B7162BB1-22A6-44F1-93D1-AF13D404639A}"/>
+    <hyperlink ref="F121" r:id="rId245" xr:uid="{A58E4B3E-2E7B-41DA-BD8C-20CB04EC7732}"/>
+    <hyperlink ref="C122" r:id="rId246" xr:uid="{35FD0EB5-EFB0-4BF2-A48A-DA2ACE3E16EE}"/>
+    <hyperlink ref="F122" r:id="rId247" xr:uid="{1FA32EF7-8A4D-4B71-9CE1-1F8EA9F10FEB}"/>
+    <hyperlink ref="C123" r:id="rId248" xr:uid="{E6ADEB76-DAB5-41DD-BA45-31FB947A73C2}"/>
+    <hyperlink ref="F123" r:id="rId249" xr:uid="{3E66BFD8-4199-43B2-A765-A2B8A08E9D24}"/>
+    <hyperlink ref="C124" r:id="rId250" xr:uid="{27E5438E-A4ED-4AF3-A41F-AA5FEFD740C2}"/>
+    <hyperlink ref="F124" r:id="rId251" xr:uid="{578BCEAE-628B-4176-90C8-760AF4F7E896}"/>
+    <hyperlink ref="C125" r:id="rId252" tooltip="https://hellogithub.com/" xr:uid="{BC96384C-E062-4745-8B46-FF143301D031}"/>
+    <hyperlink ref="F125" r:id="rId253" xr:uid="{9DA0427D-AA50-440A-A09D-1B8E10D2488B}"/>
+    <hyperlink ref="H125" r:id="rId254" xr:uid="{69286C64-7239-4ED8-A0D1-1F91E7327959}"/>
+    <hyperlink ref="C126" r:id="rId255" xr:uid="{937CC7D0-FC97-4987-A3AC-D8C837CA2099}"/>
+    <hyperlink ref="F126" r:id="rId256" xr:uid="{742D9217-AF8A-4825-8F7B-F52126F5AD2A}"/>
+    <hyperlink ref="H126" r:id="rId257" xr:uid="{33731297-EFD3-4970-AE88-5C15263253C6}"/>
+    <hyperlink ref="C127" r:id="rId258" xr:uid="{45A7DE6D-E908-4ABA-B782-F8C57830369F}"/>
+    <hyperlink ref="F127" r:id="rId259" xr:uid="{F144B3A3-2C1B-4937-B090-E21ED2432575}"/>
+    <hyperlink ref="C128" r:id="rId260" xr:uid="{E7F0E8DB-006D-4E1C-A80E-455BEBB59579}"/>
+    <hyperlink ref="F128" r:id="rId261" xr:uid="{5918D08E-DA2B-4737-BB06-5B3DFBC3FE95}"/>
+    <hyperlink ref="C129" r:id="rId262" display="https://stackedit.cn/app" xr:uid="{7E08128F-00FF-4D33-B582-A8DD345343FC}"/>
+    <hyperlink ref="F129" r:id="rId263" xr:uid="{A39EDD5E-B6CF-4A77-A88D-A27F2742979D}"/>
+    <hyperlink ref="C130" r:id="rId264" xr:uid="{7A856D99-ACD0-47CF-8226-1F01A99745BA}"/>
+    <hyperlink ref="F130" r:id="rId265" xr:uid="{6D475F18-BB52-4E72-B2BA-7BC2F573FFF6}"/>
+    <hyperlink ref="C131" r:id="rId266" xr:uid="{CAC12F90-1597-49C2-9B7D-DC1F7D167E46}"/>
+    <hyperlink ref="F131" r:id="rId267" tooltip="https://editor.mdnice.com/favicon.svg" xr:uid="{62709D09-2083-407D-9B13-E26CAD1C1D7A}"/>
+    <hyperlink ref="C132" r:id="rId268" xr:uid="{9965ADCD-3FDE-425F-B4E6-DDBBDA8E373C}"/>
+    <hyperlink ref="F132" r:id="rId269" xr:uid="{B82F7D95-B74B-4F5D-AC09-F450FF14F33C}"/>
+    <hyperlink ref="C133" r:id="rId270" xr:uid="{800AE388-9BBB-461F-9AF3-AAD9571A1600}"/>
+    <hyperlink ref="F133" r:id="rId271" xr:uid="{D0F595AE-1BE4-4DB7-A864-FD2A43C37CA3}"/>
+    <hyperlink ref="C134" r:id="rId272" display="https://ttsmaker.cn/" xr:uid="{20722E72-821B-4BF9-B0A7-129A09F78AC2}"/>
+    <hyperlink ref="F134" r:id="rId273" xr:uid="{A93A735E-F0EF-4972-A82E-A3EDB9B5A3EB}"/>
+    <hyperlink ref="C135" r:id="rId274" display="https://qrbtf.com/" xr:uid="{D5D3B812-F606-4D3C-A5FF-09C280BEC943}"/>
+    <hyperlink ref="F135" r:id="rId275" xr:uid="{A1B0F630-BFAC-4DBA-A2E2-81DEE03DE163}"/>
+    <hyperlink ref="C136" r:id="rId276" xr:uid="{C185546C-30B1-4A6D-ACED-F242CD89983F}"/>
+    <hyperlink ref="F136" r:id="rId277" xr:uid="{1C097F23-2D36-4BD9-ACC6-9B53B014D827}"/>
+    <hyperlink ref="C137" r:id="rId278" display="https://www.weiciyun.com/" xr:uid="{85FAAE80-402F-4BF9-8344-D8D614F7A82E}"/>
+    <hyperlink ref="F137" r:id="rId279" xr:uid="{EF6AE2A5-24FF-4081-A94D-B99A7D2160DB}"/>
+    <hyperlink ref="C138" r:id="rId280" display="https://vscode.dev/" xr:uid="{20B8DFB5-1DF1-4EFC-AFEA-E23A9A3F673F}"/>
+    <hyperlink ref="F138" r:id="rId281" xr:uid="{586584C3-E887-4853-B3C0-917E8F40ED36}"/>
+    <hyperlink ref="C139" r:id="rId282" xr:uid="{90DB6B76-F513-493D-9D0C-19520108E08E}"/>
+    <hyperlink ref="F139" r:id="rId283" xr:uid="{3D66D8B0-E5BD-45E6-9D43-B786673FA320}"/>
+    <hyperlink ref="C140" r:id="rId284" xr:uid="{4294C163-F662-48F6-A17E-36DC1B82CCF7}"/>
+    <hyperlink ref="F140" r:id="rId285" xr:uid="{5C7D2B03-214C-43E6-A4DF-56DA73F42306}"/>
+    <hyperlink ref="C141" r:id="rId286" xr:uid="{D73F13DA-0C22-4EE8-9CC8-AE506EB839E2}"/>
+    <hyperlink ref="F141" r:id="rId287" xr:uid="{84A36DBB-8351-469E-85C7-B37FEFFA3D7C}"/>
+    <hyperlink ref="C142" r:id="rId288" xr:uid="{C79C7F77-4BD5-4A29-B347-D9D16103488F}"/>
+    <hyperlink ref="F142" r:id="rId289" xr:uid="{9ED7A141-6C7F-4DB3-95B0-6B3710162317}"/>
+    <hyperlink ref="C143" r:id="rId290" xr:uid="{F627D217-15B3-4111-87C3-0FB4D237FFB0}"/>
+    <hyperlink ref="C144" r:id="rId291" xr:uid="{6A5F2B5B-BA29-461D-B1D8-71D28CDF83DC}"/>
+    <hyperlink ref="C145" r:id="rId292" xr:uid="{3DBB12C0-46E5-49DB-A573-C55F2A3F613C}"/>
+    <hyperlink ref="F145" r:id="rId293" xr:uid="{0EB3D014-22F1-4AB9-90A4-BCC6ACB79616}"/>
+    <hyperlink ref="C146" r:id="rId294" xr:uid="{69E7A8DA-0350-4164-9B71-8A758B07850F}"/>
+    <hyperlink ref="F146" r:id="rId295" tooltip="https://markdown.com.cn/editor/favicon.svg" xr:uid="{65A4BD06-8092-41B1-8F72-8D8CB9402108}"/>
+    <hyperlink ref="C147" r:id="rId296" xr:uid="{05F08ED4-6BDD-4C03-8238-F5B8A0C8215C}"/>
+    <hyperlink ref="F147" r:id="rId297" xr:uid="{52EC9904-E41A-4620-A1F9-121FF54B5228}"/>
+    <hyperlink ref="C148" r:id="rId298" xr:uid="{6A893998-CFE2-465C-8A93-BB9C83211F2C}"/>
+    <hyperlink ref="F148" r:id="rId299" xr:uid="{26177CC9-F668-453F-9242-8649DBC33CC4}"/>
+    <hyperlink ref="C149" r:id="rId300" xr:uid="{F075C8E7-ADDB-45CA-A90D-22C64A1CC082}"/>
+    <hyperlink ref="F149" r:id="rId301" xr:uid="{0E67A482-64AC-4F5E-A545-4E6ADEF69D37}"/>
+    <hyperlink ref="C150" r:id="rId302" xr:uid="{728277F7-EF7D-4CF5-BEDC-1E01D2C7E4AD}"/>
+    <hyperlink ref="F150" r:id="rId303" xr:uid="{FD169A84-0E3B-4423-8849-4633F7A50A1C}"/>
+    <hyperlink ref="C151" r:id="rId304" xr:uid="{63D51CC9-FCA6-4BDF-80FD-D76424957066}"/>
+    <hyperlink ref="F151" r:id="rId305" xr:uid="{B029601B-C608-432B-8C2C-B89C0855ABE6}"/>
+    <hyperlink ref="C152" r:id="rId306" xr:uid="{9060382E-947A-41A8-9CE6-EE8239B1286F}"/>
+    <hyperlink ref="F152" r:id="rId307" xr:uid="{E6C36717-3684-4D93-994A-BB2D4A1E3ACB}"/>
+    <hyperlink ref="C153" r:id="rId308" xr:uid="{6ED4FF97-CF40-4673-8B2C-814BF6FE4274}"/>
+    <hyperlink ref="F153" r:id="rId309" xr:uid="{30C9F07F-5302-4204-B679-DEFF813C9463}"/>
+    <hyperlink ref="C154" r:id="rId310" xr:uid="{1953AC12-7A1A-41D8-96A1-0B0F94D3531B}"/>
+    <hyperlink ref="F154" r:id="rId311" xr:uid="{84367CA0-E0CB-425E-AC02-115C6668E51D}"/>
+    <hyperlink ref="C155" r:id="rId312" xr:uid="{D34304DA-2A6D-474A-983B-861D2FA59195}"/>
+    <hyperlink ref="F155" r:id="rId313" xr:uid="{5E7BB4E7-003B-4453-80EC-F0FB6EDBE111}"/>
+    <hyperlink ref="C156" r:id="rId314" xr:uid="{002A8106-5153-4099-8C1E-52FBCA81A1BF}"/>
+    <hyperlink ref="F156" r:id="rId315" xr:uid="{DD3FFAEB-460B-447D-B08E-CABCE47DF144}"/>
+    <hyperlink ref="C157" r:id="rId316" xr:uid="{AFFD35D0-6729-4E7E-AEAD-764D269AC2B4}"/>
+    <hyperlink ref="F157" r:id="rId317" xr:uid="{A5788E5C-3861-42D9-A201-2B285E3CF0D9}"/>
+    <hyperlink ref="C158" r:id="rId318" xr:uid="{A536AB24-0D60-4BC1-9691-0A164A8596B5}"/>
+    <hyperlink ref="F158" r:id="rId319" xr:uid="{F6428274-9F21-4553-9D8D-01CBE301AC3E}"/>
+    <hyperlink ref="C159" r:id="rId320" xr:uid="{AC89DBCA-2F77-45CC-A566-661E1D0FB5E5}"/>
+    <hyperlink ref="F159" r:id="rId321" xr:uid="{7F3E7A8E-F6C2-4A52-A30B-1E3507A2053A}"/>
+    <hyperlink ref="C160" r:id="rId322" location="/" display="https://pearmini.github.io/colorfu/ - /" xr:uid="{DEDEB862-350B-45D0-B4AE-5E3377C84410}"/>
+    <hyperlink ref="F160" r:id="rId323" xr:uid="{B02FA23D-1C7F-4702-B22F-DD23AE84CB8A}"/>
+    <hyperlink ref="C161" r:id="rId324" xr:uid="{D282B0F6-D779-40CD-B20D-162EE895C7B6}"/>
+    <hyperlink ref="F161" r:id="rId325" xr:uid="{55E26539-6DDC-4A8A-B877-FB4376050045}"/>
+    <hyperlink ref="C162" r:id="rId326" xr:uid="{C975A716-94CD-47EE-985B-81101855B983}"/>
+    <hyperlink ref="F162" r:id="rId327" xr:uid="{DC98B96F-F594-4AAD-8F7F-8A8415F5D85B}"/>
+    <hyperlink ref="C163" r:id="rId328" xr:uid="{EA357549-AAA8-4D81-84E8-8E409EBB62C2}"/>
+    <hyperlink ref="F163" r:id="rId329" xr:uid="{C1CA5F20-2D05-49B7-8110-C1A0C66A53A3}"/>
+    <hyperlink ref="C164" r:id="rId330" xr:uid="{E6DC77B7-B051-473A-8E7E-4FA3D6E3D85C}"/>
+    <hyperlink ref="F164" r:id="rId331" xr:uid="{064B4F96-BD54-41E5-A66E-83514CAA9E98}"/>
+    <hyperlink ref="C165" r:id="rId332" xr:uid="{7882AAF1-8D91-41B7-B809-CF1E726A1B97}"/>
+    <hyperlink ref="C166" r:id="rId333" xr:uid="{7F2F62A1-43B9-4CF6-9E72-23AF2347229C}"/>
+    <hyperlink ref="F166" r:id="rId334" xr:uid="{F6E97487-05FF-41D0-B081-77529BA86AAA}"/>
+    <hyperlink ref="C167" r:id="rId335" xr:uid="{195D5717-5074-4832-A71A-E0ED506E1331}"/>
+    <hyperlink ref="F167" r:id="rId336" xr:uid="{EBA41134-22A0-418B-B1A5-70B98615C668}"/>
+    <hyperlink ref="C168" r:id="rId337" tooltip="https://ezpic.fun/zh" xr:uid="{2F411751-A327-46D7-84CC-DBABB3921E78}"/>
+    <hyperlink ref="F168" r:id="rId338" tooltip="https://ezpic.fun/favicon-48.png" xr:uid="{F999AE13-149F-4533-8D9D-5BDC61B745A1}"/>
+    <hyperlink ref="C169" r:id="rId339" xr:uid="{8285DE4A-2913-4C93-BDA0-B2FD9547FC60}"/>
+    <hyperlink ref="F169" r:id="rId340" xr:uid="{272FB0CD-8D0E-499D-9F27-DB700FC4C40A}"/>
+    <hyperlink ref="C170" r:id="rId341" xr:uid="{C3D6ACC5-7BC1-4FAE-BED2-5940F85DDA7F}"/>
+    <hyperlink ref="F170" r:id="rId342" xr:uid="{493E01D5-1912-4BFF-8DCA-B4628726C107}"/>
+    <hyperlink ref="C171" r:id="rId343" xr:uid="{BE633CDD-E1D8-41A7-87FC-7126E70CFEE6}"/>
+    <hyperlink ref="F171" r:id="rId344" xr:uid="{F98274F0-F9B9-40D2-9466-EAB7F5EDBF20}"/>
+    <hyperlink ref="C172" r:id="rId345" xr:uid="{E80D2A57-AAE8-4AB9-8050-B8047DED8AEC}"/>
+    <hyperlink ref="F172" r:id="rId346" xr:uid="{974D026A-259F-4166-AAF3-AD0E78812A0F}"/>
+    <hyperlink ref="C173" r:id="rId347" xr:uid="{68203AC7-170D-457A-ACFE-6DE432E09DFF}"/>
+    <hyperlink ref="F173" r:id="rId348" xr:uid="{BB7CCAA0-4DFE-429B-89ED-B1BAB77AF35B}"/>
+    <hyperlink ref="C174" r:id="rId349" xr:uid="{F1680EF0-354B-4207-9765-2AF73326C09A}"/>
+    <hyperlink ref="F174" r:id="rId350" xr:uid="{4B01DDC6-F481-4F86-87A0-DB2AAE28FBDC}"/>
+    <hyperlink ref="C175" r:id="rId351" xr:uid="{2F751B4B-C5A8-4F7A-8768-B4B2C23270C3}"/>
+    <hyperlink ref="F175" r:id="rId352" xr:uid="{187C627D-C8D2-48C6-8A10-363F3F47ACA5}"/>
+    <hyperlink ref="C176" r:id="rId353" xr:uid="{B463C013-F33B-4140-AD19-E1C6363E1406}"/>
+    <hyperlink ref="F176" r:id="rId354" xr:uid="{3EDEF4F4-EE19-4CBB-B4B6-72954DBC4ACC}"/>
+    <hyperlink ref="C177" r:id="rId355" xr:uid="{66D02CF5-2168-4318-8DC2-680D71C94365}"/>
+    <hyperlink ref="F177" r:id="rId356" xr:uid="{D3B99091-7906-4554-96A4-4FDE9F5D797F}"/>
+    <hyperlink ref="C178" r:id="rId357" xr:uid="{6CB7EE5B-6DBF-4AAF-AFA6-928823507F30}"/>
+    <hyperlink ref="F178" r:id="rId358" xr:uid="{CB2ED943-798A-4CA2-A034-0AA53A83CADE}"/>
+    <hyperlink ref="C179" r:id="rId359" tooltip="https://www.ilovepdf.com/zh-cn" xr:uid="{C182F3AE-A318-40B2-BC09-19B16970742F}"/>
+    <hyperlink ref="F179" r:id="rId360" xr:uid="{6F176095-6E3E-4442-8BF0-C5B8A03450A6}"/>
+    <hyperlink ref="C180" r:id="rId361" xr:uid="{D151E66F-3EA7-489B-8182-61F2D10CC74D}"/>
+    <hyperlink ref="F180" r:id="rId362" xr:uid="{674A1507-6591-44C9-BCC1-BAB246E6D9E9}"/>
+    <hyperlink ref="C181" r:id="rId363" xr:uid="{261154F4-A1EE-4A17-A3D8-0625B5C77D25}"/>
+    <hyperlink ref="F181" r:id="rId364" xr:uid="{AE74C883-0526-43DA-A2D7-51D8CD39080E}"/>
+    <hyperlink ref="C182" r:id="rId365" xr:uid="{44D9573A-ED15-4B3A-8674-E8FA19A4620F}"/>
+    <hyperlink ref="F182" r:id="rId366" xr:uid="{175FC680-B6C7-4B57-880E-EFF3141A4557}"/>
+    <hyperlink ref="C183" r:id="rId367" xr:uid="{5C598019-E1AA-45C2-A536-7B345FD341D0}"/>
+    <hyperlink ref="C184" r:id="rId368" xr:uid="{8FDFA913-C500-4337-A178-EEE0A6A88C43}"/>
+    <hyperlink ref="F184" r:id="rId369" xr:uid="{75019F2A-A280-4BF2-BB25-4584172D5CAB}"/>
+    <hyperlink ref="H184" r:id="rId370" xr:uid="{6D372031-3EBD-4DAB-8752-94872F16241C}"/>
+    <hyperlink ref="C185" r:id="rId371" display="https://磁力狗.xyz/" xr:uid="{7268166E-58A8-4B55-A10E-C90C17452D2E}"/>
+    <hyperlink ref="F185" r:id="rId372" xr:uid="{85EDD779-E180-4910-82B8-61F944D70AEC}"/>
+    <hyperlink ref="C186" r:id="rId373" tooltip="https://xn--yets15cv4k.com/" xr:uid="{77B53CBF-4F18-4042-8DDD-894A4A582864}"/>
+    <hyperlink ref="H186" r:id="rId374" display="https://小花猫.com/" xr:uid="{24BA16AA-6217-4569-B1BB-2E29CA666A35}"/>
+    <hyperlink ref="C187" r:id="rId375" xr:uid="{871EE252-497D-40A7-9AE0-7785D30E5CDA}"/>
+    <hyperlink ref="F187" r:id="rId376" xr:uid="{124BE5B0-D121-4318-B3F5-7726D73A8B97}"/>
+    <hyperlink ref="C188" r:id="rId377" xr:uid="{7A75F52E-3418-43DF-8195-17FB7BA917EA}"/>
+    <hyperlink ref="F188" r:id="rId378" xr:uid="{660E7999-22AA-4F86-B571-48E4026C9FA0}"/>
+    <hyperlink ref="C189" r:id="rId379" xr:uid="{F0EF40F1-65C3-4CB4-B98F-2C8E26D2DDAD}"/>
+    <hyperlink ref="F189" r:id="rId380" xr:uid="{DC139D50-A241-4B43-A06A-C8C6B19D2FC2}"/>
+    <hyperlink ref="C190" r:id="rId381" xr:uid="{0A7360D9-A96E-4616-9838-4297CE2400EA}"/>
+    <hyperlink ref="F190" r:id="rId382" xr:uid="{783AD5D2-7111-4888-B664-64AF4031BA3A}"/>
+    <hyperlink ref="H190" r:id="rId383" xr:uid="{470A650F-9EC9-459A-AACF-C9A1EDE1F543}"/>
+    <hyperlink ref="C191" r:id="rId384" xr:uid="{245A9C98-6AF2-40CA-AB62-2431777F0D3A}"/>
+    <hyperlink ref="F191" r:id="rId385" xr:uid="{4DE708D4-BB26-415D-8EEE-5391FF3990DD}"/>
+    <hyperlink ref="H191" r:id="rId386" xr:uid="{8F63F421-5FD5-4233-9952-B87128943294}"/>
+    <hyperlink ref="C192" r:id="rId387" xr:uid="{46874604-A39B-4A2A-856A-E9FFCB93EF15}"/>
+    <hyperlink ref="F192" r:id="rId388" xr:uid="{34DCBBD2-93EC-4AC1-BAE4-CF8D7A6DF68D}"/>
+    <hyperlink ref="C193" r:id="rId389" xr:uid="{82952561-5B3C-48F1-82A4-F8F21F72CB98}"/>
+    <hyperlink ref="F193" r:id="rId390" tooltip="https://docs.gtimg.com/docs-design-resources/history/png@2x/brand_logo@2x-fcdb753a44.png" xr:uid="{8E91A97E-A117-4005-8F2D-2ECE667065E4}"/>
+    <hyperlink ref="C194" r:id="rId391" xr:uid="{683D423D-73F7-45A5-B692-700DB0915F14}"/>
+    <hyperlink ref="G194" r:id="rId392" xr:uid="{DF556512-4FD9-40B5-8293-61C13B68D0A8}"/>
+    <hyperlink ref="C195" r:id="rId393" xr:uid="{372239D7-0684-4494-9D0E-E1E95A08AB61}"/>
+    <hyperlink ref="F195" r:id="rId394" xr:uid="{09989927-5CC0-4646-9E66-F4F42C9AB059}"/>
+    <hyperlink ref="C196" r:id="rId395" xr:uid="{556492E2-E11F-465E-92D9-5088AA37167B}"/>
+    <hyperlink ref="C197" r:id="rId396" xr:uid="{8AFF285D-92D0-4EB4-9985-171643B22E5A}"/>
+    <hyperlink ref="F197" r:id="rId397" xr:uid="{DC77EB7A-02D8-4E04-B98F-19767C7620E5}"/>
+    <hyperlink ref="C198" r:id="rId398" xr:uid="{5F3C9101-875E-463C-9E61-AD5251845106}"/>
+    <hyperlink ref="C199" r:id="rId399" tooltip="https://webgames.fun/zh/" xr:uid="{E3CB1A6A-DDF0-4824-BB42-F322E0F91E91}"/>
+    <hyperlink ref="F199" r:id="rId400" xr:uid="{AAAB02A5-BD37-49F0-AFBF-AD67D9EE7CBE}"/>
+    <hyperlink ref="C200" r:id="rId401" xr:uid="{78AA67D6-536C-4033-B78D-BD31ED0648B9}"/>
+    <hyperlink ref="F200" r:id="rId402" xr:uid="{A67A5BBF-B1A3-4E5E-876B-6ECFE7CABF75}"/>
+    <hyperlink ref="C201" r:id="rId403" display="https://adzhp.cn/" xr:uid="{5D72405B-11D0-416B-B673-434B906F2CF6}"/>
+    <hyperlink ref="C202" r:id="rId404" tooltip="https://fuliba123.net/#" display="https://fuliba123.net/" xr:uid="{5CE5053C-ABA1-423F-804D-D0A8530C78F1}"/>
+    <hyperlink ref="F202" r:id="rId405" xr:uid="{D77FB8D6-17A4-4775-AEF2-72989E8327CF}"/>
+    <hyperlink ref="C203" r:id="rId406" display="https://www.zkdh.net/" xr:uid="{6109CFD8-2CCB-446B-8AB3-868B54A2CCFD}"/>
+    <hyperlink ref="F203" r:id="rId407" xr:uid="{D9990BC1-0ABB-40FC-B6ED-BF33CA8E3F75}"/>
+    <hyperlink ref="C204" r:id="rId408" xr:uid="{D224C345-0F45-4107-91BE-E6B067E09EEC}"/>
+    <hyperlink ref="C205" r:id="rId409" display="https://shadiao.pro/" xr:uid="{8D0FCBD4-7550-433A-937C-BDB8453C184A}"/>
+    <hyperlink ref="F205" r:id="rId410" xr:uid="{1E4CAC12-CC34-4C91-B076-1AD949302A9B}"/>
+    <hyperlink ref="C206" r:id="rId411" display="https://nav.iowen.cn/" xr:uid="{E44D6923-CB3D-493A-8810-17F01F3217F5}"/>
+    <hyperlink ref="F206" r:id="rId412" xr:uid="{178C9238-F5FE-4E0F-9D7A-5D2910F657B6}"/>
+    <hyperlink ref="C207" r:id="rId413" display="https://www.8kmm.com/" xr:uid="{40BDFDBD-2083-41EC-BE7D-51427694541E}"/>
+    <hyperlink ref="F207" r:id="rId414" xr:uid="{3C3A096E-A37B-4A48-8109-9F2220AE1FE0}"/>
+    <hyperlink ref="C208" r:id="rId415" display="https://www.996dh.cn/" xr:uid="{E1694ECB-373A-42BE-93BD-F7231F5C10DF}"/>
+    <hyperlink ref="F208" r:id="rId416" xr:uid="{5C269939-962B-42A7-8770-1C92AF7129AC}"/>
+    <hyperlink ref="C209" r:id="rId417" display="https://www.tboxn.com/" xr:uid="{26FAF1FA-46E2-4EA7-BD75-76F4B866D914}"/>
+    <hyperlink ref="F209" r:id="rId418" xr:uid="{77921EAE-E73D-4F01-9794-84EC2F5DC067}"/>
+    <hyperlink ref="C210" r:id="rId419" xr:uid="{AE4ACE93-7296-463E-B4A6-4D124F79086F}"/>
+    <hyperlink ref="F210" r:id="rId420" xr:uid="{A8842E91-FCDE-4938-9D23-43EF9098EB31}"/>
+    <hyperlink ref="C211" r:id="rId421" display="https://hellowindows.cn/" xr:uid="{4D53F717-1594-4557-A173-EA6148361D13}"/>
+    <hyperlink ref="F211" r:id="rId422" xr:uid="{FD6043D6-EE1A-4D2C-9A26-F4433092248C}"/>
+    <hyperlink ref="C212" r:id="rId423" xr:uid="{C158781A-8310-4E42-BF7D-DD2335875002}"/>
+    <hyperlink ref="F212" r:id="rId424" xr:uid="{707DD529-7172-4332-B612-318D60AFA09D}"/>
+    <hyperlink ref="C213" r:id="rId425" xr:uid="{290F6024-25D2-4B45-8D80-EFF2E2A43DEE}"/>
+    <hyperlink ref="C214" r:id="rId426" xr:uid="{B40D7187-6E0E-4EEA-8897-50E240664E55}"/>
+    <hyperlink ref="F214" r:id="rId427" xr:uid="{65966436-F78F-4D90-A159-0DEB2575838B}"/>
+    <hyperlink ref="C215" r:id="rId428" xr:uid="{CC6370B8-08B0-4B4C-8963-F41C8B4B012A}"/>
+    <hyperlink ref="F215" r:id="rId429" xr:uid="{2A2E15A6-90B9-4CD5-B8D4-90930C336D4B}"/>
+    <hyperlink ref="C216" r:id="rId430" xr:uid="{CDE62715-0CFD-4EDA-897B-B438B0912850}"/>
+    <hyperlink ref="F216" r:id="rId431" xr:uid="{D6D282E5-71DA-42E7-9A00-01758089B664}"/>
+    <hyperlink ref="C217" r:id="rId432" xr:uid="{B97D62AA-0E8B-43C3-88D9-5701A96840CE}"/>
+    <hyperlink ref="F217" r:id="rId433" xr:uid="{F6EEC91C-E321-4C43-B5CB-561F8DA705F7}"/>
+    <hyperlink ref="C218" r:id="rId434" xr:uid="{C85BB07F-ABC8-415B-83BD-7617D350657A}"/>
+    <hyperlink ref="F218" r:id="rId435" xr:uid="{F488FD64-A618-4B95-A32E-5CFBD59BC148}"/>
+    <hyperlink ref="C219" r:id="rId436" xr:uid="{F0C496D1-E262-428A-859F-BC299533F37D}"/>
+    <hyperlink ref="F219" r:id="rId437" xr:uid="{04E94183-DF96-4069-B94F-95F3EE0D8AA2}"/>
+    <hyperlink ref="C220" r:id="rId438" xr:uid="{2BF972BF-720F-481D-BF9B-299FF4E37B15}"/>
+    <hyperlink ref="F220" r:id="rId439" xr:uid="{487F5959-7077-469F-956E-14F75C67C7B9}"/>
+    <hyperlink ref="C221" r:id="rId440" xr:uid="{84E1D5C3-87E1-475D-AFEE-5F836DCD32B2}"/>
+    <hyperlink ref="F221" r:id="rId441" xr:uid="{10100A16-EA60-4929-836B-6EDB98B9CBC9}"/>
+    <hyperlink ref="C222" r:id="rId442" xr:uid="{B62B9BA8-3B8C-4599-A927-0EB42EC17549}"/>
+    <hyperlink ref="F222" r:id="rId443" xr:uid="{92BCA089-8CAE-4D1E-B87D-FEBA230E860A}"/>
+    <hyperlink ref="C223" r:id="rId444" xr:uid="{5F8D8B57-81BE-417D-86E2-EB8F140CC97F}"/>
+    <hyperlink ref="C224" r:id="rId445" xr:uid="{345F1F91-3282-4B32-837D-F151B0D08386}"/>
+    <hyperlink ref="F224" r:id="rId446" xr:uid="{A565F264-427F-4475-9250-9A87289D7A69}"/>
+    <hyperlink ref="C225" r:id="rId447" xr:uid="{31850234-097E-45FE-B36B-8AE972088C47}"/>
+    <hyperlink ref="F225" r:id="rId448" xr:uid="{5D17F1CF-7C4B-4112-B6FB-A14C8777BED2}"/>
+    <hyperlink ref="C226" r:id="rId449" xr:uid="{F1623DCF-BEC6-4699-A71A-A2164F04A025}"/>
+    <hyperlink ref="F226" r:id="rId450" xr:uid="{611C56E2-CBE2-4FF9-A708-F42E42E5B6E0}"/>
+    <hyperlink ref="C227" r:id="rId451" xr:uid="{2C312DEA-79DC-4A18-9934-FF62DBD73A6C}"/>
+    <hyperlink ref="F227" r:id="rId452" xr:uid="{E29C8716-6BAB-47B1-9708-24C32F7CB5B9}"/>
+    <hyperlink ref="C228" r:id="rId453" xr:uid="{8F5D83B8-40F8-4E71-9D8C-10F0DDABB415}"/>
+    <hyperlink ref="F228" r:id="rId454" xr:uid="{7D3D6FA3-01B1-4929-A1E8-C592B0D5A72A}"/>
+    <hyperlink ref="C229" r:id="rId455" xr:uid="{31C33644-6D85-4042-AAE5-240EAD0E764D}"/>
+    <hyperlink ref="C230" r:id="rId456" xr:uid="{9B620556-C643-4B0A-A328-C6553150FAFE}"/>
+    <hyperlink ref="F230" r:id="rId457" xr:uid="{6E51FE49-D33F-42A9-82F4-58E776C1440F}"/>
+    <hyperlink ref="C231" r:id="rId458" xr:uid="{2A4E16DC-4CE0-4982-87F5-347527F2D52D}"/>
+    <hyperlink ref="F231" r:id="rId459" tooltip="https://zh.learnlayout.com/images/logo.png" xr:uid="{449FB73E-1A05-44EF-B15F-E87A9620CD17}"/>
+    <hyperlink ref="C232" r:id="rId460" xr:uid="{620B1E3D-EB40-4B92-9A1D-0D17C105863F}"/>
+    <hyperlink ref="F232" r:id="rId461" xr:uid="{8A3E2228-6DA4-4E1B-B84E-BE8DD1C7A9B7}"/>
+    <hyperlink ref="C233" r:id="rId462" xr:uid="{930E8614-5106-4715-BE53-31FEE36AD907}"/>
+    <hyperlink ref="F233" r:id="rId463" xr:uid="{49D7233A-D686-42DA-8244-4EC67A7C162F}"/>
+    <hyperlink ref="C234" r:id="rId464" xr:uid="{9A6B5101-AB23-472C-B1D4-0B7A5C853E04}"/>
+    <hyperlink ref="F234" r:id="rId465" xr:uid="{068409E4-878F-4477-93B9-FB5F4146CC91}"/>
+    <hyperlink ref="C235" r:id="rId466" xr:uid="{B68E42BD-ECE8-4E46-A34D-AEE512208E2C}"/>
+    <hyperlink ref="F235" r:id="rId467" xr:uid="{6353C959-6BD3-4994-860E-C00613F45795}"/>
+    <hyperlink ref="C236" r:id="rId468" xr:uid="{C6F440C8-3924-46C3-87FC-8CC3EA05E4E0}"/>
+    <hyperlink ref="C237" r:id="rId469" xr:uid="{AFF72206-6624-4D2D-9D21-8D68C02FE511}"/>
+    <hyperlink ref="C238" r:id="rId470" xr:uid="{67F3F566-8401-4D4B-A4B5-B0C16850FFFC}"/>
+    <hyperlink ref="F238" r:id="rId471" xr:uid="{90AC1FD5-75E8-413F-8A8B-DCB4B7C2E1CE}"/>
+    <hyperlink ref="C239" r:id="rId472" xr:uid="{8099DF3F-BE61-434C-B8D2-B446BEE57F60}"/>
+    <hyperlink ref="F239" r:id="rId473" xr:uid="{42CE2C4D-39AE-4856-A6A3-884325EAF2E6}"/>
+    <hyperlink ref="C240" r:id="rId474" xr:uid="{7FC8EDCE-D7F1-49FF-8870-CA3DCD0C2A7E}"/>
+    <hyperlink ref="F240" r:id="rId475" xr:uid="{DE59FC6B-B504-43BE-A3C7-796ED4D6EFEA}"/>
+    <hyperlink ref="C241" r:id="rId476" xr:uid="{1F06BFF9-4987-4B46-B321-73AFC78828BE}"/>
+    <hyperlink ref="F241" r:id="rId477" xr:uid="{799B15FD-E7EC-40C7-8E24-EBE4C61CAABC}"/>
+    <hyperlink ref="C242" r:id="rId478" xr:uid="{F9BF4FD0-5F3B-4CD3-AB18-07ED2CE1118A}"/>
+    <hyperlink ref="F242" r:id="rId479" xr:uid="{51F02096-0F4A-4142-AE79-67D9FCBACDB3}"/>
+    <hyperlink ref="C243" r:id="rId480" xr:uid="{BCF55906-D6E2-4805-95EC-CCAD27D12596}"/>
+    <hyperlink ref="F243" r:id="rId481" xr:uid="{7E2E4F6A-115B-47B2-AB65-62F3215CE702}"/>
+    <hyperlink ref="C244" r:id="rId482" xr:uid="{770DD6E5-1A96-4EC4-AE0D-8B3E7B7C04BB}"/>
+    <hyperlink ref="F244" r:id="rId483" xr:uid="{C297F277-50E0-47AB-ACBB-EC2C37BC07F1}"/>
+    <hyperlink ref="C245" r:id="rId484" xr:uid="{EF2B0444-B32E-42AE-B951-742564DF0E56}"/>
+    <hyperlink ref="F245" r:id="rId485" xr:uid="{74D26D90-9314-414E-A205-49B21C225A93}"/>
+    <hyperlink ref="C246" r:id="rId486" xr:uid="{DF417D54-E013-4C84-A818-3B5353830074}"/>
+    <hyperlink ref="F246" r:id="rId487" xr:uid="{EE1A2785-5056-4DCD-84E1-48E6ADE931CA}"/>
+    <hyperlink ref="C247" r:id="rId488" display="https://xingedu.cn/" xr:uid="{DA58E86C-78E2-4DE3-B1FC-905DDAA2EA44}"/>
+    <hyperlink ref="F247" r:id="rId489" xr:uid="{921D605E-C764-4D1B-A6A1-CEC9D3050023}"/>
+    <hyperlink ref="C248" r:id="rId490" xr:uid="{3EFEAEB4-E26B-4D90-BFA4-EE624B3FF7B4}"/>
+    <hyperlink ref="F248" r:id="rId491" xr:uid="{F485173F-EC84-4368-B71C-D0E604A7F19E}"/>
+    <hyperlink ref="C249" r:id="rId492" display="https://fuun.fun/" xr:uid="{827D4DC6-0830-402E-97D4-80E180E6D35D}"/>
+    <hyperlink ref="F249" r:id="rId493" tooltip="https://fuun.fun/favicon.ico" xr:uid="{075C8900-7C07-416C-AC59-DADD775AE823}"/>
+    <hyperlink ref="C250" r:id="rId494" tooltip="https://pano.dpm.org.cn/" xr:uid="{B5441E1D-88A8-429E-8D22-4AD80BE1AE2C}"/>
+    <hyperlink ref="F250" r:id="rId495" xr:uid="{F929F5EA-C553-4A3F-9300-1787B2AE2F05}"/>
+    <hyperlink ref="C251" r:id="rId496" display="https://www.zhijianshang.com/" xr:uid="{853C6C52-98FD-427A-832D-E2C449F0223A}"/>
+    <hyperlink ref="F251" r:id="rId497" xr:uid="{39C47396-C77D-4825-B065-8A3495D99DB3}"/>
+    <hyperlink ref="C252" r:id="rId498" xr:uid="{B50F9F3A-F911-4709-B54C-F356BEB3C2DA}"/>
+    <hyperlink ref="F252" r:id="rId499" xr:uid="{9CB3CD78-2043-49B9-B6C8-54D1AA0C40C2}"/>
+    <hyperlink ref="C253" r:id="rId500" xr:uid="{87F05E07-BA8E-4AF5-BEF9-3034EB07C778}"/>
+    <hyperlink ref="F253" r:id="rId501" xr:uid="{32E7AD92-26FD-446F-A043-D10AF93A351E}"/>
+    <hyperlink ref="C254" r:id="rId502" display="https://zypuu.com/" xr:uid="{2C14DF44-ABFF-4630-8411-B1F4171E45CB}"/>
+    <hyperlink ref="F254" r:id="rId503" xr:uid="{A9DF9E11-C55A-4F63-BB1A-53E2256CBE84}"/>
+    <hyperlink ref="C255" r:id="rId504" location="/zh_CN" display="https://996.icu/ - /zh_CN" xr:uid="{6698D490-853E-41E9-84D0-53D891307163}"/>
+    <hyperlink ref="F255" r:id="rId505" xr:uid="{B6F9E640-B578-4EF3-8A3E-9DFBF06C23C0}"/>
+    <hyperlink ref="C256" r:id="rId506" xr:uid="{93591B1C-E128-4E7E-83DD-22479917BD6D}"/>
+    <hyperlink ref="F256" r:id="rId507" xr:uid="{E1C21A5A-C20C-4123-935D-D4A33D4041AA}"/>
+    <hyperlink ref="C257" r:id="rId508" xr:uid="{2EF5B10B-6312-40CA-8E35-63E12BB378F2}"/>
+    <hyperlink ref="F257" r:id="rId509" xr:uid="{A5AFE28C-0D22-4307-99D6-9452A9F2468F}"/>
+    <hyperlink ref="C258" r:id="rId510" xr:uid="{A7847784-B2D8-49D0-B221-0E5CCB49E011}"/>
+    <hyperlink ref="C259" r:id="rId511" xr:uid="{F700B5AD-25FF-4B2B-B4BF-662D82FFE8BD}"/>
+    <hyperlink ref="F259" r:id="rId512" xr:uid="{BFD8D351-9EBB-4A3A-9E18-6FA7737EF4D1}"/>
+    <hyperlink ref="C260" r:id="rId513" xr:uid="{AAA0F57D-54A9-4534-9F4B-2CB975332D8C}"/>
+    <hyperlink ref="F260" r:id="rId514" xr:uid="{B435B393-1CBF-4002-ACF2-6D99D46601A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/urllists.xlsx
+++ b/urllists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\SVN\导航\excel_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\GIT\Navigation\kapunav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4071A-DD95-4761-9A46-5B177CF4BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657603B2-B028-46E5-981A-A272B67B0748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1022">
   <si>
     <t>爱悦读网</t>
   </si>
@@ -636,18 +636,6 @@
     <t>https://www.yunpanziyuan.xyz/favicon.ico</t>
   </si>
   <si>
-    <t>星火</t>
-  </si>
-  <si>
-    <t>腾讯文档分享阿里网盘资源</t>
-  </si>
-  <si>
-    <t>https://docs.qq.com/sheet/DVHpJVmRhT3ViV09Q?tab=ppx5bp&amp;u=85ce92cc6b88438fa202118b3d933c1b</t>
-  </si>
-  <si>
-    <t>https://docs.gtimg.com/docs-design-resources/history/png@2x/brand_logo@2x-fcdb753a44.png</t>
-  </si>
-  <si>
     <t>扫雷</t>
   </si>
   <si>
@@ -711,18 +699,6 @@
     <t>https://www.btnull.in/favicon.ico</t>
   </si>
   <si>
-    <t>电影狗</t>
-  </si>
-  <si>
-    <t>专业电影搜索引擎</t>
-  </si>
-  <si>
-    <t>https://www.dianyinggou.com/</t>
-  </si>
-  <si>
-    <t>https://www.dianyinggou.com/favicon.ico</t>
-  </si>
-  <si>
     <t>低端影视</t>
   </si>
   <si>
@@ -738,21 +714,6 @@
     <t>https://ddys.info/</t>
   </si>
   <si>
-    <t>555电影</t>
-  </si>
-  <si>
-    <t>最新Netflix新剧_韩国电影免费在线观看</t>
-  </si>
-  <si>
-    <t>https://555movie.me/</t>
-  </si>
-  <si>
-    <t>https://555movie.me/favicon.ico</t>
-  </si>
-  <si>
-    <t>https://www.555app.vip/</t>
-  </si>
-  <si>
     <t>电影天堂</t>
   </si>
   <si>
@@ -768,21 +729,6 @@
     <t>www.dy2018.com</t>
   </si>
   <si>
-    <t>缘觉影视</t>
-  </si>
-  <si>
-    <t>原哔嘀影视</t>
-  </si>
-  <si>
-    <t>https://www.yjys.me/</t>
-  </si>
-  <si>
-    <t>https://www.yjys.me/images/favicon.ico</t>
-  </si>
-  <si>
-    <t>bdys.me</t>
-  </si>
-  <si>
     <t>聚合图床</t>
   </si>
   <si>
@@ -1209,18 +1155,6 @@
     <t>https://www.crxsoso.com/favicon-32x32.png</t>
   </si>
   <si>
-    <t>Greasy Fork</t>
-  </si>
-  <si>
-    <t>提供用户油猴脚本的网站</t>
-  </si>
-  <si>
-    <t>https://greasyfork.org/zh-CN</t>
-  </si>
-  <si>
-    <t>https://greasyfork.org/vite/assets/blacklogo96-sWE0jP07.png</t>
-  </si>
-  <si>
     <t>不死鸟</t>
   </si>
   <si>
@@ -1518,9 +1452,6 @@
     <t>收集那些有用的东西|爱达导航</t>
   </si>
   <si>
-    <t>https://adzhp.cn</t>
-  </si>
-  <si>
     <t>福利吧导航</t>
   </si>
   <si>
@@ -2389,9 +2320,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 简单图床</t>
-  </si>
-  <si>
-    <t>https://png.cm/</t>
   </si>
   <si>
     <t>https://png.cm/favicon.ico</t>
@@ -4476,6 +4404,21 @@
   </si>
   <si>
     <t>https://pin.gl/favicon.ico</t>
+  </si>
+  <si>
+    <t>闲一鱼</t>
+  </si>
+  <si>
+    <t>https://www.macrr.com/</t>
+  </si>
+  <si>
+    <t>https://res.macrr.com//wp-content/uploads/2017/11/favicon.ico</t>
+  </si>
+  <si>
+    <t>https://github.com/icret/EasyImages2.0</t>
+  </si>
+  <si>
+    <t>https://adzhp.cc/</t>
   </si>
 </sst>
 </file>
@@ -4888,9 +4831,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4904,7 +4847,7 @@
         <v>102</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>103</v>
@@ -4941,7 +4884,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>133</v>
@@ -4971,13 +4914,13 @@
     </row>
     <row r="4" spans="1:8" ht="56.6">
       <c r="A4" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -4986,7 +4929,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -5008,7 +4951,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -5096,20 +5039,20 @@
         <v>116</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="56.6">
       <c r="A10" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -5118,226 +5061,222 @@
         <v>116</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="56.6">
       <c r="A11" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="56.6">
       <c r="A12" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="56.6">
       <c r="A13" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="56.6">
       <c r="A14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="56.6">
+    <row r="15" spans="1:8" ht="42.45">
       <c r="A15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="56.6">
+      <c r="A16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="42.45">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="56.6">
       <c r="A17" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="56.6">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="84.9">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>226</v>
+        <v>261</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="56.6">
       <c r="A19" s="1" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>226</v>
+        <v>829</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>251</v>
-      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="56.6">
       <c r="A20" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>2</v>
@@ -5346,20 +5285,20 @@
         <v>3</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="84.9">
+    <row r="21" spans="1:8" ht="42.45">
       <c r="A21" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>279</v>
+        <v>830</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
@@ -5368,20 +5307,20 @@
         <v>3</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="56.6">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>853</v>
+        <v>272</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -5390,444 +5329,444 @@
         <v>3</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="56.6">
+    <row r="23" spans="1:8" ht="70.75">
       <c r="A23" s="1" t="s">
-        <v>282</v>
+        <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="42.45">
+    <row r="24" spans="1:8" ht="56.6">
       <c r="A24" s="1" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="56.6">
       <c r="A25" s="1" t="s">
-        <v>289</v>
+        <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="70.75">
+    <row r="26" spans="1:8" ht="99">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>133</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="56.6">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>855</v>
+        <v>283</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="56.6">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="169.75">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>832</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="99">
+    <row r="29" spans="1:8" ht="56.6">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="56.6">
       <c r="A30" s="1" t="s">
-        <v>300</v>
+        <v>539</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>302</v>
+        <v>833</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>541</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="169.75">
+    <row r="31" spans="1:8" ht="56.6">
       <c r="A31" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="56.6">
+      <c r="A35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="70.75">
+      <c r="A36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="70.75">
+      <c r="A37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="56.6">
-      <c r="A32" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="56.6">
-      <c r="A33" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="56.6">
-      <c r="A34" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="56.6">
-      <c r="A37" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="70.75">
+    <row r="38" spans="1:8" ht="56.6">
       <c r="A38" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="70.75">
+    <row r="39" spans="1:8" ht="42.45">
       <c r="A39" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="56.6">
       <c r="A40" s="1" t="s">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>325</v>
+        <v>137</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="42.45">
       <c r="A41" s="1" t="s">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="56.6">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>2</v>
@@ -5836,20 +5775,20 @@
         <v>15</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="42.45">
+    <row r="43" spans="1:8" ht="56.6">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>2</v>
@@ -5858,20 +5797,20 @@
         <v>15</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="56.6">
+    <row r="44" spans="1:8" ht="311.14999999999998">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
@@ -5880,20 +5819,20 @@
         <v>15</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="56.6">
+    <row r="45" spans="1:8" ht="70.75">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>839</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>2</v>
@@ -5902,20 +5841,20 @@
         <v>15</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="311.14999999999998">
+    <row r="46" spans="1:8" ht="56.6">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
@@ -5924,20 +5863,20 @@
         <v>15</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="70.75">
+    <row r="47" spans="1:8" ht="42.45">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>863</v>
+        <v>30</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>2</v>
@@ -5946,20 +5885,20 @@
         <v>15</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="56.6">
+    <row r="48" spans="1:8" ht="141.44999999999999">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>2</v>
@@ -5968,20 +5907,20 @@
         <v>15</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="42.45">
+    <row r="49" spans="1:8" ht="70.75">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>2</v>
@@ -5990,20 +5929,22 @@
         <v>15</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="141.44999999999999">
+      <c r="H49" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="70.75">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
@@ -6012,20 +5953,20 @@
         <v>15</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="70.75">
+    <row r="51" spans="1:8" ht="56.6">
       <c r="A51" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>2</v>
@@ -6034,22 +5975,20 @@
         <v>15</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>339</v>
+        <v>145</v>
       </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="70.75">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>2</v>
@@ -6058,20 +5997,20 @@
         <v>15</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="56.6">
+    <row r="53" spans="1:8" ht="70.75">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
@@ -6080,20 +6019,20 @@
         <v>15</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="70.75">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
@@ -6101,21 +6040,19 @@
       <c r="E54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" ht="70.75">
+    <row r="55" spans="1:8" ht="56.6">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
@@ -6124,20 +6061,20 @@
         <v>15</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="42.45">
       <c r="A56" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>344</v>
+        <v>840</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>345</v>
+        <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>2</v>
@@ -6145,19 +6082,21 @@
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="56.6">
+    <row r="57" spans="1:8" ht="70.75">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>841</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>2</v>
@@ -6166,20 +6105,20 @@
         <v>15</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="42.45">
+    <row r="58" spans="1:8" ht="84.9">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>864</v>
+        <v>54</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
@@ -6188,20 +6127,20 @@
         <v>15</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="70.75">
+    <row r="59" spans="1:8" ht="56.6">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>865</v>
+        <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>2</v>
@@ -6210,20 +6149,20 @@
         <v>15</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="84.9">
+    <row r="60" spans="1:8" ht="56.6">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>2</v>
@@ -6232,20 +6171,20 @@
         <v>15</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="56.6">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
@@ -6254,20 +6193,20 @@
         <v>15</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="56.6">
+    <row r="62" spans="1:8" ht="70.75">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>2</v>
@@ -6276,20 +6215,20 @@
         <v>15</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="56.6">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>2</v>
@@ -6298,20 +6237,20 @@
         <v>15</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="70.75">
+    <row r="64" spans="1:8" ht="56.6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
@@ -6320,20 +6259,20 @@
         <v>15</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" ht="56.6">
+    <row r="65" spans="1:8" ht="297">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
@@ -6342,20 +6281,20 @@
         <v>15</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" ht="56.6">
+    <row r="66" spans="1:8" ht="113.15">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>2</v>
@@ -6364,20 +6303,20 @@
         <v>15</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="297">
+    <row r="67" spans="1:8" ht="56.6">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>75</v>
+        <v>842</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
@@ -6386,20 +6325,20 @@
         <v>15</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="113.15">
+    <row r="68" spans="1:8" ht="70.75">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
@@ -6408,64 +6347,64 @@
         <v>15</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="56.6">
+    <row r="69" spans="1:8" ht="84.9">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>719</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" ht="70.75">
+        <v>722</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" ht="56.6">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>723</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" ht="84.9">
+        <v>726</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" ht="14.6">
       <c r="A71" s="1" t="s">
-        <v>742</v>
+        <v>843</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>744</v>
+        <v>844</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>2</v>
@@ -6473,21 +6412,21 @@
       <c r="E71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>745</v>
+      <c r="F71" s="3" t="s">
+        <v>846</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="56.6">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>748</v>
+        <v>848</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>2</v>
@@ -6495,21 +6434,21 @@
       <c r="E72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>749</v>
+      <c r="F72" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="14.6">
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>867</v>
+        <v>978</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>868</v>
+        <v>979</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>869</v>
+        <v>980</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>2</v>
@@ -6517,1207 +6456,1207 @@
       <c r="E73" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>870</v>
-      </c>
+      <c r="F73" s="13"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="42.45">
       <c r="A74" s="1" t="s">
-        <v>871</v>
+        <v>341</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8">
+        <v>342</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" ht="84.9">
       <c r="A75" s="1" t="s">
-        <v>1002</v>
+        <v>346</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" ht="42.45">
+        <v>346</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" ht="381.9">
       <c r="A76" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" ht="84.9">
+    <row r="77" spans="1:8" ht="99">
       <c r="A77" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" ht="381.9">
+    <row r="78" spans="1:8" ht="56.6">
       <c r="A78" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" ht="99">
+    <row r="79" spans="1:8" ht="56.6">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>371</v>
+        <v>851</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" ht="56.6">
+    <row r="80" spans="1:8" ht="169.75">
       <c r="A80" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>374</v>
+        <v>852</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" ht="56.6">
+    <row r="81" spans="1:8" ht="70.75">
       <c r="A81" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>875</v>
+        <v>366</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" ht="169.75">
+    <row r="82" spans="1:8" ht="141.44999999999999">
       <c r="A82" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" ht="70.75">
       <c r="A83" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" ht="141.44999999999999">
+    <row r="84" spans="1:8" ht="70.75">
       <c r="A84" s="1" t="s">
-        <v>387</v>
+        <v>150</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>877</v>
+        <v>151</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>388</v>
+        <v>152</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>389</v>
+        <v>158</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="70.75">
+    <row r="85" spans="1:8" ht="56.6">
       <c r="A85" s="1" t="s">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>393</v>
+        <v>161</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" ht="99">
+    <row r="86" spans="1:8" ht="56.6">
       <c r="A86" s="1" t="s">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>395</v>
+        <v>854</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>397</v>
+        <v>154</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" ht="70.75">
+    <row r="87" spans="1:8" ht="42.45">
       <c r="A87" s="1" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>158</v>
+        <v>380</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="56.6">
+    <row r="88" spans="1:8" ht="84.9">
       <c r="A88" s="1" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>161</v>
+        <v>384</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:8" ht="56.6">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>385</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>878</v>
+        <v>386</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>160</v>
+        <v>387</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>154</v>
+        <v>388</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" ht="42.45">
+    <row r="90" spans="1:8" ht="56.6">
       <c r="A90" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" ht="84.9">
+    <row r="91" spans="1:8" ht="56.6">
       <c r="A91" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>2</v>
+        <v>981</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:8" ht="56.6">
       <c r="A92" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
     <row r="93" spans="1:8" ht="56.6">
       <c r="A93" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
     <row r="94" spans="1:8" ht="56.6">
       <c r="A94" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>415</v>
+        <v>855</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8" ht="56.6">
       <c r="A95" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" ht="56.6">
+    <row r="96" spans="1:8" ht="42.45">
       <c r="A96" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>422</v>
+        <v>856</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" ht="56.6">
-      <c r="A97" s="1" t="s">
-        <v>425</v>
+    <row r="97" spans="1:8" ht="42.45">
+      <c r="A97" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>401</v>
+        <v>857</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
     <row r="98" spans="1:8" ht="56.6">
-      <c r="A98" s="1" t="s">
-        <v>428</v>
+      <c r="A98" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" ht="42.45">
-      <c r="A99" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>401</v>
+    <row r="99" spans="1:8" ht="127.3">
+      <c r="A99" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="42.45">
       <c r="A100" s="5" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>881</v>
+        <v>425</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" ht="56.6">
       <c r="A101" s="5" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" ht="127.3">
-      <c r="A102" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B102" s="5"/>
+    <row r="102" spans="1:8" ht="56.6">
+      <c r="A102" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>858</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>444</v>
+        <v>1020</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" spans="1:8" ht="42.45">
-      <c r="A103" s="5" t="s">
-        <v>446</v>
+        <v>765</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" ht="56.6">
+      <c r="A103" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>447</v>
+        <v>859</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>448</v>
+        <v>767</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+        <v>768</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="56.6">
-      <c r="A104" s="5" t="s">
-        <v>450</v>
+      <c r="A104" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>437</v>
+        <v>83</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" ht="42.45">
+    <row r="105" spans="1:8" ht="183.9">
       <c r="A105" s="1" t="s">
-        <v>787</v>
+        <v>86</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>437</v>
+        <v>87</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" ht="56.6">
+        <v>433</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" ht="84.9">
       <c r="A106" s="1" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>791</v>
+        <v>862</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>437</v>
+        <v>863</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>792</v>
+        <v>864</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" ht="56.6">
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>82</v>
+        <v>982</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" ht="183.9">
+        <v>983</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>86</v>
+        <v>865</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D108" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="1:8" ht="84.9">
+        <v>863</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>886</v>
+        <v>870</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>871</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>888</v>
-      </c>
+      <c r="E109" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F109" s="13"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="14.6">
       <c r="A110" s="1" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1007</v>
+        <v>873</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>1008</v>
+        <v>874</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>887</v>
+      <c r="E110" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1009</v>
+        <v>876</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="56.6">
       <c r="A111" s="1" t="s">
-        <v>889</v>
+        <v>234</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D111" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" ht="56.6">
       <c r="A112" s="1" t="s">
-        <v>893</v>
+        <v>760</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>895</v>
+        <v>761</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>762</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="F112" s="13"/>
+      <c r="E112" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="14.6">
+    <row r="113" spans="1:8" ht="113.15">
       <c r="A113" s="1" t="s">
-        <v>896</v>
+        <v>773</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>898</v>
+        <v>774</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>775</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>900</v>
+      <c r="E113" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="56.6">
+    <row r="114" spans="1:8" ht="127.3">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>777</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>458</v>
+        <v>877</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+        <v>779</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="56.6">
       <c r="A115" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="113.15">
       <c r="A116" s="1" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="127.3">
+    <row r="117" spans="1:8" ht="42.45">
       <c r="A117" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" ht="56.6">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>804</v>
+        <v>879</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>805</v>
+        <v>880</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>806</v>
+      <c r="E118" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>882</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" ht="113.15">
+    <row r="119" spans="1:8" ht="183.9">
       <c r="A119" s="1" t="s">
-        <v>807</v>
+        <v>89</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>458</v>
+        <v>883</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8" ht="42.45">
+        <v>433</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" ht="56.6">
       <c r="A120" s="1" t="s">
-        <v>810</v>
+        <v>92</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>458</v>
+        <v>884</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="1:8">
+        <v>438</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:8" ht="70.75">
       <c r="A121" s="1" t="s">
-        <v>903</v>
+        <v>439</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>2</v>
+        <v>440</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:8" ht="183.9">
+        <v>442</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" ht="70.75">
       <c r="A122" s="1" t="s">
-        <v>89</v>
+        <v>444</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>907</v>
+        <v>445</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>91</v>
+        <v>442</v>
       </c>
       <c r="F122" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="84.9">
+      <c r="A123" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="84.9">
+      <c r="A124" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-    </row>
-    <row r="123" spans="1:8" ht="56.6">
-      <c r="A123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="1:8" ht="70.75">
-      <c r="A124" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>463</v>
-      </c>
       <c r="D124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" ht="70.75">
+    <row r="125" spans="1:8" ht="99">
       <c r="A125" s="1" t="s">
-        <v>466</v>
+        <v>94</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>467</v>
+        <v>95</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>468</v>
+        <v>96</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>464</v>
+        <v>97</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G125" s="5"/>
-      <c r="H125" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="84.9">
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" ht="113.15">
       <c r="A126" s="1" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>464</v>
+        <v>97</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G126" s="5"/>
-      <c r="H126" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="84.9">
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>475</v>
+        <v>986</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>477</v>
+        <v>986</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>474</v>
+        <v>97</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>988</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" ht="99">
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>94</v>
+        <v>989</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>96</v>
+        <v>990</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>2</v>
@@ -7725,21 +7664,21 @@
       <c r="E128" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F128" s="8" t="s">
-        <v>478</v>
+      <c r="F128" s="3" t="s">
+        <v>992</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" ht="113.15">
+    <row r="129" spans="1:8" ht="84.9">
       <c r="A129" s="1" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>2</v>
@@ -7748,20 +7687,20 @@
         <v>97</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>1010</v>
+        <v>993</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>994</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>2</v>
@@ -7770,20 +7709,20 @@
         <v>97</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="113.15">
       <c r="A131" s="1" t="s">
-        <v>1013</v>
+        <v>546</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>1015</v>
+        <v>547</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>2</v>
@@ -7791,21 +7730,21 @@
       <c r="E131" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>1016</v>
+      <c r="F131" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" ht="84.9">
+    <row r="132" spans="1:8" ht="42.45">
       <c r="A132" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>2</v>
@@ -7814,20 +7753,20 @@
         <v>97</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" ht="70.75">
       <c r="A133" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>1019</v>
+        <v>554</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>2</v>
@@ -7835,21 +7774,21 @@
       <c r="E133" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>1020</v>
+      <c r="F133" s="8" t="s">
+        <v>557</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" ht="113.15">
+    <row r="134" spans="1:8" ht="56.6">
       <c r="A134" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>2</v>
@@ -7858,20 +7797,20 @@
         <v>97</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" ht="42.45">
+    <row r="135" spans="1:8" ht="70.75">
       <c r="A135" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>2</v>
@@ -7880,20 +7819,20 @@
         <v>97</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="70.75">
       <c r="A136" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>578</v>
+        <v>825</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>2</v>
@@ -7902,86 +7841,86 @@
         <v>97</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" ht="56.6">
+    <row r="137" spans="1:8" ht="70.75">
       <c r="A137" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" ht="70.75">
+    <row r="138" spans="1:8" ht="56.6">
       <c r="A138" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="1:8" ht="70.75">
+        <v>576</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" ht="84.9">
       <c r="A139" s="1" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-    </row>
-    <row r="140" spans="1:8" ht="70.75">
+        <v>579</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>2</v>
@@ -7989,21 +7928,19 @@
       <c r="E140" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F140" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="1:8" ht="56.6">
+      <c r="F140" s="5"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" ht="70.75">
       <c r="A141" s="1" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>2</v>
@@ -8011,21 +7948,19 @@
       <c r="E141" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>599</v>
-      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" ht="84.9">
+    <row r="142" spans="1:8" ht="56.6">
       <c r="A142" s="1" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>2</v>
@@ -8034,20 +7969,20 @@
         <v>97</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="70.75">
       <c r="A143" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>605</v>
+        <v>590</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>591</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>2</v>
@@ -8055,19 +7990,21 @@
       <c r="E143" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F143" s="5"/>
+      <c r="F143" s="8" t="s">
+        <v>592</v>
+      </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" ht="70.75">
+    <row r="144" spans="1:8" ht="99">
       <c r="A144" s="1" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>2</v>
@@ -8075,19 +8012,21 @@
       <c r="E144" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F144" s="5"/>
+      <c r="F144" s="8" t="s">
+        <v>596</v>
+      </c>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="56.6">
+    <row r="145" spans="1:8" ht="155.6">
       <c r="A145" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>2</v>
@@ -8096,20 +8035,20 @@
         <v>97</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" ht="70.75">
+    <row r="146" spans="1:8" ht="127.3">
       <c r="A146" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>2</v>
@@ -8118,20 +8057,20 @@
         <v>97</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="99">
+    <row r="147" spans="1:8" ht="42.45">
       <c r="A147" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>2</v>
@@ -8140,20 +8079,20 @@
         <v>97</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="155.6">
+    <row r="148" spans="1:8" ht="56.6">
       <c r="A148" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>2</v>
@@ -8162,20 +8101,20 @@
         <v>97</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="127.3">
+    <row r="149" spans="1:8" ht="56.6">
       <c r="A149" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>2</v>
@@ -8184,20 +8123,20 @@
         <v>97</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="42.45">
+    <row r="150" spans="1:8" ht="70.75">
       <c r="A150" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>2</v>
@@ -8206,20 +8145,20 @@
         <v>97</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" ht="56.6">
       <c r="A151" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>2</v>
@@ -8228,20 +8167,20 @@
         <v>97</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="56.6">
+    <row r="152" spans="1:8" ht="155.6">
       <c r="A152" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>2</v>
@@ -8250,20 +8189,20 @@
         <v>97</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" ht="70.75">
+    <row r="153" spans="1:8" ht="56.6">
       <c r="A153" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>2</v>
@@ -8272,20 +8211,20 @@
         <v>97</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" ht="56.6">
+    <row r="154" spans="1:8" ht="42.45">
       <c r="A154" s="1" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>2</v>
@@ -8294,20 +8233,20 @@
         <v>97</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="155.6">
+    <row r="155" spans="1:8" ht="56.6">
       <c r="A155" s="1" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>2</v>
@@ -8316,20 +8255,20 @@
         <v>97</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" ht="56.6">
       <c r="A156" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>2</v>
@@ -8338,20 +8277,20 @@
         <v>97</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="42.45">
+    <row r="157" spans="1:8" ht="70.75">
       <c r="A157" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>2</v>
@@ -8360,20 +8299,20 @@
         <v>97</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" ht="56.6">
       <c r="A158" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>660</v>
+        <v>110</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>2</v>
@@ -8382,20 +8321,20 @@
         <v>97</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" ht="56.6">
+    <row r="159" spans="1:8" ht="70.75">
       <c r="A159" s="1" t="s">
-        <v>663</v>
+        <v>801</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>664</v>
+        <v>802</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>665</v>
+        <v>803</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>2</v>
@@ -8404,42 +8343,42 @@
         <v>97</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>666</v>
+        <v>804</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" ht="70.75">
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>667</v>
+        <v>885</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>669</v>
+        <v>886</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>887</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F160" s="8" t="s">
-        <v>670</v>
+      <c r="F160" s="3" t="s">
+        <v>888</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" ht="56.6">
+    <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>671</v>
+        <v>889</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>672</v>
+        <v>889</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>890</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>2</v>
@@ -8447,21 +8386,21 @@
       <c r="E161" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F161" s="8" t="s">
-        <v>673</v>
+      <c r="F161" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" ht="70.75">
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>827</v>
+        <v>893</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>894</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>2</v>
@@ -8469,173 +8408,173 @@
       <c r="E162" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F162" s="8" t="s">
-        <v>828</v>
-      </c>
+      <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>97</v>
+        <v>898</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E164" s="5" t="s">
-        <v>97</v>
+      <c r="E164" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>916</v>
+        <v>997</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>917</v>
+        <v>998</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>918</v>
+        <v>999</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F165" s="6"/>
+      <c r="E165" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>1000</v>
+      </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>919</v>
+        <v>1001</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>920</v>
+        <v>1002</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>921</v>
+        <v>1003</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>922</v>
+        <v>898</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>923</v>
+        <v>1004</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" ht="99">
       <c r="A167" s="1" t="s">
-        <v>924</v>
+        <v>651</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>926</v>
+        <v>652</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>653</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>927</v>
+      <c r="E167" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>654</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" ht="99">
       <c r="A168" s="1" t="s">
-        <v>1021</v>
+        <v>655</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>1023</v>
+        <v>656</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>657</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>1024</v>
+      <c r="E168" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>658</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" ht="56.6">
       <c r="A169" s="1" t="s">
-        <v>1025</v>
+        <v>659</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>1027</v>
+        <v>659</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>660</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>1028</v>
+      <c r="E169" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>661</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="99">
+    <row r="170" spans="1:8" ht="70.75">
       <c r="A170" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>2</v>
@@ -8644,20 +8583,20 @@
         <v>101</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" ht="99">
+    <row r="171" spans="1:8" ht="56.6">
       <c r="A171" s="1" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>2</v>
@@ -8666,20 +8605,20 @@
         <v>101</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" ht="56.6">
+    <row r="172" spans="1:8" ht="84.9">
       <c r="A172" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>2</v>
@@ -8688,20 +8627,20 @@
         <v>101</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="70.75">
+    <row r="173" spans="1:8" ht="56.6">
       <c r="A173" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>2</v>
@@ -8710,20 +8649,20 @@
         <v>101</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" ht="56.6">
+    <row r="174" spans="1:8" ht="84.9">
       <c r="A174" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>2</v>
@@ -8732,20 +8671,20 @@
         <v>101</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" ht="84.9">
+    <row r="175" spans="1:8" ht="99">
       <c r="A175" s="1" t="s">
-        <v>692</v>
+        <v>98</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>693</v>
+        <v>99</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>694</v>
+        <v>100</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>2</v>
@@ -8754,20 +8693,20 @@
         <v>101</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" ht="56.6">
+        <v>456</v>
+      </c>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="1:8" ht="99">
       <c r="A176" s="1" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>2</v>
@@ -8776,20 +8715,20 @@
         <v>101</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
+        <v>684</v>
+      </c>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
     </row>
     <row r="177" spans="1:8" ht="84.9">
       <c r="A177" s="1" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>2</v>
@@ -8798,20 +8737,20 @@
         <v>101</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" ht="99">
+        <v>688</v>
+      </c>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="1:8" ht="84.9">
       <c r="A178" s="1" t="s">
-        <v>98</v>
+        <v>689</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>99</v>
+        <v>690</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>100</v>
+        <v>691</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>2</v>
@@ -8820,20 +8759,20 @@
         <v>101</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>478</v>
+        <v>692</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" ht="99">
+    <row r="179" spans="1:8" ht="56.6">
       <c r="A179" s="1" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>705</v>
+        <v>904</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>2</v>
@@ -8842,20 +8781,20 @@
         <v>101</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-    </row>
-    <row r="180" spans="1:8" ht="84.9">
+        <v>806</v>
+      </c>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" ht="42.45">
       <c r="A180" s="1" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>2</v>
@@ -8863,85 +8802,91 @@
       <c r="E180" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F180" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-    </row>
-    <row r="181" spans="1:8" ht="84.9">
+      <c r="F180" s="5"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" ht="56.6">
       <c r="A181" s="1" t="s">
-        <v>712</v>
+        <v>162</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>713</v>
+        <v>163</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>714</v>
+        <v>164</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-    </row>
-    <row r="182" spans="1:8" ht="56.6">
+        <v>166</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="70.75">
       <c r="A182" s="1" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>928</v>
+        <v>169</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>829</v>
+        <v>170</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" ht="42.45">
+        <v>171</v>
+      </c>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="1:8" ht="56.6">
       <c r="A183" s="1" t="s">
-        <v>716</v>
+        <v>172</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>717</v>
+        <v>173</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>718</v>
+        <v>174</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>2</v>
+        <v>981</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F183" s="5"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" ht="56.6">
+        <v>165</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G183" s="5"/>
+      <c r="H183" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="99">
       <c r="A184" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>2</v>
@@ -8950,2194 +8895,2160 @@
         <v>165</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="70.75">
+        <v>180</v>
+      </c>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="1:8" ht="56.6">
       <c r="A185" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E185" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" ht="56.6">
+    <row r="186" spans="1:8" ht="70.75">
       <c r="A186" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E186" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>175</v>
+      <c r="F186" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="G186" s="5"/>
-      <c r="H186" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="99">
+      <c r="H186" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="56.6">
       <c r="A187" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-    </row>
-    <row r="188" spans="1:8" ht="56.6">
+        <v>193</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="70.75">
       <c r="A188" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>183</v>
+        <v>461</v>
       </c>
       <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-    </row>
-    <row r="189" spans="1:8" ht="70.75">
+      <c r="H188" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="56.6">
       <c r="A189" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G189" s="5"/>
-      <c r="H189" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="56.6">
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="1:8" ht="84.9">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H190" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="70.75">
+        <v>206</v>
+      </c>
+      <c r="F190" s="5"/>
+      <c r="G190" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="1:8" ht="56.6">
       <c r="A191" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>483</v>
+        <v>211</v>
       </c>
       <c r="G191" s="5"/>
-      <c r="H191" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="56.6">
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>199</v>
+        <v>462</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>201</v>
+        <v>464</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="1:8" ht="155.6">
+    <row r="193" spans="1:8" ht="42.45">
       <c r="A193" s="1" t="s">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>204</v>
+        <v>905</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>206</v>
+        <v>467</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8" ht="84.9">
+    <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>207</v>
+        <v>906</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D194" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F194" s="5"/>
-      <c r="G194" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H194" s="5"/>
-    </row>
-    <row r="195" spans="1:8" ht="56.6">
+        <v>206</v>
+      </c>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>212</v>
+        <v>909</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D195" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D195" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-    </row>
-    <row r="196" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" ht="127.3">
       <c r="A196" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F196" s="5"/>
+        <v>471</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8" ht="42.45">
+    <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>929</v>
+        <v>474</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>488</v>
+        <v>1021</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>489</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="56.6">
       <c r="A198" s="1" t="s">
-        <v>930</v>
+        <v>475</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="D198" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:8">
+        <v>471</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="1:8" ht="113.15">
       <c r="A199" s="1" t="s">
-        <v>933</v>
+        <v>479</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="D199" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="1:8" ht="127.3">
+        <v>471</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>494</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="99">
       <c r="A201" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F201" s="5"/>
+        <v>471</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>488</v>
+      </c>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="1:8" ht="56.6">
+    <row r="202" spans="1:8" ht="99">
       <c r="A202" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="1:8" ht="113.15">
+    <row r="203" spans="1:8" ht="84.9">
       <c r="A203" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" ht="141.44999999999999">
       <c r="A204" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F204" s="5"/>
+        <v>471</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>499</v>
+      </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" spans="1:8" ht="99">
+    <row r="205" spans="1:8" ht="141.44999999999999">
       <c r="A205" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" spans="1:8" ht="99">
+    <row r="206" spans="1:8" ht="56.6">
       <c r="A206" s="1" t="s">
-        <v>512</v>
+        <v>707</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>493</v>
+        <v>708</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-    </row>
-    <row r="207" spans="1:8" ht="84.9">
+        <v>711</v>
+      </c>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:8" ht="42.45">
       <c r="A207" s="1" t="s">
-        <v>516</v>
+        <v>712</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>493</v>
+        <v>913</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-    </row>
-    <row r="208" spans="1:8" ht="141.44999999999999">
+        <v>714</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:8" ht="56.6">
       <c r="A208" s="1" t="s">
-        <v>519</v>
+        <v>715</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>493</v>
+        <v>716</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-    </row>
-    <row r="209" spans="1:8" ht="141.44999999999999">
+        <v>718</v>
+      </c>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:8" ht="56.6">
       <c r="A209" s="1" t="s">
-        <v>523</v>
+        <v>914</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
+        <v>915</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F209" s="5"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8" ht="56.6">
       <c r="A210" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8" ht="42.45">
       <c r="A211" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>937</v>
+        <v>737</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:8" ht="56.6">
+    <row r="212" spans="1:8" ht="42.45">
       <c r="A212" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8" ht="56.6">
       <c r="A213" s="1" t="s">
-        <v>938</v>
+        <v>744</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>939</v>
+        <v>745</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>940</v>
+        <v>746</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="F213" s="5"/>
+        <v>727</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>747</v>
+      </c>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8" ht="56.6">
       <c r="A214" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8" ht="42.45">
       <c r="A215" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8" ht="42.45">
       <c r="A216" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" spans="1:8" ht="56.6">
+    <row r="217" spans="1:8" ht="84.9">
       <c r="A217" s="1" t="s">
-        <v>767</v>
+        <v>811</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>769</v>
+        <v>813</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>770</v>
+        <v>814</v>
       </c>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
     </row>
     <row r="218" spans="1:8" ht="56.6">
       <c r="A218" s="1" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" ht="42.45">
+    <row r="219" spans="1:8" ht="56.6">
       <c r="A219" s="1" t="s">
-        <v>775</v>
+        <v>696</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>776</v>
+        <v>697</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>777</v>
+        <v>698</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" ht="42.45">
+        <v>699</v>
+      </c>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="1:8" ht="56.6">
       <c r="A220" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" spans="1:8" ht="84.9">
+    <row r="221" spans="1:8" ht="56.6">
       <c r="A221" s="1" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>836</v>
+        <v>917</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" ht="56.6">
+    <row r="222" spans="1:8" ht="84.9">
       <c r="A222" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>819</v>
+        <v>699</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" ht="56.6">
-      <c r="A223" s="1" t="s">
-        <v>719</v>
+    <row r="223" spans="1:8" ht="42.45">
+      <c r="A223" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>720</v>
+        <v>823</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-    </row>
-    <row r="224" spans="1:8" ht="56.6">
+        <v>699</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8" ht="14.6">
       <c r="A224" s="1" t="s">
-        <v>793</v>
+        <v>918</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>795</v>
+        <v>919</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>920</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E224" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>796</v>
+      <c r="E224" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>921</v>
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
     </row>
-    <row r="225" spans="1:8" ht="56.6">
+    <row r="225" spans="1:8" ht="42.45">
       <c r="A225" s="1" t="s">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>840</v>
+        <v>924</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F225" s="8" t="s">
-        <v>841</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="F225" s="5"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" ht="84.9">
+    <row r="226" spans="1:8">
       <c r="A226" s="1" t="s">
-        <v>842</v>
+        <v>1005</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>844</v>
+        <v>1006</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>845</v>
+        <v>699</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1008</v>
       </c>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
     </row>
-    <row r="227" spans="1:8" ht="42.45">
-      <c r="A227" s="12" t="s">
-        <v>850</v>
+    <row r="227" spans="1:8" ht="70.75">
+      <c r="A227" s="1" t="s">
+        <v>925</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>847</v>
+        <v>926</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>846</v>
+        <v>927</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>722</v>
+        <v>928</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>848</v>
+        <v>929</v>
       </c>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
     </row>
-    <row r="228" spans="1:8" ht="14.6">
+    <row r="228" spans="1:8" ht="84.9">
       <c r="A228" s="1" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>944</v>
+        <v>931</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>932</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>945</v>
+      <c r="E228" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>933</v>
       </c>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
-    <row r="229" spans="1:8" ht="42.45">
+    <row r="229" spans="1:8" ht="56.6">
       <c r="A229" s="1" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F229" s="5"/>
+        <v>928</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>937</v>
+      </c>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" ht="70.75">
       <c r="A230" s="1" t="s">
-        <v>1029</v>
+        <v>938</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>1031</v>
+        <v>939</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>940</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>1032</v>
+        <v>928</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>941</v>
       </c>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
-    <row r="231" spans="1:8" ht="70.75">
+    <row r="231" spans="1:8" ht="84.9">
       <c r="A231" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
     </row>
-    <row r="232" spans="1:8" ht="84.9">
+    <row r="232" spans="1:8" ht="56.6">
       <c r="A232" s="1" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>957</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="F232" s="5"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" spans="1:8" ht="56.6">
+    <row r="233" spans="1:8" ht="84.9">
       <c r="A233" s="1" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>961</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="F233" s="5"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
     </row>
-    <row r="234" spans="1:8" ht="70.75">
+    <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>964</v>
+        <v>952</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>953</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>965</v>
+        <v>928</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
     </row>
-    <row r="235" spans="1:8" ht="84.9">
+    <row r="235" spans="1:8" ht="56.6">
       <c r="A235" s="1" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
     </row>
     <row r="236" spans="1:8" ht="56.6">
       <c r="A236" s="1" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F236" s="5"/>
+        <v>962</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>963</v>
+      </c>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
-    <row r="237" spans="1:8" ht="84.9">
+    <row r="237" spans="1:8" ht="42.45">
       <c r="A237" s="1" t="s">
-        <v>972</v>
+        <v>212</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>974</v>
+        <v>213</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F237" s="5"/>
-      <c r="G237" s="6"/>
-      <c r="H237" s="6"/>
-    </row>
-    <row r="238" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="1:8" ht="56.6">
       <c r="A238" s="1" t="s">
-        <v>975</v>
+        <v>215</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
     </row>
     <row r="239" spans="1:8" ht="56.6">
       <c r="A239" s="1" t="s">
-        <v>979</v>
+        <v>505</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>952</v>
+        <v>506</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-    </row>
-    <row r="240" spans="1:8" ht="56.6">
+        <v>508</v>
+      </c>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="1:8" ht="70.75">
       <c r="A240" s="1" t="s">
-        <v>983</v>
+        <v>509</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>986</v>
+        <v>510</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" spans="1:8" ht="42.45">
+        <v>512</v>
+      </c>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="1:8" ht="56.6">
       <c r="A241" s="1" t="s">
-        <v>216</v>
+        <v>513</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>218</v>
+        <v>514</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" spans="1:8" ht="56.6">
+    <row r="242" spans="1:8" ht="127.3">
       <c r="A242" s="1" t="s">
-        <v>219</v>
+        <v>517</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>220</v>
+        <v>518</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>221</v>
+        <v>519</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>222</v>
+        <v>520</v>
       </c>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="1:8" ht="56.6">
+    <row r="243" spans="1:8" ht="99">
       <c r="A243" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" spans="1:8" ht="70.75">
+    <row r="244" spans="1:8" ht="56.6">
       <c r="A244" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" spans="1:8" ht="56.6">
+    <row r="245" spans="1:8" ht="42.45">
       <c r="A245" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
     </row>
-    <row r="246" spans="1:8" ht="127.3">
+    <row r="246" spans="1:8" ht="70.75">
       <c r="A246" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
     </row>
-    <row r="247" spans="1:8" ht="99">
+    <row r="247" spans="1:8" ht="70.75">
       <c r="A247" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
     </row>
     <row r="248" spans="1:8" ht="56.6">
       <c r="A248" s="1" t="s">
-        <v>547</v>
+        <v>700</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>218</v>
+        <v>965</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-    </row>
-    <row r="249" spans="1:8" ht="42.45">
+        <v>702</v>
+      </c>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="1:8" ht="56.6">
       <c r="A249" s="1" t="s">
-        <v>551</v>
+        <v>703</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>218</v>
+        <v>704</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-    </row>
-    <row r="250" spans="1:8" ht="70.75">
+        <v>706</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" spans="1:8" ht="127.3">
       <c r="A250" s="1" t="s">
-        <v>555</v>
+        <v>728</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>218</v>
+        <v>729</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
-    </row>
-    <row r="251" spans="1:8" ht="70.75">
+        <v>731</v>
+      </c>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="1:8" ht="99">
       <c r="A251" s="1" t="s">
-        <v>558</v>
+        <v>789</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>218</v>
+        <v>966</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
+        <v>791</v>
+      </c>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
     </row>
     <row r="252" spans="1:8" ht="56.6">
       <c r="A252" s="1" t="s">
-        <v>723</v>
+        <v>797</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>989</v>
+        <v>798</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>724</v>
+        <v>799</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
     </row>
-    <row r="253" spans="1:8" ht="56.6">
+    <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
-        <v>726</v>
+        <v>1009</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>728</v>
+        <v>1010</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>1011</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F253" s="8" t="s">
-        <v>729</v>
+        <v>214</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>1012</v>
       </c>
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
-    <row r="254" spans="1:8" ht="127.3">
+    <row r="254" spans="1:8" ht="42.45">
       <c r="A254" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>752</v>
+        <v>967</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>753</v>
+        <v>969</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F254" s="8" t="s">
-        <v>754</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F254" s="5"/>
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
     </row>
-    <row r="255" spans="1:8" ht="99">
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>814</v>
+        <v>970</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>972</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F255" s="8" t="s">
-        <v>815</v>
+        <v>214</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>973</v>
       </c>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
     </row>
-    <row r="256" spans="1:8" ht="56.6">
+    <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
-        <v>821</v>
+        <v>1013</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>823</v>
+        <v>1014</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F256" s="8" t="s">
-        <v>824</v>
+        <v>214</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>1016</v>
       </c>
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="42.45">
       <c r="A257" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>1035</v>
+        <v>967</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>969</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>1036</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F257" s="5"/>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
-    <row r="258" spans="1:8" ht="42.45">
+    <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>993</v>
+        <v>971</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>972</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F258" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>995</v>
+        <v>1013</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1014</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{3E6F7E0A-D1EA-4D5F-8008-15779C824C75}"/>
-    <hyperlink ref="F1" r:id="rId2" xr:uid="{77BB878D-D603-4A70-BC1E-B04AC3317602}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://www.notion.so/" xr:uid="{36A85EE2-F376-4EC7-A5B7-C5A5566C1F05}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{37FA15F3-54C9-4198-BD8E-A4B63CE7FA1D}"/>
-    <hyperlink ref="A3" r:id="rId5" display="https://note.ms/" xr:uid="{50C3D77E-BA3D-4CED-9201-307552340903}"/>
-    <hyperlink ref="C3" r:id="rId6" display="https://note.ms/" xr:uid="{FF3AE3B8-C0C5-4FF3-904E-ADDB03ED5833}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{71DE0DFB-2DD7-4856-BAC9-A6294F187E4F}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{2AD9A1AF-6668-4366-AFAF-150767EE4D8C}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{4A27B8EA-FA93-4C74-B6AF-B54385818A10}"/>
-    <hyperlink ref="C5" r:id="rId10" display="https://tophub.today/" xr:uid="{E9FB11F2-1E1F-4FE2-86AD-C1AC68A3CAA4}"/>
-    <hyperlink ref="F5" r:id="rId11" xr:uid="{446E9C11-3D7C-4637-BE02-1643377B3939}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{E6AE0EBF-62F9-4D80-AF0C-F9D35A54C8D0}"/>
-    <hyperlink ref="F6" r:id="rId13" xr:uid="{F7A5E386-5A36-453C-8950-BA6E2922D4A7}"/>
-    <hyperlink ref="C7" r:id="rId14" xr:uid="{BE4A39ED-0A06-4305-B3E4-6C7AF27A4B6D}"/>
-    <hyperlink ref="F7" r:id="rId15" xr:uid="{B0A64D5C-2F5F-4078-9815-F67D24FAF52E}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{65D1148D-1B40-4BBF-886C-51DCBFF900FD}"/>
-    <hyperlink ref="F8" r:id="rId17" xr:uid="{38E19809-855A-41B7-BC37-95347C3FA83F}"/>
-    <hyperlink ref="C9" r:id="rId18" xr:uid="{9B11D8A2-BA46-4FFD-81E3-0ABBFD10773E}"/>
-    <hyperlink ref="F9" r:id="rId19" xr:uid="{503603A2-BA4D-431E-9BA9-27C9F5676102}"/>
-    <hyperlink ref="C10" r:id="rId20" xr:uid="{79F47484-4D37-4063-9B6D-B57BB35F551B}"/>
-    <hyperlink ref="F10" r:id="rId21" xr:uid="{316327DD-0CBB-4286-96B0-1071276133F7}"/>
-    <hyperlink ref="C11" r:id="rId22" tooltip="https://www.mtime.com" display="https://www.mtime.com/" xr:uid="{281BB6C9-83A0-4EDA-BDEF-401E51B6E251}"/>
-    <hyperlink ref="F11" r:id="rId23" xr:uid="{FA95165B-2EE2-43DE-8AEB-522E01574753}"/>
-    <hyperlink ref="C12" r:id="rId24" display="https://www.1905.com/" xr:uid="{D981D881-4783-4AA2-A72C-750B28BD95F9}"/>
-    <hyperlink ref="F12" r:id="rId25" xr:uid="{B4940A82-49D1-4755-AE12-E241E05C74A8}"/>
-    <hyperlink ref="C13" r:id="rId26" display="https://movie.douban.com/" xr:uid="{243B0784-B3A7-427B-8939-258A70A86075}"/>
-    <hyperlink ref="F13" r:id="rId27" xr:uid="{685084B3-97A6-4232-B3E1-9F026C670C85}"/>
-    <hyperlink ref="C14" r:id="rId28" xr:uid="{28A2A7DC-7003-45D6-B773-2A1FA1C61B07}"/>
-    <hyperlink ref="F14" r:id="rId29" xr:uid="{2AF8EB2B-6CE8-41E8-BB94-41735AA2D501}"/>
-    <hyperlink ref="C15" r:id="rId30" xr:uid="{347A9445-F0A6-4B5A-B773-CA90E8570E2C}"/>
-    <hyperlink ref="F15" r:id="rId31" xr:uid="{264888CA-CAB6-47D2-93B2-519227BD2E68}"/>
-    <hyperlink ref="C16" r:id="rId32" xr:uid="{D24747AC-7662-4787-865E-5083A3205420}"/>
-    <hyperlink ref="F16" r:id="rId33" xr:uid="{51EF1A47-ECE5-4F3D-8D32-9773F3269354}"/>
-    <hyperlink ref="H16" r:id="rId34" xr:uid="{2D03B011-5EDD-4325-B895-E2721B20858B}"/>
-    <hyperlink ref="C17" r:id="rId35" xr:uid="{74C94538-228D-4053-A5D8-DEA2C44A56FB}"/>
-    <hyperlink ref="F17" r:id="rId36" xr:uid="{4F45F787-965B-420D-8B91-F92BC9707244}"/>
-    <hyperlink ref="H17" r:id="rId37" xr:uid="{780D6046-F51D-4351-9427-4420417489A6}"/>
-    <hyperlink ref="C18" r:id="rId38" xr:uid="{93A7EF45-D925-40EC-B79F-A79261A080E3}"/>
-    <hyperlink ref="F18" r:id="rId39" xr:uid="{E9460AE5-E1C4-41D7-BCF5-BD1CDA590DB0}"/>
-    <hyperlink ref="H18" r:id="rId40" display="https://www.dy2018.com/" xr:uid="{7566542C-4726-468B-B652-33CF8DB22F46}"/>
-    <hyperlink ref="C19" r:id="rId41" xr:uid="{1633E23C-B647-44B1-9D61-CA78CC85415A}"/>
-    <hyperlink ref="F19" r:id="rId42" xr:uid="{1FDB7694-FB21-4CDE-A58F-5ABA1F585916}"/>
-    <hyperlink ref="C20" r:id="rId43" xr:uid="{96E639FD-A48C-49BE-B913-6BFB1592F873}"/>
-    <hyperlink ref="F20" r:id="rId44" xr:uid="{CC7EC159-E4FC-489B-BC2B-B35B374DB9CD}"/>
-    <hyperlink ref="C21" r:id="rId45" xr:uid="{A7DEC441-F20E-4750-A81B-24C7F82330E0}"/>
-    <hyperlink ref="F21" r:id="rId46" xr:uid="{1B13C36F-1683-463B-8E98-0D2D35F6D9EF}"/>
-    <hyperlink ref="C22" r:id="rId47" xr:uid="{B97BE13B-03B2-4525-9C1C-9559A7880392}"/>
-    <hyperlink ref="F22" r:id="rId48" tooltip="https://toolb.cn/favicon/www.iyd.wang" xr:uid="{44EEE7D4-C208-4002-A729-28F0E1CC664B}"/>
-    <hyperlink ref="C23" r:id="rId49" xr:uid="{6E3EF9DE-1D00-4B53-85CC-448ED5CD252E}"/>
-    <hyperlink ref="F23" r:id="rId50" xr:uid="{533E55E1-8910-49E5-BF5F-CDCC344CD07D}"/>
-    <hyperlink ref="C24" r:id="rId51" xr:uid="{0723B872-32F2-47F4-A97B-5A7DE6C50DBD}"/>
-    <hyperlink ref="F24" r:id="rId52" xr:uid="{451132A2-4A2C-46EF-826A-8D0480C233DC}"/>
-    <hyperlink ref="C25" r:id="rId53" xr:uid="{0EA7C954-DC09-4B12-BB41-02249FE84906}"/>
-    <hyperlink ref="F25" r:id="rId54" tooltip="https://www.book123.info/favicon.ico" xr:uid="{48EA733A-2083-4202-AF78-B540EC876062}"/>
-    <hyperlink ref="C26" r:id="rId55" xr:uid="{8A7F89D6-D549-4064-8D81-82C22416DC1C}"/>
-    <hyperlink ref="F26" r:id="rId56" xr:uid="{C6B7C8B3-291D-4D72-9A3E-A49F1437A995}"/>
-    <hyperlink ref="C27" r:id="rId57" xr:uid="{AC45F30A-CA9D-414E-9C50-969595EEB579}"/>
-    <hyperlink ref="F27" r:id="rId58" xr:uid="{EA83475A-889F-4845-8FF6-CB0F3AFF4B57}"/>
-    <hyperlink ref="H27" r:id="rId59" xr:uid="{4ED2C273-9861-4F88-A1F8-5A618DE0E6F3}"/>
-    <hyperlink ref="C28" r:id="rId60" xr:uid="{D480A38B-D39B-447F-AC49-AC8747825A1A}"/>
-    <hyperlink ref="F28" r:id="rId61" xr:uid="{E87F434B-D25A-4B3E-AA54-9AB103154F0C}"/>
-    <hyperlink ref="C29" r:id="rId62" display="https://www.iplaysoft.com/" xr:uid="{C7B3CE2A-3FFF-4AAC-AED1-A303D6757E37}"/>
-    <hyperlink ref="F29" r:id="rId63" xr:uid="{9BFEF90F-9762-4EAE-B86F-5DE29F2190BD}"/>
-    <hyperlink ref="C30" r:id="rId64" display="https://www.ghxi.com/" xr:uid="{6E6D22CF-173D-485D-8AE6-B22A5CDC9629}"/>
-    <hyperlink ref="F30" r:id="rId65" xr:uid="{A1A24B7F-1BB3-4950-8E3D-81520999FBDC}"/>
-    <hyperlink ref="C31" r:id="rId66" display="https://www.yeyulingfeng.com/" xr:uid="{B497E420-47BB-4DA3-87BE-57F77EDAA0D9}"/>
-    <hyperlink ref="F31" r:id="rId67" xr:uid="{0084E69B-3DA9-47EB-82C3-A88686B190BE}"/>
-    <hyperlink ref="C32" r:id="rId68" display="https://www.mpyit.com/" xr:uid="{E39D4DFF-BECF-4D4D-9569-51560524C6F5}"/>
-    <hyperlink ref="F32" r:id="rId69" xr:uid="{EADE9425-3BCD-40A6-A75F-5B4063433B21}"/>
-    <hyperlink ref="C33" r:id="rId70" display="https://www.ypojie.com/" xr:uid="{498AB918-DBF2-49DB-8F9A-3838D13E60A2}"/>
-    <hyperlink ref="F33" r:id="rId71" xr:uid="{A66CBA0C-9A6C-423D-AB1C-4A56C21B067F}"/>
-    <hyperlink ref="C34" r:id="rId72" xr:uid="{9856D71E-15FF-4C7A-9BE5-C68D6B543A10}"/>
-    <hyperlink ref="F34" r:id="rId73" xr:uid="{72B74883-8618-4369-98D1-76E035ACAE6E}"/>
-    <hyperlink ref="H34" r:id="rId74" xr:uid="{BFEB16D7-4356-4646-8542-E7A35912353E}"/>
-    <hyperlink ref="C35" r:id="rId75" xr:uid="{7D34030D-E9ED-43C7-9496-B7A31C47530D}"/>
-    <hyperlink ref="F35" r:id="rId76" xr:uid="{03465FD7-4BF9-48B5-AB9C-F8E319D0B7D2}"/>
-    <hyperlink ref="C36" r:id="rId77" xr:uid="{5BE50FAF-4BB2-4599-8C2B-4C34F8467894}"/>
-    <hyperlink ref="F36" r:id="rId78" xr:uid="{9FD471E7-2AD6-46B9-BDD2-6C73A75DF913}"/>
-    <hyperlink ref="F37" r:id="rId79" xr:uid="{AA288098-B1F5-4F0D-9A49-9080C8F43773}"/>
-    <hyperlink ref="C38" r:id="rId80" xr:uid="{ED5E081A-A4C0-4861-A681-9D77F6053AE0}"/>
-    <hyperlink ref="F38" r:id="rId81" xr:uid="{670397C7-BF47-493E-9190-264D6A37F3DE}"/>
-    <hyperlink ref="C39" r:id="rId82" xr:uid="{0E362BBD-8328-449E-BF32-663460759DA2}"/>
-    <hyperlink ref="F39" r:id="rId83" xr:uid="{71E222E3-D622-4B6E-8AC5-9477022636C7}"/>
-    <hyperlink ref="C40" r:id="rId84" display="https://free.apprcn.com/" xr:uid="{CDEDD8A7-5764-49D0-9AD1-7A39231FF873}"/>
-    <hyperlink ref="F40" r:id="rId85" xr:uid="{CC04ABE3-495B-4B5D-9335-3A5494D909E7}"/>
-    <hyperlink ref="C41" r:id="rId86" display="https://gofans.cn/" xr:uid="{A9D291E3-CBEF-44F3-ACAD-2D874A21F26B}"/>
-    <hyperlink ref="F41" r:id="rId87" xr:uid="{6CFF5702-4523-47B0-91FD-EC848ABBE9E7}"/>
-    <hyperlink ref="C42" r:id="rId88" xr:uid="{F5D4BCB3-E51D-4C13-A11C-77EFB478DD8B}"/>
-    <hyperlink ref="F42" r:id="rId89" tooltip="https://toolb.cn/favicon/zh.snipaste.com" xr:uid="{F318410C-760E-44C4-B8F5-3C94C3F5091B}"/>
-    <hyperlink ref="C43" r:id="rId90" xr:uid="{2BA47413-039F-43FE-BCA9-F79168F3BDE0}"/>
-    <hyperlink ref="F43" r:id="rId91" xr:uid="{08E6A0AF-A2A3-4C16-94DF-F992C8B00173}"/>
-    <hyperlink ref="C44" r:id="rId92" xr:uid="{C335E8A6-5A4A-480A-BE8C-0C6D9F6B4F48}"/>
-    <hyperlink ref="F44" r:id="rId93" xr:uid="{94978717-7210-4E7D-B85F-6EEF54F08C90}"/>
-    <hyperlink ref="C45" r:id="rId94" xr:uid="{BE48B6F1-5F00-45FD-825F-C6BEDDEEEC25}"/>
-    <hyperlink ref="F45" r:id="rId95" xr:uid="{27D8C171-9416-45DC-B829-3B9108D96F57}"/>
-    <hyperlink ref="C46" r:id="rId96" xr:uid="{297AD5B8-BFAD-4477-A331-BEF89A91527A}"/>
-    <hyperlink ref="F46" r:id="rId97" xr:uid="{7373DFAB-5EA8-4CCC-878E-B5E0AF51D7A0}"/>
-    <hyperlink ref="C47" r:id="rId98" xr:uid="{6EF54EE1-010C-4409-8B06-1B4232113076}"/>
-    <hyperlink ref="F47" r:id="rId99" xr:uid="{23B9A56E-456A-4D9E-B68B-72264188A54A}"/>
-    <hyperlink ref="C48" r:id="rId100" xr:uid="{033BEA11-5ECA-4611-8011-BB0DCBB94981}"/>
-    <hyperlink ref="F48" r:id="rId101" xr:uid="{B2C1459B-F444-4467-84CD-95EA0A3C5FAF}"/>
-    <hyperlink ref="C49" r:id="rId102" xr:uid="{99FEADD9-5706-4CCA-8DDC-013412051891}"/>
-    <hyperlink ref="F49" r:id="rId103" xr:uid="{9C91AA46-045F-4C3B-BFE7-5E7308A65531}"/>
-    <hyperlink ref="C50" r:id="rId104" xr:uid="{BF624EA5-FBA9-4E15-8587-1E691B85340A}"/>
-    <hyperlink ref="F50" r:id="rId105" xr:uid="{234124EA-BC6A-40F7-8CB5-AD0038FBE7A9}"/>
-    <hyperlink ref="C51" r:id="rId106" tooltip="https://calibre-ebook.com/zh_CN" xr:uid="{2A8BE3ED-54A3-4F5B-BFEB-A3470675F1D5}"/>
-    <hyperlink ref="F51" r:id="rId107" xr:uid="{4F1683FA-34E7-4256-8203-117C85CC42CE}"/>
-    <hyperlink ref="H51" r:id="rId108" tooltip="https://calibre-ebook.com/" xr:uid="{8D138670-ECDD-4B32-A740-4026CE77FC49}"/>
-    <hyperlink ref="C52" r:id="rId109" xr:uid="{1BE85ADD-B663-4BD9-95C5-35FE28EC52F3}"/>
-    <hyperlink ref="F52" r:id="rId110" xr:uid="{B759F74B-D417-417E-AA7B-83FCAA8C98CB}"/>
-    <hyperlink ref="C53" r:id="rId111" xr:uid="{31B9AF25-5030-4F2D-A791-68FF49C89318}"/>
-    <hyperlink ref="F53" r:id="rId112" xr:uid="{D8B565FA-6331-43E1-8BCE-3EF167C994DC}"/>
-    <hyperlink ref="C54" r:id="rId113" xr:uid="{C94021A9-56DD-47C0-B43D-EB886D492B35}"/>
-    <hyperlink ref="F54" r:id="rId114" xr:uid="{15F4DB6C-1B10-4A9A-A6A3-05473CEE0563}"/>
-    <hyperlink ref="C55" r:id="rId115" xr:uid="{D0E3662A-7FEF-4B8C-AB0D-9B135376C094}"/>
-    <hyperlink ref="F55" r:id="rId116" xr:uid="{B3E98678-88F0-43B3-9D15-7B3B234070DC}"/>
-    <hyperlink ref="C56" r:id="rId117" xr:uid="{68BB9CB3-2FDB-40A9-A36E-760EB6D2BC6B}"/>
-    <hyperlink ref="C57" r:id="rId118" xr:uid="{294B1771-849B-4478-BB91-FDEDD9567E42}"/>
-    <hyperlink ref="F57" r:id="rId119" xr:uid="{1007B333-4929-413D-83AD-2161D00D4D7D}"/>
-    <hyperlink ref="C58" r:id="rId120" xr:uid="{CC365755-332B-47FA-97C7-0AA535E60B0A}"/>
-    <hyperlink ref="F58" r:id="rId121" xr:uid="{883B206C-A463-4E7D-91D3-33381536203C}"/>
-    <hyperlink ref="C59" r:id="rId122" xr:uid="{D8C66A8D-02EB-4ABA-BDB3-BA558FF1954B}"/>
-    <hyperlink ref="F59" r:id="rId123" xr:uid="{028DB18F-F783-41ED-B80C-92F88BDD7E2F}"/>
-    <hyperlink ref="C60" r:id="rId124" xr:uid="{52AC836F-2D79-40F8-95C1-EBE5F6055071}"/>
-    <hyperlink ref="F60" r:id="rId125" xr:uid="{2F90C306-1694-4576-B4F2-7AB33774FA29}"/>
-    <hyperlink ref="C61" r:id="rId126" xr:uid="{D07A38B3-0FD1-408C-9120-8B4489709AA5}"/>
-    <hyperlink ref="F61" r:id="rId127" xr:uid="{9C5AC8CC-75B0-4724-8E18-60454DCE7CC2}"/>
-    <hyperlink ref="C62" r:id="rId128" xr:uid="{1309CD9F-BF41-406E-83B0-DA1F75B219BE}"/>
-    <hyperlink ref="F62" r:id="rId129" xr:uid="{25DAED1F-EE57-4DCB-B458-DC0442AACFF9}"/>
-    <hyperlink ref="C63" r:id="rId130" xr:uid="{3F6E8E90-A7D1-495B-A0C7-4BF16A0F784B}"/>
-    <hyperlink ref="F63" r:id="rId131" xr:uid="{5EF3A3CB-23E4-4F9A-A8FF-1BB9557506EF}"/>
-    <hyperlink ref="C64" r:id="rId132" xr:uid="{617CEBC9-1AC6-44CE-B3EC-656A7DCB2F69}"/>
-    <hyperlink ref="F64" r:id="rId133" xr:uid="{C464FB61-E0DB-40E9-9A13-B3E1934C07DB}"/>
-    <hyperlink ref="C65" r:id="rId134" xr:uid="{B07BE972-CE58-4C2E-96D7-FA0BD88E0E68}"/>
-    <hyperlink ref="F65" r:id="rId135" xr:uid="{3EBA60C1-93FA-4A8A-AA32-E5AC4BA2FE13}"/>
-    <hyperlink ref="C66" r:id="rId136" xr:uid="{E7252038-7234-4976-8964-AC4BB72EAC84}"/>
-    <hyperlink ref="F66" r:id="rId137" xr:uid="{12F193FA-D22D-49EA-86D3-693DF48508AD}"/>
-    <hyperlink ref="C67" r:id="rId138" xr:uid="{AFA3E12E-F0DB-4BA5-8423-2FC2766C6585}"/>
-    <hyperlink ref="F67" r:id="rId139" xr:uid="{EA5FAC32-0CA6-4732-A8E1-D439477EC624}"/>
-    <hyperlink ref="C68" r:id="rId140" xr:uid="{E9367EED-BEE2-4908-B97B-5D4B7F499F9E}"/>
-    <hyperlink ref="F68" r:id="rId141" xr:uid="{450D6C78-A5F7-4D05-BCF0-41290E4D370D}"/>
-    <hyperlink ref="C69" r:id="rId142" xr:uid="{AAEB8AD8-3D96-47F7-8DD5-0AA8EA5E26CB}"/>
-    <hyperlink ref="F69" r:id="rId143" xr:uid="{187C6529-4C3F-4695-A8C9-9622BEC6CB85}"/>
-    <hyperlink ref="C70" r:id="rId144" xr:uid="{11ECD5B4-4B5A-4427-B437-28C9E54DDAD0}"/>
-    <hyperlink ref="F70" r:id="rId145" xr:uid="{D5F85D1F-9D78-4046-8235-5240289FBEA2}"/>
-    <hyperlink ref="C71" r:id="rId146" display="https://cloud.hiksemi.cn/web/clientdownload/download.html" xr:uid="{7A6D7781-EE40-4046-BE8B-11991D94D4BF}"/>
-    <hyperlink ref="F71" r:id="rId147" xr:uid="{BC576B5A-876D-4331-B1FE-9D36849D069C}"/>
-    <hyperlink ref="C72" r:id="rId148" xr:uid="{BE36C470-83D8-4168-8D4B-E2C7A8A54B78}"/>
-    <hyperlink ref="F72" r:id="rId149" xr:uid="{46679E6E-4168-4D96-939C-49A9A1589A68}"/>
-    <hyperlink ref="C73" r:id="rId150" xr:uid="{0B10E583-054D-4383-8075-2D1E19491711}"/>
-    <hyperlink ref="F73" r:id="rId151" xr:uid="{C558C20D-46FE-406F-9F36-C62F61EA3E75}"/>
-    <hyperlink ref="C74" r:id="rId152" xr:uid="{4329E7E8-4295-40A8-8EA1-1C29CF42C142}"/>
-    <hyperlink ref="F74" r:id="rId153" xr:uid="{C9778ED0-B043-4572-859E-6F0B507B1B41}"/>
-    <hyperlink ref="C75" r:id="rId154" tooltip="https://gitee.com/viarotel-org/escrcpy/releases" xr:uid="{161C165E-65F0-4CAD-8D9C-1C3097BFD42A}"/>
-    <hyperlink ref="C76" r:id="rId155" xr:uid="{FFC7ED4D-9A13-46A9-BCE5-730D46B090CF}"/>
-    <hyperlink ref="F76" r:id="rId156" xr:uid="{63566D31-BD97-46ED-AD37-B1F23F124F19}"/>
-    <hyperlink ref="C77" r:id="rId157" tooltip="https://limestart.cn/intro" xr:uid="{3F176B78-7AC2-4D48-B6BA-0CCBA46EDCFC}"/>
-    <hyperlink ref="F77" r:id="rId158" xr:uid="{12BD876A-C0AB-443B-AF18-C419564038C8}"/>
-    <hyperlink ref="C78" r:id="rId159" xr:uid="{CFA37196-298B-443E-B492-9E48AA07D8FE}"/>
-    <hyperlink ref="F78" r:id="rId160" xr:uid="{62927C3C-1636-4D31-BB17-EB5E55E1E630}"/>
-    <hyperlink ref="C79" r:id="rId161" xr:uid="{BFE36F83-B1F8-41DC-82AA-A60FB1325128}"/>
-    <hyperlink ref="F79" r:id="rId162" xr:uid="{8D87F79A-512C-45A9-946E-98F94A4AB605}"/>
-    <hyperlink ref="C80" r:id="rId163" tooltip="https://www.wetab.link" display="https://www.wetab.link/" xr:uid="{43CA01DC-364C-49EB-8907-E984AF33369C}"/>
-    <hyperlink ref="F80" r:id="rId164" xr:uid="{D9D0555E-C929-46AF-B18C-45E4429F7706}"/>
-    <hyperlink ref="C81" r:id="rId165" xr:uid="{35202DDC-3113-4095-B13D-937AE3F63188}"/>
-    <hyperlink ref="F81" r:id="rId166" xr:uid="{A3E6915A-939B-4865-9C2E-E7458967C310}"/>
-    <hyperlink ref="C82" r:id="rId167" xr:uid="{44E89D4F-0DBB-4FB5-B155-7FE8369456B2}"/>
-    <hyperlink ref="F82" r:id="rId168" xr:uid="{80F5A5DF-38F0-462A-8124-F0CEA42B2BB4}"/>
-    <hyperlink ref="C83" r:id="rId169" xr:uid="{D2C6B0C4-3139-42D4-BAAB-0009CF3349BC}"/>
-    <hyperlink ref="F83" r:id="rId170" xr:uid="{1E0F2CBB-1261-459E-8BAA-8C754AB5FC31}"/>
-    <hyperlink ref="C84" r:id="rId171" xr:uid="{41BF1A08-DC39-4841-8991-73E7BE752EA2}"/>
-    <hyperlink ref="F84" r:id="rId172" xr:uid="{CD8AC20F-D265-4BB5-B9D8-85F21E4479AC}"/>
-    <hyperlink ref="C85" r:id="rId173" xr:uid="{9AEB7134-4F37-47F8-BFF3-301847E0B91C}"/>
-    <hyperlink ref="F85" r:id="rId174" xr:uid="{9EB151F4-DAC4-4452-8D2A-CE2B8EA423DF}"/>
-    <hyperlink ref="C86" r:id="rId175" xr:uid="{5060A365-5230-403B-BE95-0F80DDE7AF02}"/>
-    <hyperlink ref="F86" r:id="rId176" xr:uid="{2411BE2B-69BA-41C7-8F35-012B65E8D847}"/>
-    <hyperlink ref="C87" r:id="rId177" xr:uid="{07D3CFA7-A4F3-4A2C-8463-A2593F6DC8F8}"/>
-    <hyperlink ref="F87" r:id="rId178" xr:uid="{7A8F749E-771F-4D22-9208-2A01352A1F26}"/>
-    <hyperlink ref="C88" r:id="rId179" xr:uid="{FD594D84-F500-4AA0-A69E-17C9257918CE}"/>
-    <hyperlink ref="F88" r:id="rId180" xr:uid="{D0A19E79-8AB6-46F7-8959-C407EF612D9B}"/>
-    <hyperlink ref="C89" r:id="rId181" xr:uid="{CAAFC5D7-F307-425B-88BF-90BEC6EA0266}"/>
-    <hyperlink ref="F89" r:id="rId182" xr:uid="{3237EC3E-7A82-4524-878E-B651F9B49001}"/>
-    <hyperlink ref="C90" r:id="rId183" xr:uid="{C20B41C0-2C5E-4E2E-9770-FE587EB98D34}"/>
-    <hyperlink ref="F90" r:id="rId184" xr:uid="{DFB7102F-15A6-48FB-A4EA-A13AF3BF2D79}"/>
-    <hyperlink ref="C91" r:id="rId185" xr:uid="{DC8FAA1F-E3F9-4089-98F8-15BE258E3037}"/>
-    <hyperlink ref="F91" r:id="rId186" xr:uid="{D4D6B693-748A-40ED-BD0D-D3D431BA26DA}"/>
-    <hyperlink ref="C92" r:id="rId187" xr:uid="{CA52B1E2-6F04-4C8A-A464-B0C454D81FA7}"/>
-    <hyperlink ref="F92" r:id="rId188" xr:uid="{29932A56-6A04-4DC6-98F8-CF9F94BA7C9A}"/>
-    <hyperlink ref="C93" r:id="rId189" xr:uid="{AB4C56C1-42C2-4B18-99C7-734ADBD0106D}"/>
-    <hyperlink ref="F93" r:id="rId190" xr:uid="{3CC7A3E4-430C-4A32-B756-AE8596673780}"/>
-    <hyperlink ref="C94" r:id="rId191" display="https://www.ruanyifeng.com/blog/" xr:uid="{3309F92F-64D9-4210-A75B-8F8DA6CE40E8}"/>
-    <hyperlink ref="F94" r:id="rId192" xr:uid="{D9D85C83-37F4-49E8-A7D7-43EF2C188A49}"/>
-    <hyperlink ref="C95" r:id="rId193" display="https://toolight.zhubai.love/" xr:uid="{2A3CD216-8731-4847-8655-D0CE0766BF1E}"/>
-    <hyperlink ref="F95" r:id="rId194" xr:uid="{B299DB2F-A3BD-4765-B286-D564FF418720}"/>
-    <hyperlink ref="C96" r:id="rId195" xr:uid="{260DD552-2B9A-44AA-8722-0A51D1A353C5}"/>
-    <hyperlink ref="F96" r:id="rId196" xr:uid="{B4B8C629-786E-42EF-A0F5-8E8F9A476604}"/>
-    <hyperlink ref="C97" r:id="rId197" display="https://hao.logosc.cn/" xr:uid="{210565BC-F651-4D14-9236-3B9D96498CDD}"/>
-    <hyperlink ref="F97" r:id="rId198" xr:uid="{02A993D4-85F3-4D29-9EA4-A8BBB6575212}"/>
-    <hyperlink ref="C98" r:id="rId199" display="https://www.xinquji.com/" xr:uid="{525884DF-3AE9-4035-9926-79269CCC8B0C}"/>
-    <hyperlink ref="F98" r:id="rId200" xr:uid="{B31C80D8-302F-4A1F-907E-B02CD79001E9}"/>
-    <hyperlink ref="C99" r:id="rId201" xr:uid="{A4A5F16A-ABA3-473C-BDF9-B095911AEDC7}"/>
-    <hyperlink ref="F99" r:id="rId202" xr:uid="{0F20ADCB-CE96-4686-B676-7448DFDE05F6}"/>
-    <hyperlink ref="C100" r:id="rId203" xr:uid="{56F68A04-DF4C-4C5B-BD36-A7312EE2B347}"/>
-    <hyperlink ref="F100" r:id="rId204" xr:uid="{E3ADA3D9-490E-415B-A463-6E29C4151FE5}"/>
-    <hyperlink ref="C101" r:id="rId205" xr:uid="{C1989EAF-C167-411F-A585-8DCD5C6D2D2E}"/>
-    <hyperlink ref="F101" r:id="rId206" xr:uid="{80E2C54A-2620-484C-9679-53B1322D2ACB}"/>
-    <hyperlink ref="C102" r:id="rId207" display="https://halo.run/" xr:uid="{F19AC6A3-A1B1-4816-B776-686DD2CB180B}"/>
-    <hyperlink ref="F102" r:id="rId208" xr:uid="{2A27B2F6-BAC3-4936-BE21-47B2DA17F264}"/>
-    <hyperlink ref="C103" r:id="rId209" display="https://cn.wordpress.org/" xr:uid="{E9B97FCA-088A-40AF-8047-6CE84EAA2D2E}"/>
-    <hyperlink ref="F103" r:id="rId210" tooltip="https://s.w.org/favicon.ico?2" xr:uid="{C0FEF794-F90B-4221-9A81-C211642620E6}"/>
-    <hyperlink ref="C104" r:id="rId211" display="https://1panel.cn/" xr:uid="{CAA7A461-7F5D-44F8-B5F3-EA4FC4DD9A2D}"/>
-    <hyperlink ref="F104" r:id="rId212" xr:uid="{556847AE-2EB6-40A9-87A9-552DE1AEE941}"/>
-    <hyperlink ref="C105" r:id="rId213" xr:uid="{28B76494-3A80-45EB-B83A-96D7D6424F1D}"/>
-    <hyperlink ref="F105" r:id="rId214" xr:uid="{2BBFA5F3-D284-4DEF-BE99-0FE1B8ADBB50}"/>
-    <hyperlink ref="C106" r:id="rId215" xr:uid="{A9B98FA2-6E2F-4631-9CED-B47E1F0BEA33}"/>
-    <hyperlink ref="F106" r:id="rId216" xr:uid="{47EFC0B8-1C43-4674-A8F7-B944DFDA013E}"/>
-    <hyperlink ref="C107" r:id="rId217" xr:uid="{7B69E429-FCAC-4C9D-953F-541BEA96709D}"/>
-    <hyperlink ref="F107" r:id="rId218" xr:uid="{53052492-471B-4ED9-AA45-82D306D7F8A1}"/>
-    <hyperlink ref="C108" r:id="rId219" xr:uid="{E5319CC7-4AB4-4DC5-A955-DED956746E73}"/>
-    <hyperlink ref="F108" r:id="rId220" xr:uid="{075E3B19-D004-43ED-93C7-9F0A2B9C87A4}"/>
-    <hyperlink ref="C109" r:id="rId221" xr:uid="{533B4A52-55A9-415C-AED3-11DFBC3016B9}"/>
-    <hyperlink ref="F109" r:id="rId222" xr:uid="{ABE7F4E8-43DE-43A4-993A-7D6CDD9FD7A5}"/>
-    <hyperlink ref="C110" r:id="rId223" xr:uid="{CA677F2A-1604-4A82-878C-30432DE5A888}"/>
-    <hyperlink ref="F110" r:id="rId224" xr:uid="{4B5A7B4E-917B-4373-9AEA-204118748577}"/>
-    <hyperlink ref="C111" r:id="rId225" xr:uid="{C233E780-0AE3-4CCB-903E-AEBDC2FB544B}"/>
-    <hyperlink ref="F111" r:id="rId226" xr:uid="{57D934CC-7DC3-4908-9D71-A7F3E8488E75}"/>
-    <hyperlink ref="C112" r:id="rId227" xr:uid="{1D14A19E-8CF3-4D1C-8CA3-5127A21F6946}"/>
-    <hyperlink ref="C113" r:id="rId228" xr:uid="{91AE04BE-7513-4895-9CBF-AF12C6964B47}"/>
-    <hyperlink ref="F113" r:id="rId229" xr:uid="{0604556C-0F95-4A99-9441-3C0B47D688EE}"/>
-    <hyperlink ref="C114" r:id="rId230" display="https://www.superbed.cn/" xr:uid="{BDD861A8-813D-4CA8-A906-0CC94FDD2D6C}"/>
-    <hyperlink ref="F114" r:id="rId231" xr:uid="{59D1C061-3414-4BC8-BFB3-4483224510B1}"/>
-    <hyperlink ref="C115" r:id="rId232" xr:uid="{56819C25-CE75-4E43-A556-5855C36675F3}"/>
-    <hyperlink ref="F115" r:id="rId233" xr:uid="{E34619FC-78A6-42AD-9DAD-D91F8F79AD30}"/>
-    <hyperlink ref="C116" r:id="rId234" xr:uid="{1C6A928B-7446-4E25-AE42-69AEBED9E5DD}"/>
-    <hyperlink ref="F116" r:id="rId235" xr:uid="{327F9516-94D8-4519-B984-B700670B628A}"/>
-    <hyperlink ref="C117" r:id="rId236" xr:uid="{070E6410-4AFE-463D-88BB-268516C1CF4F}"/>
-    <hyperlink ref="F117" r:id="rId237" xr:uid="{AF52B67F-57FD-49FC-A7C0-86A401DD6288}"/>
-    <hyperlink ref="C118" r:id="rId238" xr:uid="{6C4124BE-14B7-4C99-B956-1656C1AF063D}"/>
-    <hyperlink ref="F118" r:id="rId239" tooltip="https://www.locimg.com/favicon.ico" xr:uid="{B8E60987-6094-4756-B3EB-A63F4EBA5083}"/>
-    <hyperlink ref="C119" r:id="rId240" xr:uid="{EA0FD1B1-5EB7-4FE8-90B5-0060BEF4AC42}"/>
-    <hyperlink ref="F119" r:id="rId241" xr:uid="{1031CB99-E490-4BF3-ADAC-3ABFBE11EAC1}"/>
-    <hyperlink ref="C120" r:id="rId242" xr:uid="{085AB879-CEA9-419A-9948-7D8573BABF23}"/>
-    <hyperlink ref="F120" r:id="rId243" xr:uid="{7C1F06D3-D972-4828-BF1D-BA97DCDCCDCD}"/>
-    <hyperlink ref="C121" r:id="rId244" xr:uid="{B7162BB1-22A6-44F1-93D1-AF13D404639A}"/>
-    <hyperlink ref="F121" r:id="rId245" xr:uid="{A58E4B3E-2E7B-41DA-BD8C-20CB04EC7732}"/>
-    <hyperlink ref="C122" r:id="rId246" xr:uid="{35FD0EB5-EFB0-4BF2-A48A-DA2ACE3E16EE}"/>
-    <hyperlink ref="F122" r:id="rId247" xr:uid="{1FA32EF7-8A4D-4B71-9CE1-1F8EA9F10FEB}"/>
-    <hyperlink ref="C123" r:id="rId248" xr:uid="{E6ADEB76-DAB5-41DD-BA45-31FB947A73C2}"/>
-    <hyperlink ref="F123" r:id="rId249" xr:uid="{3E66BFD8-4199-43B2-A765-A2B8A08E9D24}"/>
-    <hyperlink ref="C124" r:id="rId250" xr:uid="{27E5438E-A4ED-4AF3-A41F-AA5FEFD740C2}"/>
-    <hyperlink ref="F124" r:id="rId251" xr:uid="{578BCEAE-628B-4176-90C8-760AF4F7E896}"/>
-    <hyperlink ref="C125" r:id="rId252" tooltip="https://hellogithub.com/" xr:uid="{BC96384C-E062-4745-8B46-FF143301D031}"/>
-    <hyperlink ref="F125" r:id="rId253" xr:uid="{9DA0427D-AA50-440A-A09D-1B8E10D2488B}"/>
-    <hyperlink ref="H125" r:id="rId254" xr:uid="{69286C64-7239-4ED8-A0D1-1F91E7327959}"/>
-    <hyperlink ref="C126" r:id="rId255" xr:uid="{937CC7D0-FC97-4987-A3AC-D8C837CA2099}"/>
-    <hyperlink ref="F126" r:id="rId256" xr:uid="{742D9217-AF8A-4825-8F7B-F52126F5AD2A}"/>
-    <hyperlink ref="H126" r:id="rId257" xr:uid="{33731297-EFD3-4970-AE88-5C15263253C6}"/>
-    <hyperlink ref="C127" r:id="rId258" xr:uid="{45A7DE6D-E908-4ABA-B782-F8C57830369F}"/>
-    <hyperlink ref="F127" r:id="rId259" xr:uid="{F144B3A3-2C1B-4937-B090-E21ED2432575}"/>
-    <hyperlink ref="C128" r:id="rId260" xr:uid="{E7F0E8DB-006D-4E1C-A80E-455BEBB59579}"/>
-    <hyperlink ref="F128" r:id="rId261" xr:uid="{5918D08E-DA2B-4737-BB06-5B3DFBC3FE95}"/>
-    <hyperlink ref="C129" r:id="rId262" display="https://stackedit.cn/app" xr:uid="{7E08128F-00FF-4D33-B582-A8DD345343FC}"/>
-    <hyperlink ref="F129" r:id="rId263" xr:uid="{A39EDD5E-B6CF-4A77-A88D-A27F2742979D}"/>
-    <hyperlink ref="C130" r:id="rId264" xr:uid="{7A856D99-ACD0-47CF-8226-1F01A99745BA}"/>
-    <hyperlink ref="F130" r:id="rId265" xr:uid="{6D475F18-BB52-4E72-B2BA-7BC2F573FFF6}"/>
-    <hyperlink ref="C131" r:id="rId266" xr:uid="{CAC12F90-1597-49C2-9B7D-DC1F7D167E46}"/>
-    <hyperlink ref="F131" r:id="rId267" tooltip="https://editor.mdnice.com/favicon.svg" xr:uid="{62709D09-2083-407D-9B13-E26CAD1C1D7A}"/>
-    <hyperlink ref="C132" r:id="rId268" xr:uid="{9965ADCD-3FDE-425F-B4E6-DDBBDA8E373C}"/>
-    <hyperlink ref="F132" r:id="rId269" xr:uid="{B82F7D95-B74B-4F5D-AC09-F450FF14F33C}"/>
-    <hyperlink ref="C133" r:id="rId270" xr:uid="{800AE388-9BBB-461F-9AF3-AAD9571A1600}"/>
-    <hyperlink ref="F133" r:id="rId271" xr:uid="{D0F595AE-1BE4-4DB7-A864-FD2A43C37CA3}"/>
-    <hyperlink ref="C134" r:id="rId272" display="https://ttsmaker.cn/" xr:uid="{20722E72-821B-4BF9-B0A7-129A09F78AC2}"/>
-    <hyperlink ref="F134" r:id="rId273" xr:uid="{A93A735E-F0EF-4972-A82E-A3EDB9B5A3EB}"/>
-    <hyperlink ref="C135" r:id="rId274" display="https://qrbtf.com/" xr:uid="{D5D3B812-F606-4D3C-A5FF-09C280BEC943}"/>
-    <hyperlink ref="F135" r:id="rId275" xr:uid="{A1B0F630-BFAC-4DBA-A2E2-81DEE03DE163}"/>
-    <hyperlink ref="C136" r:id="rId276" xr:uid="{C185546C-30B1-4A6D-ACED-F242CD89983F}"/>
-    <hyperlink ref="F136" r:id="rId277" xr:uid="{1C097F23-2D36-4BD9-ACC6-9B53B014D827}"/>
-    <hyperlink ref="C137" r:id="rId278" display="https://www.weiciyun.com/" xr:uid="{85FAAE80-402F-4BF9-8344-D8D614F7A82E}"/>
-    <hyperlink ref="F137" r:id="rId279" xr:uid="{EF6AE2A5-24FF-4081-A94D-B99A7D2160DB}"/>
-    <hyperlink ref="C138" r:id="rId280" display="https://vscode.dev/" xr:uid="{20B8DFB5-1DF1-4EFC-AFEA-E23A9A3F673F}"/>
-    <hyperlink ref="F138" r:id="rId281" xr:uid="{586584C3-E887-4853-B3C0-917E8F40ED36}"/>
-    <hyperlink ref="C139" r:id="rId282" xr:uid="{90DB6B76-F513-493D-9D0C-19520108E08E}"/>
-    <hyperlink ref="F139" r:id="rId283" xr:uid="{3D66D8B0-E5BD-45E6-9D43-B786673FA320}"/>
-    <hyperlink ref="C140" r:id="rId284" xr:uid="{4294C163-F662-48F6-A17E-36DC1B82CCF7}"/>
-    <hyperlink ref="F140" r:id="rId285" xr:uid="{5C7D2B03-214C-43E6-A4DF-56DA73F42306}"/>
-    <hyperlink ref="C141" r:id="rId286" xr:uid="{D73F13DA-0C22-4EE8-9CC8-AE506EB839E2}"/>
-    <hyperlink ref="F141" r:id="rId287" xr:uid="{84A36DBB-8351-469E-85C7-B37FEFFA3D7C}"/>
-    <hyperlink ref="C142" r:id="rId288" xr:uid="{C79C7F77-4BD5-4A29-B347-D9D16103488F}"/>
-    <hyperlink ref="F142" r:id="rId289" xr:uid="{9ED7A141-6C7F-4DB3-95B0-6B3710162317}"/>
-    <hyperlink ref="C143" r:id="rId290" xr:uid="{F627D217-15B3-4111-87C3-0FB4D237FFB0}"/>
-    <hyperlink ref="C144" r:id="rId291" xr:uid="{6A5F2B5B-BA29-461D-B1D8-71D28CDF83DC}"/>
-    <hyperlink ref="C145" r:id="rId292" xr:uid="{3DBB12C0-46E5-49DB-A573-C55F2A3F613C}"/>
-    <hyperlink ref="F145" r:id="rId293" xr:uid="{0EB3D014-22F1-4AB9-90A4-BCC6ACB79616}"/>
-    <hyperlink ref="C146" r:id="rId294" xr:uid="{69E7A8DA-0350-4164-9B71-8A758B07850F}"/>
-    <hyperlink ref="F146" r:id="rId295" tooltip="https://markdown.com.cn/editor/favicon.svg" xr:uid="{65A4BD06-8092-41B1-8F72-8D8CB9402108}"/>
-    <hyperlink ref="C147" r:id="rId296" xr:uid="{05F08ED4-6BDD-4C03-8238-F5B8A0C8215C}"/>
-    <hyperlink ref="F147" r:id="rId297" xr:uid="{52EC9904-E41A-4620-A1F9-121FF54B5228}"/>
-    <hyperlink ref="C148" r:id="rId298" xr:uid="{6A893998-CFE2-465C-8A93-BB9C83211F2C}"/>
-    <hyperlink ref="F148" r:id="rId299" xr:uid="{26177CC9-F668-453F-9242-8649DBC33CC4}"/>
-    <hyperlink ref="C149" r:id="rId300" xr:uid="{F075C8E7-ADDB-45CA-A90D-22C64A1CC082}"/>
-    <hyperlink ref="F149" r:id="rId301" xr:uid="{0E67A482-64AC-4F5E-A545-4E6ADEF69D37}"/>
-    <hyperlink ref="C150" r:id="rId302" xr:uid="{728277F7-EF7D-4CF5-BEDC-1E01D2C7E4AD}"/>
-    <hyperlink ref="F150" r:id="rId303" xr:uid="{FD169A84-0E3B-4423-8849-4633F7A50A1C}"/>
-    <hyperlink ref="C151" r:id="rId304" xr:uid="{63D51CC9-FCA6-4BDF-80FD-D76424957066}"/>
-    <hyperlink ref="F151" r:id="rId305" xr:uid="{B029601B-C608-432B-8C2C-B89C0855ABE6}"/>
-    <hyperlink ref="C152" r:id="rId306" xr:uid="{9060382E-947A-41A8-9CE6-EE8239B1286F}"/>
-    <hyperlink ref="F152" r:id="rId307" xr:uid="{E6C36717-3684-4D93-994A-BB2D4A1E3ACB}"/>
-    <hyperlink ref="C153" r:id="rId308" xr:uid="{6ED4FF97-CF40-4673-8B2C-814BF6FE4274}"/>
-    <hyperlink ref="F153" r:id="rId309" xr:uid="{30C9F07F-5302-4204-B679-DEFF813C9463}"/>
-    <hyperlink ref="C154" r:id="rId310" xr:uid="{1953AC12-7A1A-41D8-96A1-0B0F94D3531B}"/>
-    <hyperlink ref="F154" r:id="rId311" xr:uid="{84367CA0-E0CB-425E-AC02-115C6668E51D}"/>
-    <hyperlink ref="C155" r:id="rId312" xr:uid="{D34304DA-2A6D-474A-983B-861D2FA59195}"/>
-    <hyperlink ref="F155" r:id="rId313" xr:uid="{5E7BB4E7-003B-4453-80EC-F0FB6EDBE111}"/>
-    <hyperlink ref="C156" r:id="rId314" xr:uid="{002A8106-5153-4099-8C1E-52FBCA81A1BF}"/>
-    <hyperlink ref="F156" r:id="rId315" xr:uid="{DD3FFAEB-460B-447D-B08E-CABCE47DF144}"/>
-    <hyperlink ref="C157" r:id="rId316" xr:uid="{AFFD35D0-6729-4E7E-AEAD-764D269AC2B4}"/>
-    <hyperlink ref="F157" r:id="rId317" xr:uid="{A5788E5C-3861-42D9-A201-2B285E3CF0D9}"/>
-    <hyperlink ref="C158" r:id="rId318" xr:uid="{A536AB24-0D60-4BC1-9691-0A164A8596B5}"/>
-    <hyperlink ref="F158" r:id="rId319" xr:uid="{F6428274-9F21-4553-9D8D-01CBE301AC3E}"/>
-    <hyperlink ref="C159" r:id="rId320" xr:uid="{AC89DBCA-2F77-45CC-A566-661E1D0FB5E5}"/>
-    <hyperlink ref="F159" r:id="rId321" xr:uid="{7F3E7A8E-F6C2-4A52-A30B-1E3507A2053A}"/>
-    <hyperlink ref="C160" r:id="rId322" location="/" display="https://pearmini.github.io/colorfu/ - /" xr:uid="{DEDEB862-350B-45D0-B4AE-5E3377C84410}"/>
-    <hyperlink ref="F160" r:id="rId323" xr:uid="{B02FA23D-1C7F-4702-B22F-DD23AE84CB8A}"/>
-    <hyperlink ref="C161" r:id="rId324" xr:uid="{D282B0F6-D779-40CD-B20D-162EE895C7B6}"/>
-    <hyperlink ref="F161" r:id="rId325" xr:uid="{55E26539-6DDC-4A8A-B877-FB4376050045}"/>
-    <hyperlink ref="C162" r:id="rId326" xr:uid="{C975A716-94CD-47EE-985B-81101855B983}"/>
-    <hyperlink ref="F162" r:id="rId327" xr:uid="{DC98B96F-F594-4AAD-8F7F-8A8415F5D85B}"/>
-    <hyperlink ref="C163" r:id="rId328" xr:uid="{EA357549-AAA8-4D81-84E8-8E409EBB62C2}"/>
-    <hyperlink ref="F163" r:id="rId329" xr:uid="{C1CA5F20-2D05-49B7-8110-C1A0C66A53A3}"/>
-    <hyperlink ref="C164" r:id="rId330" xr:uid="{E6DC77B7-B051-473A-8E7E-4FA3D6E3D85C}"/>
-    <hyperlink ref="F164" r:id="rId331" xr:uid="{064B4F96-BD54-41E5-A66E-83514CAA9E98}"/>
-    <hyperlink ref="C165" r:id="rId332" xr:uid="{7882AAF1-8D91-41B7-B809-CF1E726A1B97}"/>
-    <hyperlink ref="C166" r:id="rId333" xr:uid="{7F2F62A1-43B9-4CF6-9E72-23AF2347229C}"/>
-    <hyperlink ref="F166" r:id="rId334" xr:uid="{F6E97487-05FF-41D0-B081-77529BA86AAA}"/>
-    <hyperlink ref="C167" r:id="rId335" xr:uid="{195D5717-5074-4832-A71A-E0ED506E1331}"/>
-    <hyperlink ref="F167" r:id="rId336" xr:uid="{EBA41134-22A0-418B-B1A5-70B98615C668}"/>
-    <hyperlink ref="C168" r:id="rId337" tooltip="https://ezpic.fun/zh" xr:uid="{2F411751-A327-46D7-84CC-DBABB3921E78}"/>
-    <hyperlink ref="F168" r:id="rId338" tooltip="https://ezpic.fun/favicon-48.png" xr:uid="{F999AE13-149F-4533-8D9D-5BDC61B745A1}"/>
-    <hyperlink ref="C169" r:id="rId339" xr:uid="{8285DE4A-2913-4C93-BDA0-B2FD9547FC60}"/>
-    <hyperlink ref="F169" r:id="rId340" xr:uid="{272FB0CD-8D0E-499D-9F27-DB700FC4C40A}"/>
-    <hyperlink ref="C170" r:id="rId341" xr:uid="{C3D6ACC5-7BC1-4FAE-BED2-5940F85DDA7F}"/>
-    <hyperlink ref="F170" r:id="rId342" xr:uid="{493E01D5-1912-4BFF-8DCA-B4628726C107}"/>
-    <hyperlink ref="C171" r:id="rId343" xr:uid="{BE633CDD-E1D8-41A7-87FC-7126E70CFEE6}"/>
-    <hyperlink ref="F171" r:id="rId344" xr:uid="{F98274F0-F9B9-40D2-9466-EAB7F5EDBF20}"/>
-    <hyperlink ref="C172" r:id="rId345" xr:uid="{E80D2A57-AAE8-4AB9-8050-B8047DED8AEC}"/>
-    <hyperlink ref="F172" r:id="rId346" xr:uid="{974D026A-259F-4166-AAF3-AD0E78812A0F}"/>
-    <hyperlink ref="C173" r:id="rId347" xr:uid="{68203AC7-170D-457A-ACFE-6DE432E09DFF}"/>
-    <hyperlink ref="F173" r:id="rId348" xr:uid="{BB7CCAA0-4DFE-429B-89ED-B1BAB77AF35B}"/>
-    <hyperlink ref="C174" r:id="rId349" xr:uid="{F1680EF0-354B-4207-9765-2AF73326C09A}"/>
-    <hyperlink ref="F174" r:id="rId350" xr:uid="{4B01DDC6-F481-4F86-87A0-DB2AAE28FBDC}"/>
-    <hyperlink ref="C175" r:id="rId351" xr:uid="{2F751B4B-C5A8-4F7A-8768-B4B2C23270C3}"/>
-    <hyperlink ref="F175" r:id="rId352" xr:uid="{187C627D-C8D2-48C6-8A10-363F3F47ACA5}"/>
-    <hyperlink ref="C176" r:id="rId353" xr:uid="{B463C013-F33B-4140-AD19-E1C6363E1406}"/>
-    <hyperlink ref="F176" r:id="rId354" xr:uid="{3EDEF4F4-EE19-4CBB-B4B6-72954DBC4ACC}"/>
-    <hyperlink ref="C177" r:id="rId355" xr:uid="{66D02CF5-2168-4318-8DC2-680D71C94365}"/>
-    <hyperlink ref="F177" r:id="rId356" xr:uid="{D3B99091-7906-4554-96A4-4FDE9F5D797F}"/>
-    <hyperlink ref="C178" r:id="rId357" xr:uid="{6CB7EE5B-6DBF-4AAF-AFA6-928823507F30}"/>
-    <hyperlink ref="F178" r:id="rId358" xr:uid="{CB2ED943-798A-4CA2-A034-0AA53A83CADE}"/>
-    <hyperlink ref="C179" r:id="rId359" tooltip="https://www.ilovepdf.com/zh-cn" xr:uid="{C182F3AE-A318-40B2-BC09-19B16970742F}"/>
-    <hyperlink ref="F179" r:id="rId360" xr:uid="{6F176095-6E3E-4442-8BF0-C5B8A03450A6}"/>
-    <hyperlink ref="C180" r:id="rId361" xr:uid="{D151E66F-3EA7-489B-8182-61F2D10CC74D}"/>
-    <hyperlink ref="F180" r:id="rId362" xr:uid="{674A1507-6591-44C9-BCC1-BAB246E6D9E9}"/>
-    <hyperlink ref="C181" r:id="rId363" xr:uid="{261154F4-A1EE-4A17-A3D8-0625B5C77D25}"/>
-    <hyperlink ref="F181" r:id="rId364" xr:uid="{AE74C883-0526-43DA-A2D7-51D8CD39080E}"/>
-    <hyperlink ref="C182" r:id="rId365" xr:uid="{44D9573A-ED15-4B3A-8674-E8FA19A4620F}"/>
-    <hyperlink ref="F182" r:id="rId366" xr:uid="{175FC680-B6C7-4B57-880E-EFF3141A4557}"/>
-    <hyperlink ref="C183" r:id="rId367" xr:uid="{5C598019-E1AA-45C2-A536-7B345FD341D0}"/>
-    <hyperlink ref="C184" r:id="rId368" xr:uid="{8FDFA913-C500-4337-A178-EEE0A6A88C43}"/>
-    <hyperlink ref="F184" r:id="rId369" xr:uid="{75019F2A-A280-4BF2-BB25-4584172D5CAB}"/>
-    <hyperlink ref="H184" r:id="rId370" xr:uid="{6D372031-3EBD-4DAB-8752-94872F16241C}"/>
-    <hyperlink ref="C185" r:id="rId371" display="https://磁力狗.xyz/" xr:uid="{7268166E-58A8-4B55-A10E-C90C17452D2E}"/>
-    <hyperlink ref="F185" r:id="rId372" xr:uid="{85EDD779-E180-4910-82B8-61F944D70AEC}"/>
-    <hyperlink ref="C186" r:id="rId373" tooltip="https://xn--yets15cv4k.com/" xr:uid="{77B53CBF-4F18-4042-8DDD-894A4A582864}"/>
-    <hyperlink ref="H186" r:id="rId374" display="https://小花猫.com/" xr:uid="{24BA16AA-6217-4569-B1BB-2E29CA666A35}"/>
-    <hyperlink ref="C187" r:id="rId375" xr:uid="{871EE252-497D-40A7-9AE0-7785D30E5CDA}"/>
-    <hyperlink ref="F187" r:id="rId376" xr:uid="{124BE5B0-D121-4318-B3F5-7726D73A8B97}"/>
-    <hyperlink ref="C188" r:id="rId377" xr:uid="{7A75F52E-3418-43DF-8195-17FB7BA917EA}"/>
-    <hyperlink ref="F188" r:id="rId378" xr:uid="{660E7999-22AA-4F86-B571-48E4026C9FA0}"/>
-    <hyperlink ref="C189" r:id="rId379" xr:uid="{F0EF40F1-65C3-4CB4-B98F-2C8E26D2DDAD}"/>
-    <hyperlink ref="F189" r:id="rId380" xr:uid="{DC139D50-A241-4B43-A06A-C8C6B19D2FC2}"/>
-    <hyperlink ref="C190" r:id="rId381" xr:uid="{0A7360D9-A96E-4616-9838-4297CE2400EA}"/>
-    <hyperlink ref="F190" r:id="rId382" xr:uid="{783AD5D2-7111-4888-B664-64AF4031BA3A}"/>
-    <hyperlink ref="H190" r:id="rId383" xr:uid="{470A650F-9EC9-459A-AACF-C9A1EDE1F543}"/>
-    <hyperlink ref="C191" r:id="rId384" xr:uid="{245A9C98-6AF2-40CA-AB62-2431777F0D3A}"/>
-    <hyperlink ref="F191" r:id="rId385" xr:uid="{4DE708D4-BB26-415D-8EEE-5391FF3990DD}"/>
-    <hyperlink ref="H191" r:id="rId386" xr:uid="{8F63F421-5FD5-4233-9952-B87128943294}"/>
-    <hyperlink ref="C192" r:id="rId387" xr:uid="{46874604-A39B-4A2A-856A-E9FFCB93EF15}"/>
-    <hyperlink ref="F192" r:id="rId388" xr:uid="{34DCBBD2-93EC-4AC1-BAE4-CF8D7A6DF68D}"/>
-    <hyperlink ref="C193" r:id="rId389" xr:uid="{82952561-5B3C-48F1-82A4-F8F21F72CB98}"/>
-    <hyperlink ref="F193" r:id="rId390" tooltip="https://docs.gtimg.com/docs-design-resources/history/png@2x/brand_logo@2x-fcdb753a44.png" xr:uid="{8E91A97E-A117-4005-8F2D-2ECE667065E4}"/>
-    <hyperlink ref="C194" r:id="rId391" xr:uid="{683D423D-73F7-45A5-B692-700DB0915F14}"/>
-    <hyperlink ref="G194" r:id="rId392" xr:uid="{DF556512-4FD9-40B5-8293-61C13B68D0A8}"/>
-    <hyperlink ref="C195" r:id="rId393" xr:uid="{372239D7-0684-4494-9D0E-E1E95A08AB61}"/>
-    <hyperlink ref="F195" r:id="rId394" xr:uid="{09989927-5CC0-4646-9E66-F4F42C9AB059}"/>
-    <hyperlink ref="C196" r:id="rId395" xr:uid="{556492E2-E11F-465E-92D9-5088AA37167B}"/>
-    <hyperlink ref="C197" r:id="rId396" xr:uid="{8AFF285D-92D0-4EB4-9985-171643B22E5A}"/>
-    <hyperlink ref="F197" r:id="rId397" xr:uid="{DC77EB7A-02D8-4E04-B98F-19767C7620E5}"/>
-    <hyperlink ref="C198" r:id="rId398" xr:uid="{5F3C9101-875E-463C-9E61-AD5251845106}"/>
-    <hyperlink ref="C199" r:id="rId399" tooltip="https://webgames.fun/zh/" xr:uid="{E3CB1A6A-DDF0-4824-BB42-F322E0F91E91}"/>
-    <hyperlink ref="F199" r:id="rId400" xr:uid="{AAAB02A5-BD37-49F0-AFBF-AD67D9EE7CBE}"/>
-    <hyperlink ref="C200" r:id="rId401" xr:uid="{78AA67D6-536C-4033-B78D-BD31ED0648B9}"/>
-    <hyperlink ref="F200" r:id="rId402" xr:uid="{A67A5BBF-B1A3-4E5E-876B-6ECFE7CABF75}"/>
-    <hyperlink ref="C201" r:id="rId403" display="https://adzhp.cn/" xr:uid="{5D72405B-11D0-416B-B673-434B906F2CF6}"/>
-    <hyperlink ref="C202" r:id="rId404" tooltip="https://fuliba123.net/#" display="https://fuliba123.net/" xr:uid="{5CE5053C-ABA1-423F-804D-D0A8530C78F1}"/>
-    <hyperlink ref="F202" r:id="rId405" xr:uid="{D77FB8D6-17A4-4775-AEF2-72989E8327CF}"/>
-    <hyperlink ref="C203" r:id="rId406" display="https://www.zkdh.net/" xr:uid="{6109CFD8-2CCB-446B-8AB3-868B54A2CCFD}"/>
-    <hyperlink ref="F203" r:id="rId407" xr:uid="{D9990BC1-0ABB-40FC-B6ED-BF33CA8E3F75}"/>
-    <hyperlink ref="C204" r:id="rId408" xr:uid="{D224C345-0F45-4107-91BE-E6B067E09EEC}"/>
-    <hyperlink ref="C205" r:id="rId409" display="https://shadiao.pro/" xr:uid="{8D0FCBD4-7550-433A-937C-BDB8453C184A}"/>
-    <hyperlink ref="F205" r:id="rId410" xr:uid="{1E4CAC12-CC34-4C91-B076-1AD949302A9B}"/>
-    <hyperlink ref="C206" r:id="rId411" display="https://nav.iowen.cn/" xr:uid="{E44D6923-CB3D-493A-8810-17F01F3217F5}"/>
-    <hyperlink ref="F206" r:id="rId412" xr:uid="{178C9238-F5FE-4E0F-9D7A-5D2910F657B6}"/>
-    <hyperlink ref="C207" r:id="rId413" display="https://www.8kmm.com/" xr:uid="{40BDFDBD-2083-41EC-BE7D-51427694541E}"/>
-    <hyperlink ref="F207" r:id="rId414" xr:uid="{3C3A096E-A37B-4A48-8109-9F2220AE1FE0}"/>
-    <hyperlink ref="C208" r:id="rId415" display="https://www.996dh.cn/" xr:uid="{E1694ECB-373A-42BE-93BD-F7231F5C10DF}"/>
-    <hyperlink ref="F208" r:id="rId416" xr:uid="{5C269939-962B-42A7-8770-1C92AF7129AC}"/>
-    <hyperlink ref="C209" r:id="rId417" display="https://www.tboxn.com/" xr:uid="{26FAF1FA-46E2-4EA7-BD75-76F4B866D914}"/>
-    <hyperlink ref="F209" r:id="rId418" xr:uid="{77921EAE-E73D-4F01-9794-84EC2F5DC067}"/>
-    <hyperlink ref="C210" r:id="rId419" xr:uid="{AE4ACE93-7296-463E-B4A6-4D124F79086F}"/>
-    <hyperlink ref="F210" r:id="rId420" xr:uid="{A8842E91-FCDE-4938-9D23-43EF9098EB31}"/>
-    <hyperlink ref="C211" r:id="rId421" display="https://hellowindows.cn/" xr:uid="{4D53F717-1594-4557-A173-EA6148361D13}"/>
-    <hyperlink ref="F211" r:id="rId422" xr:uid="{FD6043D6-EE1A-4D2C-9A26-F4433092248C}"/>
-    <hyperlink ref="C212" r:id="rId423" xr:uid="{C158781A-8310-4E42-BF7D-DD2335875002}"/>
-    <hyperlink ref="F212" r:id="rId424" xr:uid="{707DD529-7172-4332-B612-318D60AFA09D}"/>
-    <hyperlink ref="C213" r:id="rId425" xr:uid="{290F6024-25D2-4B45-8D80-EFF2E2A43DEE}"/>
-    <hyperlink ref="C214" r:id="rId426" xr:uid="{B40D7187-6E0E-4EEA-8897-50E240664E55}"/>
-    <hyperlink ref="F214" r:id="rId427" xr:uid="{65966436-F78F-4D90-A159-0DEB2575838B}"/>
-    <hyperlink ref="C215" r:id="rId428" xr:uid="{CC6370B8-08B0-4B4C-8963-F41C8B4B012A}"/>
-    <hyperlink ref="F215" r:id="rId429" xr:uid="{2A2E15A6-90B9-4CD5-B8D4-90930C336D4B}"/>
-    <hyperlink ref="C216" r:id="rId430" xr:uid="{CDE62715-0CFD-4EDA-897B-B438B0912850}"/>
-    <hyperlink ref="F216" r:id="rId431" xr:uid="{D6D282E5-71DA-42E7-9A00-01758089B664}"/>
-    <hyperlink ref="C217" r:id="rId432" xr:uid="{B97D62AA-0E8B-43C3-88D9-5701A96840CE}"/>
-    <hyperlink ref="F217" r:id="rId433" xr:uid="{F6EEC91C-E321-4C43-B5CB-561F8DA705F7}"/>
-    <hyperlink ref="C218" r:id="rId434" xr:uid="{C85BB07F-ABC8-415B-83BD-7617D350657A}"/>
-    <hyperlink ref="F218" r:id="rId435" xr:uid="{F488FD64-A618-4B95-A32E-5CFBD59BC148}"/>
-    <hyperlink ref="C219" r:id="rId436" xr:uid="{F0C496D1-E262-428A-859F-BC299533F37D}"/>
-    <hyperlink ref="F219" r:id="rId437" xr:uid="{04E94183-DF96-4069-B94F-95F3EE0D8AA2}"/>
-    <hyperlink ref="C220" r:id="rId438" xr:uid="{2BF972BF-720F-481D-BF9B-299FF4E37B15}"/>
-    <hyperlink ref="F220" r:id="rId439" xr:uid="{487F5959-7077-469F-956E-14F75C67C7B9}"/>
-    <hyperlink ref="C221" r:id="rId440" xr:uid="{84E1D5C3-87E1-475D-AFEE-5F836DCD32B2}"/>
-    <hyperlink ref="F221" r:id="rId441" xr:uid="{10100A16-EA60-4929-836B-6EDB98B9CBC9}"/>
-    <hyperlink ref="C222" r:id="rId442" xr:uid="{B62B9BA8-3B8C-4599-A927-0EB42EC17549}"/>
-    <hyperlink ref="F222" r:id="rId443" xr:uid="{92BCA089-8CAE-4D1E-B87D-FEBA230E860A}"/>
-    <hyperlink ref="C223" r:id="rId444" xr:uid="{5F8D8B57-81BE-417D-86E2-EB8F140CC97F}"/>
-    <hyperlink ref="C224" r:id="rId445" xr:uid="{345F1F91-3282-4B32-837D-F151B0D08386}"/>
-    <hyperlink ref="F224" r:id="rId446" xr:uid="{A565F264-427F-4475-9250-9A87289D7A69}"/>
-    <hyperlink ref="C225" r:id="rId447" xr:uid="{31850234-097E-45FE-B36B-8AE972088C47}"/>
-    <hyperlink ref="F225" r:id="rId448" xr:uid="{5D17F1CF-7C4B-4112-B6FB-A14C8777BED2}"/>
-    <hyperlink ref="C226" r:id="rId449" xr:uid="{F1623DCF-BEC6-4699-A71A-A2164F04A025}"/>
-    <hyperlink ref="F226" r:id="rId450" xr:uid="{611C56E2-CBE2-4FF9-A708-F42E42E5B6E0}"/>
-    <hyperlink ref="C227" r:id="rId451" xr:uid="{2C312DEA-79DC-4A18-9934-FF62DBD73A6C}"/>
-    <hyperlink ref="F227" r:id="rId452" xr:uid="{E29C8716-6BAB-47B1-9708-24C32F7CB5B9}"/>
-    <hyperlink ref="C228" r:id="rId453" xr:uid="{8F5D83B8-40F8-4E71-9D8C-10F0DDABB415}"/>
-    <hyperlink ref="F228" r:id="rId454" xr:uid="{7D3D6FA3-01B1-4929-A1E8-C592B0D5A72A}"/>
-    <hyperlink ref="C229" r:id="rId455" xr:uid="{31C33644-6D85-4042-AAE5-240EAD0E764D}"/>
-    <hyperlink ref="C230" r:id="rId456" xr:uid="{9B620556-C643-4B0A-A328-C6553150FAFE}"/>
-    <hyperlink ref="F230" r:id="rId457" xr:uid="{6E51FE49-D33F-42A9-82F4-58E776C1440F}"/>
-    <hyperlink ref="C231" r:id="rId458" xr:uid="{2A4E16DC-4CE0-4982-87F5-347527F2D52D}"/>
-    <hyperlink ref="F231" r:id="rId459" tooltip="https://zh.learnlayout.com/images/logo.png" xr:uid="{449FB73E-1A05-44EF-B15F-E87A9620CD17}"/>
-    <hyperlink ref="C232" r:id="rId460" xr:uid="{620B1E3D-EB40-4B92-9A1D-0D17C105863F}"/>
-    <hyperlink ref="F232" r:id="rId461" xr:uid="{8A3E2228-6DA4-4E1B-B84E-BE8DD1C7A9B7}"/>
-    <hyperlink ref="C233" r:id="rId462" xr:uid="{930E8614-5106-4715-BE53-31FEE36AD907}"/>
-    <hyperlink ref="F233" r:id="rId463" xr:uid="{49D7233A-D686-42DA-8244-4EC67A7C162F}"/>
-    <hyperlink ref="C234" r:id="rId464" xr:uid="{9A6B5101-AB23-472C-B1D4-0B7A5C853E04}"/>
-    <hyperlink ref="F234" r:id="rId465" xr:uid="{068409E4-878F-4477-93B9-FB5F4146CC91}"/>
-    <hyperlink ref="C235" r:id="rId466" xr:uid="{B68E42BD-ECE8-4E46-A34D-AEE512208E2C}"/>
-    <hyperlink ref="F235" r:id="rId467" xr:uid="{6353C959-6BD3-4994-860E-C00613F45795}"/>
-    <hyperlink ref="C236" r:id="rId468" xr:uid="{C6F440C8-3924-46C3-87FC-8CC3EA05E4E0}"/>
-    <hyperlink ref="C237" r:id="rId469" xr:uid="{AFF72206-6624-4D2D-9D21-8D68C02FE511}"/>
-    <hyperlink ref="C238" r:id="rId470" xr:uid="{67F3F566-8401-4D4B-A4B5-B0C16850FFFC}"/>
-    <hyperlink ref="F238" r:id="rId471" xr:uid="{90AC1FD5-75E8-413F-8A8B-DCB4B7C2E1CE}"/>
-    <hyperlink ref="C239" r:id="rId472" xr:uid="{8099DF3F-BE61-434C-B8D2-B446BEE57F60}"/>
-    <hyperlink ref="F239" r:id="rId473" xr:uid="{42CE2C4D-39AE-4856-A6A3-884325EAF2E6}"/>
-    <hyperlink ref="C240" r:id="rId474" xr:uid="{7FC8EDCE-D7F1-49FF-8870-CA3DCD0C2A7E}"/>
-    <hyperlink ref="F240" r:id="rId475" xr:uid="{DE59FC6B-B504-43BE-A3C7-796ED4D6EFEA}"/>
-    <hyperlink ref="C241" r:id="rId476" xr:uid="{1F06BFF9-4987-4B46-B321-73AFC78828BE}"/>
-    <hyperlink ref="F241" r:id="rId477" xr:uid="{799B15FD-E7EC-40C7-8E24-EBE4C61CAABC}"/>
-    <hyperlink ref="C242" r:id="rId478" xr:uid="{F9BF4FD0-5F3B-4CD3-AB18-07ED2CE1118A}"/>
-    <hyperlink ref="F242" r:id="rId479" xr:uid="{51F02096-0F4A-4142-AE79-67D9FCBACDB3}"/>
-    <hyperlink ref="C243" r:id="rId480" xr:uid="{BCF55906-D6E2-4805-95EC-CCAD27D12596}"/>
-    <hyperlink ref="F243" r:id="rId481" xr:uid="{7E2E4F6A-115B-47B2-AB65-62F3215CE702}"/>
-    <hyperlink ref="C244" r:id="rId482" xr:uid="{770DD6E5-1A96-4EC4-AE0D-8B3E7B7C04BB}"/>
-    <hyperlink ref="F244" r:id="rId483" xr:uid="{C297F277-50E0-47AB-ACBB-EC2C37BC07F1}"/>
-    <hyperlink ref="C245" r:id="rId484" xr:uid="{EF2B0444-B32E-42AE-B951-742564DF0E56}"/>
-    <hyperlink ref="F245" r:id="rId485" xr:uid="{74D26D90-9314-414E-A205-49B21C225A93}"/>
-    <hyperlink ref="C246" r:id="rId486" xr:uid="{DF417D54-E013-4C84-A818-3B5353830074}"/>
-    <hyperlink ref="F246" r:id="rId487" xr:uid="{EE1A2785-5056-4DCD-84E1-48E6ADE931CA}"/>
-    <hyperlink ref="C247" r:id="rId488" display="https://xingedu.cn/" xr:uid="{DA58E86C-78E2-4DE3-B1FC-905DDAA2EA44}"/>
-    <hyperlink ref="F247" r:id="rId489" xr:uid="{921D605E-C764-4D1B-A6A1-CEC9D3050023}"/>
-    <hyperlink ref="C248" r:id="rId490" xr:uid="{3EFEAEB4-E26B-4D90-BFA4-EE624B3FF7B4}"/>
-    <hyperlink ref="F248" r:id="rId491" xr:uid="{F485173F-EC84-4368-B71C-D0E604A7F19E}"/>
-    <hyperlink ref="C249" r:id="rId492" display="https://fuun.fun/" xr:uid="{827D4DC6-0830-402E-97D4-80E180E6D35D}"/>
-    <hyperlink ref="F249" r:id="rId493" tooltip="https://fuun.fun/favicon.ico" xr:uid="{075C8900-7C07-416C-AC59-DADD775AE823}"/>
-    <hyperlink ref="C250" r:id="rId494" tooltip="https://pano.dpm.org.cn/" xr:uid="{B5441E1D-88A8-429E-8D22-4AD80BE1AE2C}"/>
-    <hyperlink ref="F250" r:id="rId495" xr:uid="{F929F5EA-C553-4A3F-9300-1787B2AE2F05}"/>
-    <hyperlink ref="C251" r:id="rId496" display="https://www.zhijianshang.com/" xr:uid="{853C6C52-98FD-427A-832D-E2C449F0223A}"/>
-    <hyperlink ref="F251" r:id="rId497" xr:uid="{39C47396-C77D-4825-B065-8A3495D99DB3}"/>
-    <hyperlink ref="C252" r:id="rId498" xr:uid="{B50F9F3A-F911-4709-B54C-F356BEB3C2DA}"/>
-    <hyperlink ref="F252" r:id="rId499" xr:uid="{9CB3CD78-2043-49B9-B6C8-54D1AA0C40C2}"/>
-    <hyperlink ref="C253" r:id="rId500" xr:uid="{87F05E07-BA8E-4AF5-BEF9-3034EB07C778}"/>
-    <hyperlink ref="F253" r:id="rId501" xr:uid="{32E7AD92-26FD-446F-A043-D10AF93A351E}"/>
-    <hyperlink ref="C254" r:id="rId502" display="https://zypuu.com/" xr:uid="{2C14DF44-ABFF-4630-8411-B1F4171E45CB}"/>
-    <hyperlink ref="F254" r:id="rId503" xr:uid="{A9DF9E11-C55A-4F63-BB1A-53E2256CBE84}"/>
-    <hyperlink ref="C255" r:id="rId504" location="/zh_CN" display="https://996.icu/ - /zh_CN" xr:uid="{6698D490-853E-41E9-84D0-53D891307163}"/>
-    <hyperlink ref="F255" r:id="rId505" xr:uid="{B6F9E640-B578-4EF3-8A3E-9DFBF06C23C0}"/>
-    <hyperlink ref="C256" r:id="rId506" xr:uid="{93591B1C-E128-4E7E-83DD-22479917BD6D}"/>
-    <hyperlink ref="F256" r:id="rId507" xr:uid="{E1C21A5A-C20C-4123-935D-D4A33D4041AA}"/>
-    <hyperlink ref="C257" r:id="rId508" xr:uid="{2EF5B10B-6312-40CA-8E35-63E12BB378F2}"/>
-    <hyperlink ref="F257" r:id="rId509" xr:uid="{A5AFE28C-0D22-4307-99D6-9452A9F2468F}"/>
-    <hyperlink ref="C258" r:id="rId510" xr:uid="{A7847784-B2D8-49D0-B221-0E5CCB49E011}"/>
-    <hyperlink ref="C259" r:id="rId511" xr:uid="{F700B5AD-25FF-4B2B-B4BF-662D82FFE8BD}"/>
-    <hyperlink ref="F259" r:id="rId512" xr:uid="{BFD8D351-9EBB-4A3A-9E18-6FA7737EF4D1}"/>
-    <hyperlink ref="C260" r:id="rId513" xr:uid="{AAA0F57D-54A9-4534-9F4B-2CB975332D8C}"/>
-    <hyperlink ref="F260" r:id="rId514" xr:uid="{B435B393-1CBF-4002-ACF2-6D99D46601A0}"/>
+    <hyperlink ref="C257" r:id="rId1" xr:uid="{A7847784-B2D8-49D0-B221-0E5CCB49E011}"/>
+    <hyperlink ref="C258" r:id="rId2" xr:uid="{F700B5AD-25FF-4B2B-B4BF-662D82FFE8BD}"/>
+    <hyperlink ref="F258" r:id="rId3" xr:uid="{BFD8D351-9EBB-4A3A-9E18-6FA7737EF4D1}"/>
+    <hyperlink ref="C259" r:id="rId4" xr:uid="{AAA0F57D-54A9-4534-9F4B-2CB975332D8C}"/>
+    <hyperlink ref="F259" r:id="rId5" xr:uid="{B435B393-1CBF-4002-ACF2-6D99D46601A0}"/>
+    <hyperlink ref="C1" r:id="rId6" xr:uid="{A38830D0-A0E0-41D0-A37B-A2D7A7E6F35B}"/>
+    <hyperlink ref="F1" r:id="rId7" xr:uid="{248A7BBF-7B79-46BD-81C0-C938F10D9D2E}"/>
+    <hyperlink ref="C2" r:id="rId8" display="https://www.notion.so/" xr:uid="{52FC544D-AE15-47EC-90CE-C96DAE581B0F}"/>
+    <hyperlink ref="G2" r:id="rId9" xr:uid="{EFDC8C5E-BA65-43E3-A811-7AF82B900529}"/>
+    <hyperlink ref="A3" r:id="rId10" display="https://note.ms/" xr:uid="{4CBFD3C1-634E-4684-A905-0A8DA068957B}"/>
+    <hyperlink ref="C3" r:id="rId11" display="https://note.ms/" xr:uid="{3D992486-4CA0-435A-B49E-D703510D1093}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{FCD5423C-99F5-4A41-8387-3EF0AD38D742}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{E53B7B2D-55CF-4481-8AEF-425517DDE194}"/>
+    <hyperlink ref="F4" r:id="rId14" xr:uid="{A735E5EA-4788-4B6D-9C3C-B3FB0DDC2E59}"/>
+    <hyperlink ref="C5" r:id="rId15" display="https://tophub.today/" xr:uid="{87556057-0ED0-4409-8765-0913013183B8}"/>
+    <hyperlink ref="F5" r:id="rId16" xr:uid="{3735B85A-3A6E-4D53-B13C-9A1E76969004}"/>
+    <hyperlink ref="C6" r:id="rId17" xr:uid="{FBD9DDB3-3F9F-442D-BC0F-9614F5CE1463}"/>
+    <hyperlink ref="F6" r:id="rId18" xr:uid="{D8D55EF8-76D9-47A0-922B-ABDA246E5805}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{3EC8AFF1-1A34-4A89-A108-F75E77EB1D3B}"/>
+    <hyperlink ref="F7" r:id="rId20" xr:uid="{C2CC9D59-5C44-47F4-B1CD-200413D10B1E}"/>
+    <hyperlink ref="C8" r:id="rId21" xr:uid="{F1D3E127-F44C-438A-9221-7759CBBEFA07}"/>
+    <hyperlink ref="F8" r:id="rId22" xr:uid="{3D26A798-9AF7-4956-BF84-1D42864D1EAA}"/>
+    <hyperlink ref="C9" r:id="rId23" xr:uid="{DA8E668D-F0AA-46E0-9858-05BE96035274}"/>
+    <hyperlink ref="F9" r:id="rId24" xr:uid="{0DF5AF2F-A2B5-4483-842B-6523940E9838}"/>
+    <hyperlink ref="C10" r:id="rId25" xr:uid="{92DCD3AB-2D25-4C8D-9861-7458B85D47B4}"/>
+    <hyperlink ref="F10" r:id="rId26" xr:uid="{CF9948B0-3EA1-4660-98B5-5F400F2F47B0}"/>
+    <hyperlink ref="C11" r:id="rId27" tooltip="https://www.mtime.com" display="https://www.mtime.com/" xr:uid="{FFD06755-BA41-4AF0-96AF-1CA486CEF9DA}"/>
+    <hyperlink ref="F11" r:id="rId28" xr:uid="{DADFA490-00A2-4854-A9A7-73BC8EC240C2}"/>
+    <hyperlink ref="C12" r:id="rId29" display="https://www.1905.com/" xr:uid="{F3384C4F-3EEE-4FB5-9F11-EED11370A5DA}"/>
+    <hyperlink ref="F12" r:id="rId30" xr:uid="{3A860380-E54F-4077-84DB-6150A3D257B0}"/>
+    <hyperlink ref="C13" r:id="rId31" display="https://movie.douban.com/" xr:uid="{9821163E-6525-4068-BBF8-4ECEE6D213A2}"/>
+    <hyperlink ref="F13" r:id="rId32" xr:uid="{1266B8C3-3DE4-4D80-8218-18DBD30413CA}"/>
+    <hyperlink ref="C14" r:id="rId33" xr:uid="{D1DDF9A8-65A2-486B-8E58-6096DDC9767B}"/>
+    <hyperlink ref="F14" r:id="rId34" xr:uid="{E8B24B22-0F21-4A1F-9212-789E2D6210ED}"/>
+    <hyperlink ref="C15" r:id="rId35" xr:uid="{8F5B219A-D233-4632-913E-845403599D3B}"/>
+    <hyperlink ref="F15" r:id="rId36" xr:uid="{EB202FB1-26FB-4B54-B0AC-484B8BEED09D}"/>
+    <hyperlink ref="H15" r:id="rId37" xr:uid="{52BB6263-2CB1-4967-8E2B-7CC7A88FE483}"/>
+    <hyperlink ref="C16" r:id="rId38" xr:uid="{1028E374-C318-4396-B929-AE0EA6DF1C6E}"/>
+    <hyperlink ref="F16" r:id="rId39" xr:uid="{44AEDB9F-3A5E-4F4C-A059-8F99576265CD}"/>
+    <hyperlink ref="H16" r:id="rId40" display="https://www.dy2018.com/" xr:uid="{C8589DCB-E650-4A4B-911A-364BEAF0437B}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{41454785-AA54-466D-8ED7-DF57A39EF223}"/>
+    <hyperlink ref="F17" r:id="rId42" xr:uid="{61270399-3375-466F-893C-2CBCD8CE5679}"/>
+    <hyperlink ref="C18" r:id="rId43" xr:uid="{4C8FCEFB-150C-4D7B-B756-E024526BA5F1}"/>
+    <hyperlink ref="F18" r:id="rId44" xr:uid="{C59073EC-F439-4398-9F36-DBB71A93707E}"/>
+    <hyperlink ref="C19" r:id="rId45" xr:uid="{4313619B-70C6-482E-AB77-657E2E668382}"/>
+    <hyperlink ref="F19" r:id="rId46" tooltip="https://toolb.cn/favicon/www.iyd.wang" xr:uid="{564981CB-41A9-4BBE-926E-55D9040A9FC4}"/>
+    <hyperlink ref="C20" r:id="rId47" xr:uid="{E920C568-E97D-4693-844F-6110F016B7D6}"/>
+    <hyperlink ref="F20" r:id="rId48" xr:uid="{296E6C40-E7D3-45AD-BE35-F57132AD0466}"/>
+    <hyperlink ref="C21" r:id="rId49" xr:uid="{D30E5346-DBB7-46EA-A6F3-89E7B693AB03}"/>
+    <hyperlink ref="F21" r:id="rId50" xr:uid="{5F46C1CC-6FF9-48E1-8FB3-F1EF8EB3EF70}"/>
+    <hyperlink ref="C22" r:id="rId51" xr:uid="{06C164A5-E6F7-4407-88D1-F9F093514B83}"/>
+    <hyperlink ref="F22" r:id="rId52" tooltip="https://www.book123.info/favicon.ico" xr:uid="{6DA4B42C-C86A-438A-BB4A-4CDD30C04ED7}"/>
+    <hyperlink ref="C23" r:id="rId53" xr:uid="{C712BCBB-AB18-46F0-A72E-8691BD525268}"/>
+    <hyperlink ref="F23" r:id="rId54" xr:uid="{D851CF85-3D9C-471C-BC3D-A5FA453058AF}"/>
+    <hyperlink ref="C24" r:id="rId55" xr:uid="{AD333320-2B90-42CB-90C3-14C990F3C0C1}"/>
+    <hyperlink ref="F24" r:id="rId56" xr:uid="{78F8AF07-05A2-49F1-82D2-F2B5AD82B85E}"/>
+    <hyperlink ref="H24" r:id="rId57" xr:uid="{B631E2B6-B114-4694-BFDC-B8E596E6E27A}"/>
+    <hyperlink ref="C25" r:id="rId58" xr:uid="{84A47062-261B-443C-B2E6-5AC8321461A6}"/>
+    <hyperlink ref="F25" r:id="rId59" xr:uid="{50691543-682E-4B38-A88F-0B43BA005CB5}"/>
+    <hyperlink ref="C26" r:id="rId60" display="https://www.iplaysoft.com/" xr:uid="{EC1ED1A6-EEF4-4323-97F4-6CDC035A92A1}"/>
+    <hyperlink ref="F26" r:id="rId61" xr:uid="{2B3011E6-8457-42FA-A0C1-DBA60AC8F959}"/>
+    <hyperlink ref="C27" r:id="rId62" display="https://www.ghxi.com/" xr:uid="{9B1E7683-8CD2-47DE-B5F0-27660874DD5F}"/>
+    <hyperlink ref="F27" r:id="rId63" xr:uid="{0FC5B84D-8BD1-4469-9F29-9471AF534D8D}"/>
+    <hyperlink ref="C28" r:id="rId64" display="https://www.yeyulingfeng.com/" xr:uid="{6AB946D3-2250-4593-96A5-4BCB9D19537B}"/>
+    <hyperlink ref="F28" r:id="rId65" xr:uid="{0FAD8FF3-D592-4A2C-A9EB-9137BB067F21}"/>
+    <hyperlink ref="C29" r:id="rId66" display="https://www.mpyit.com/" xr:uid="{70E0B114-B8B8-4EFD-ACA0-7EC294AF442B}"/>
+    <hyperlink ref="F29" r:id="rId67" xr:uid="{F91758B3-9D1D-473E-82F5-755F8E9063CF}"/>
+    <hyperlink ref="C30" r:id="rId68" display="https://www.ypojie.com/" xr:uid="{11E5A8F9-CEF4-4DC5-B435-7E4F860D97B8}"/>
+    <hyperlink ref="F30" r:id="rId69" xr:uid="{BD1A826A-2486-45E3-B4EC-570BC5B911AB}"/>
+    <hyperlink ref="C31" r:id="rId70" xr:uid="{A3F8CB3A-A47D-42F9-BC5D-4607C0A25564}"/>
+    <hyperlink ref="F31" r:id="rId71" xr:uid="{1E2701F0-2ADD-401E-AFB1-FE66CDA1D350}"/>
+    <hyperlink ref="H31" r:id="rId72" xr:uid="{DA46A485-7320-4E07-8862-0FE36ADE89B3}"/>
+    <hyperlink ref="C32" r:id="rId73" xr:uid="{7931647F-3579-4C21-B5CE-A2EAE3639518}"/>
+    <hyperlink ref="F32" r:id="rId74" xr:uid="{7BB0D4BC-1CF0-461E-B984-833797308B5A}"/>
+    <hyperlink ref="C33" r:id="rId75" xr:uid="{A13A172E-550E-42CC-BC4C-77143513A19B}"/>
+    <hyperlink ref="F33" r:id="rId76" xr:uid="{5D55DF41-CBBC-448C-A84C-34BD21C89AE2}"/>
+    <hyperlink ref="C34" r:id="rId77" xr:uid="{A3F15DC9-9ADA-43FD-829B-69656E393F24}"/>
+    <hyperlink ref="F34" r:id="rId78" display="https://res.macrr.com/wp-content/uploads/2017/11/favicon.ico" xr:uid="{FA40AF7C-5B6B-41A2-B2EF-97DAD94484C4}"/>
+    <hyperlink ref="F35" r:id="rId79" xr:uid="{66928FB2-F4FF-4FC8-A98B-9F5D30A92FCC}"/>
+    <hyperlink ref="C36" r:id="rId80" xr:uid="{73E24506-1AE3-435E-9357-20BF2718A32E}"/>
+    <hyperlink ref="F36" r:id="rId81" xr:uid="{365EAAB5-883E-4483-907C-6BF14B44B378}"/>
+    <hyperlink ref="C37" r:id="rId82" xr:uid="{B0ABB1E1-823E-4C22-9561-9A9522FE978B}"/>
+    <hyperlink ref="F37" r:id="rId83" xr:uid="{92046E25-E442-420C-B319-36EA9EF60B7C}"/>
+    <hyperlink ref="C38" r:id="rId84" display="https://free.apprcn.com/" xr:uid="{97D0A274-8716-4FBD-9DE7-41E8BB388AF0}"/>
+    <hyperlink ref="F38" r:id="rId85" xr:uid="{6CB84176-EDE0-44E2-A9CE-9467203FDEA1}"/>
+    <hyperlink ref="C39" r:id="rId86" display="https://gofans.cn/" xr:uid="{4FDB9643-2388-4C18-9A23-E4A70ABF1DB3}"/>
+    <hyperlink ref="F39" r:id="rId87" xr:uid="{86AA2F32-EBEC-46DA-AAA9-7A689FE7ECC3}"/>
+    <hyperlink ref="C40" r:id="rId88" xr:uid="{EDDFA894-7875-4D3F-B073-AE17C3B7CBC6}"/>
+    <hyperlink ref="F40" r:id="rId89" tooltip="https://toolb.cn/favicon/zh.snipaste.com" xr:uid="{672F8DEA-5560-44D2-A6E6-F6734F1BAE80}"/>
+    <hyperlink ref="C41" r:id="rId90" xr:uid="{ABA40A82-FD02-4CBC-A1BC-7F7676CF2701}"/>
+    <hyperlink ref="F41" r:id="rId91" xr:uid="{D7D34C15-297B-4657-8B10-DC397630098E}"/>
+    <hyperlink ref="C42" r:id="rId92" xr:uid="{05E8903B-67EE-4A57-838B-B9E44C018F97}"/>
+    <hyperlink ref="F42" r:id="rId93" xr:uid="{A3BEB81B-775C-4F05-B200-E1AD76936F8B}"/>
+    <hyperlink ref="C43" r:id="rId94" xr:uid="{A05B0CCE-417D-4DD2-9B2D-73BC57797B44}"/>
+    <hyperlink ref="F43" r:id="rId95" xr:uid="{594645DA-4051-40CE-9086-8B583F1B4B1F}"/>
+    <hyperlink ref="C44" r:id="rId96" xr:uid="{2E787907-47F9-4E56-9010-2FD376F60571}"/>
+    <hyperlink ref="F44" r:id="rId97" xr:uid="{DCDFDC30-42A5-4758-9DFA-40DF0BC6948F}"/>
+    <hyperlink ref="C45" r:id="rId98" xr:uid="{BC9D840A-2C8F-4588-9AF9-AAF032130E3A}"/>
+    <hyperlink ref="F45" r:id="rId99" xr:uid="{02AF6139-E0D7-450E-B3E2-617F696512B3}"/>
+    <hyperlink ref="C46" r:id="rId100" xr:uid="{B4C82892-FF63-4D9E-8469-6B52E706EC4C}"/>
+    <hyperlink ref="F46" r:id="rId101" xr:uid="{1AD38954-4D90-4C63-9CD8-9CB096D8CCFF}"/>
+    <hyperlink ref="C47" r:id="rId102" xr:uid="{ECFC6F7E-0F51-43F3-BF7D-AB6EEE787813}"/>
+    <hyperlink ref="F47" r:id="rId103" xr:uid="{71B94209-DFD0-4C63-859A-F6F44F607BDB}"/>
+    <hyperlink ref="C48" r:id="rId104" xr:uid="{3653E868-A0A0-40B7-AB69-1A99EAD4F08D}"/>
+    <hyperlink ref="F48" r:id="rId105" xr:uid="{DE13EB74-655C-4920-BCC5-DB12EB3A4FC6}"/>
+    <hyperlink ref="C49" r:id="rId106" tooltip="https://calibre-ebook.com/zh_CN" xr:uid="{07DADB25-4A8B-46D7-8E48-BE318E0C007A}"/>
+    <hyperlink ref="F49" r:id="rId107" xr:uid="{C6EA354B-D296-4964-98E2-A599BAA15D5D}"/>
+    <hyperlink ref="H49" r:id="rId108" tooltip="https://calibre-ebook.com/" xr:uid="{8D03AA32-2966-4A86-8FAC-BB8A89FE180F}"/>
+    <hyperlink ref="C50" r:id="rId109" xr:uid="{9DBF8EC0-4816-45E3-9E54-595CF47F9C57}"/>
+    <hyperlink ref="F50" r:id="rId110" xr:uid="{55572DDA-E780-4B61-AC80-B9BCD78D58CA}"/>
+    <hyperlink ref="C51" r:id="rId111" xr:uid="{7DCFE310-4029-4CC6-B342-3D9DB67C0009}"/>
+    <hyperlink ref="F51" r:id="rId112" xr:uid="{74526658-EE51-4A23-BEC3-78CC6A03FFF8}"/>
+    <hyperlink ref="C52" r:id="rId113" xr:uid="{C70C1285-D3CD-4629-9E5C-A21E5DF7FE5F}"/>
+    <hyperlink ref="F52" r:id="rId114" xr:uid="{FF7450B6-E2AA-4B24-829C-66312589EED3}"/>
+    <hyperlink ref="C53" r:id="rId115" xr:uid="{37BC78FE-2BEF-4088-BB86-A4C8BE86B635}"/>
+    <hyperlink ref="F53" r:id="rId116" xr:uid="{BBF53F46-2E93-40CE-BDDC-3F23D8BACDB6}"/>
+    <hyperlink ref="C54" r:id="rId117" xr:uid="{B804D607-0BE1-4C2D-BCFF-D5D8B52DBB75}"/>
+    <hyperlink ref="C55" r:id="rId118" xr:uid="{C2E7E388-FD83-419E-AE59-3F891B62359D}"/>
+    <hyperlink ref="F55" r:id="rId119" xr:uid="{203A5EFB-B024-42E4-86D8-1E78EE365675}"/>
+    <hyperlink ref="C56" r:id="rId120" xr:uid="{CC61BDB9-E501-468D-BBCE-01FF36F55105}"/>
+    <hyperlink ref="F56" r:id="rId121" xr:uid="{B5E1C707-D218-4E29-8CA8-4D1D0330F8A2}"/>
+    <hyperlink ref="C57" r:id="rId122" xr:uid="{E0AFCA37-C5A3-4109-8FF0-24C422BC2475}"/>
+    <hyperlink ref="F57" r:id="rId123" xr:uid="{2B3FA4BD-6466-4B0A-A64D-1117CE67DDCA}"/>
+    <hyperlink ref="C58" r:id="rId124" xr:uid="{429B2655-2FAB-4ED0-BEDD-7554B86A5A49}"/>
+    <hyperlink ref="F58" r:id="rId125" xr:uid="{356AA621-4074-41E4-912D-E2D751D8CDA0}"/>
+    <hyperlink ref="C59" r:id="rId126" xr:uid="{DC91C0AC-41CA-4909-BBB4-ACA76BEF7837}"/>
+    <hyperlink ref="F59" r:id="rId127" xr:uid="{856EDED5-E9A9-4A6B-AC72-8C7B74EC8455}"/>
+    <hyperlink ref="C60" r:id="rId128" xr:uid="{54FE6715-6010-470D-B666-83BFD78C3EF0}"/>
+    <hyperlink ref="F60" r:id="rId129" xr:uid="{BC30B23C-0D6D-483E-86DF-3C6FAEE9CB27}"/>
+    <hyperlink ref="C61" r:id="rId130" xr:uid="{38308753-E7A0-4FC7-BF45-D6AEA9952BB5}"/>
+    <hyperlink ref="F61" r:id="rId131" xr:uid="{6F30A290-16B2-4763-9133-C802EE3011E3}"/>
+    <hyperlink ref="C62" r:id="rId132" xr:uid="{675C5AD2-4495-47FF-963A-EED50CD9DC6F}"/>
+    <hyperlink ref="F62" r:id="rId133" xr:uid="{38C42025-52FF-4DBB-9C04-F6FB41C96491}"/>
+    <hyperlink ref="C63" r:id="rId134" xr:uid="{47204C9D-D273-48CC-B1B4-2F4CB6EFD161}"/>
+    <hyperlink ref="F63" r:id="rId135" xr:uid="{57CC82F7-14EB-4A3C-976A-C4A52802B67E}"/>
+    <hyperlink ref="C64" r:id="rId136" xr:uid="{237188C3-EDC3-4E9D-9257-1B5704B3ABCC}"/>
+    <hyperlink ref="F64" r:id="rId137" xr:uid="{C9D31EDC-DACE-462D-9E3F-4B89FD648FFC}"/>
+    <hyperlink ref="C65" r:id="rId138" xr:uid="{DBAD58EF-37B2-4C6E-9B68-722135397782}"/>
+    <hyperlink ref="F65" r:id="rId139" xr:uid="{62B6DC56-D8CB-4F63-8D51-943DBF34D0C9}"/>
+    <hyperlink ref="C66" r:id="rId140" xr:uid="{3B05F170-EAE0-4C11-B936-2845A90F6581}"/>
+    <hyperlink ref="F66" r:id="rId141" xr:uid="{52EC8265-C0FD-478E-B837-4A12655B39D6}"/>
+    <hyperlink ref="C67" r:id="rId142" xr:uid="{B80D7D18-1F4B-4664-A859-0CB11A868750}"/>
+    <hyperlink ref="F67" r:id="rId143" xr:uid="{8556F9AA-0CF2-46AA-BC7D-AE4A2FC735E0}"/>
+    <hyperlink ref="C68" r:id="rId144" xr:uid="{C05D6AAC-D6B6-4464-A368-746BD9576A04}"/>
+    <hyperlink ref="F68" r:id="rId145" xr:uid="{E0645197-31C8-432B-8026-1F46FB9141D0}"/>
+    <hyperlink ref="C69" r:id="rId146" display="https://cloud.hiksemi.cn/web/clientdownload/download.html" xr:uid="{F028A69D-BFAE-4EEF-A58A-E2AE0BFB7172}"/>
+    <hyperlink ref="F69" r:id="rId147" xr:uid="{AFCCE1B1-DF73-4F23-997F-8E2D17E2A53E}"/>
+    <hyperlink ref="C70" r:id="rId148" xr:uid="{50AB56CB-D86F-4386-ABFF-9032C19877D4}"/>
+    <hyperlink ref="F70" r:id="rId149" xr:uid="{41C7CC7D-AA0F-4F8E-9C97-F196D1191AF3}"/>
+    <hyperlink ref="C71" r:id="rId150" xr:uid="{21A80838-FA09-4C63-9195-341FADC41586}"/>
+    <hyperlink ref="F71" r:id="rId151" xr:uid="{D5FBF22D-F9A7-49A8-B199-1821B24B4EBE}"/>
+    <hyperlink ref="C72" r:id="rId152" xr:uid="{4468A841-1F71-401C-92CE-FA4808C08B30}"/>
+    <hyperlink ref="F72" r:id="rId153" xr:uid="{E82D3616-A40E-42E5-A762-418BF97768F6}"/>
+    <hyperlink ref="C73" r:id="rId154" tooltip="https://gitee.com/viarotel-org/escrcpy/releases" xr:uid="{7E57B6B9-DFBA-4009-A27C-80167132FDA7}"/>
+    <hyperlink ref="C74" r:id="rId155" xr:uid="{60122E4C-681F-4FDA-9FA1-AD29703A6E48}"/>
+    <hyperlink ref="F74" r:id="rId156" xr:uid="{B864E47E-E408-4176-9DEB-A56C7354A96D}"/>
+    <hyperlink ref="C75" r:id="rId157" tooltip="https://limestart.cn/intro" xr:uid="{EBE6EC1D-3045-4866-A1A2-CD7666728428}"/>
+    <hyperlink ref="F75" r:id="rId158" xr:uid="{0EF30966-00DB-4082-A22B-F44B891932D8}"/>
+    <hyperlink ref="C76" r:id="rId159" xr:uid="{354A0252-7BD0-4E0B-94C1-A467CD709A61}"/>
+    <hyperlink ref="F76" r:id="rId160" xr:uid="{6F811BA1-56CE-4FC3-BF08-521C0C15C39D}"/>
+    <hyperlink ref="C77" r:id="rId161" xr:uid="{4B84D2C1-B32C-4031-BE4B-A303467C8B55}"/>
+    <hyperlink ref="F77" r:id="rId162" xr:uid="{8F359F8B-CB23-40C2-AEAD-0450E49DB937}"/>
+    <hyperlink ref="C78" r:id="rId163" tooltip="https://www.wetab.link" display="https://www.wetab.link/" xr:uid="{72F5926F-32CF-426C-AE20-CA2533D4476B}"/>
+    <hyperlink ref="F78" r:id="rId164" xr:uid="{809AFAAE-EFD7-4DF1-8DE5-780F181F931C}"/>
+    <hyperlink ref="C79" r:id="rId165" xr:uid="{1B505776-979B-4DCD-ADE0-E23C48459DC1}"/>
+    <hyperlink ref="F79" r:id="rId166" xr:uid="{402CB092-3A4D-40BD-BB9F-5246756121A6}"/>
+    <hyperlink ref="C80" r:id="rId167" xr:uid="{32AA3F3E-1119-4DEC-B957-4570967F88EC}"/>
+    <hyperlink ref="F80" r:id="rId168" xr:uid="{A76383B7-D84B-46BE-B8DC-E2179237127F}"/>
+    <hyperlink ref="C81" r:id="rId169" xr:uid="{6FCB7E66-298A-4850-B73C-9F4A68FDD4C9}"/>
+    <hyperlink ref="F81" r:id="rId170" xr:uid="{52AD0723-95F9-48FB-BCE1-631D8BCD521A}"/>
+    <hyperlink ref="C82" r:id="rId171" xr:uid="{E613EB2B-FF00-44CE-8EEB-D733DA11FA38}"/>
+    <hyperlink ref="F82" r:id="rId172" xr:uid="{0D54FDBE-60DE-4279-BF93-B3720DBBF6A6}"/>
+    <hyperlink ref="C83" r:id="rId173" xr:uid="{5A763891-F056-4BD5-ADE1-F4B70498AB7B}"/>
+    <hyperlink ref="F83" r:id="rId174" xr:uid="{16FB1DAE-8A66-4582-AC12-A0BF5DF0E6D2}"/>
+    <hyperlink ref="C84" r:id="rId175" xr:uid="{4F86DDF1-7E00-430B-8C12-A7DAFD9095F8}"/>
+    <hyperlink ref="F84" r:id="rId176" xr:uid="{AB7B56C6-F591-42EC-A94D-46B6540C369A}"/>
+    <hyperlink ref="C85" r:id="rId177" xr:uid="{EAC3BFDB-20FC-4005-83E7-C345EDE819BC}"/>
+    <hyperlink ref="F85" r:id="rId178" xr:uid="{95BA4141-B566-4BF0-8169-7BE8A7FE29B7}"/>
+    <hyperlink ref="C86" r:id="rId179" xr:uid="{351D27D4-F81F-47A5-933F-046060811DDA}"/>
+    <hyperlink ref="F86" r:id="rId180" xr:uid="{089C152B-7904-495E-8896-5C2AD97ED836}"/>
+    <hyperlink ref="C87" r:id="rId181" xr:uid="{4DE20838-8F67-432B-B71A-0D01DDAE651E}"/>
+    <hyperlink ref="F87" r:id="rId182" xr:uid="{52E5EFE9-CB3D-4CD6-A3BA-687E199102B7}"/>
+    <hyperlink ref="C88" r:id="rId183" xr:uid="{2166FD16-1BC0-4CCE-8F23-2C7E34E35C6C}"/>
+    <hyperlink ref="F88" r:id="rId184" xr:uid="{620A4E24-6F86-455D-B6E0-77D7DB9869A1}"/>
+    <hyperlink ref="C89" r:id="rId185" xr:uid="{D066FE8B-7DF4-41DA-BAF6-EC5BA7FDC73B}"/>
+    <hyperlink ref="F89" r:id="rId186" xr:uid="{3BC12C98-4B64-42B7-9534-63DB3DF1EF2B}"/>
+    <hyperlink ref="C90" r:id="rId187" xr:uid="{6AB75F3D-EBEF-4386-A581-61FF69DD24FE}"/>
+    <hyperlink ref="F90" r:id="rId188" xr:uid="{4A16E46B-9C63-4133-9947-4EE916A046A1}"/>
+    <hyperlink ref="C91" r:id="rId189" display="https://www.ruanyifeng.com/blog/" xr:uid="{0FC3EE07-9485-4E0F-8E48-63CE661EC27C}"/>
+    <hyperlink ref="F91" r:id="rId190" xr:uid="{1A391C09-024E-452C-9A6C-D3B3ED1D2CC9}"/>
+    <hyperlink ref="C92" r:id="rId191" display="https://toolight.zhubai.love/" xr:uid="{61E544A8-D08A-4E01-AB33-0E17AFB730EE}"/>
+    <hyperlink ref="F92" r:id="rId192" xr:uid="{ED6AE13D-4B8E-455C-9E59-F3A10ACAFAD0}"/>
+    <hyperlink ref="C93" r:id="rId193" xr:uid="{11B1D492-4353-428D-A2FB-CE676B4409C3}"/>
+    <hyperlink ref="F93" r:id="rId194" xr:uid="{5D2D8809-F220-40DB-99F3-EB1A6C4D7EC8}"/>
+    <hyperlink ref="C94" r:id="rId195" display="https://hao.logosc.cn/" xr:uid="{31FA7523-8C06-473B-8626-C1676F27EEF0}"/>
+    <hyperlink ref="F94" r:id="rId196" xr:uid="{9C26EF23-5D1B-480B-9516-29E0190EEE21}"/>
+    <hyperlink ref="C95" r:id="rId197" display="https://www.xinquji.com/" xr:uid="{99F8ABA2-D835-4E4D-A79B-85AC9402A07B}"/>
+    <hyperlink ref="F95" r:id="rId198" xr:uid="{5563BE14-94EF-4AAB-9EE6-0D3CA23B97F9}"/>
+    <hyperlink ref="C96" r:id="rId199" xr:uid="{BC24C97F-14D0-4916-BB40-DD8D3D3201FE}"/>
+    <hyperlink ref="F96" r:id="rId200" xr:uid="{4C7F8C24-F0E1-4928-89B9-E78DB84389FA}"/>
+    <hyperlink ref="C97" r:id="rId201" xr:uid="{0215BE01-7312-49BD-BC00-77C598C7C6BB}"/>
+    <hyperlink ref="F97" r:id="rId202" xr:uid="{0171E9B9-D89B-420E-91FA-252C8CF9E625}"/>
+    <hyperlink ref="C98" r:id="rId203" xr:uid="{6C36D215-2FEB-4A39-8A54-9F9DDCD1703C}"/>
+    <hyperlink ref="F98" r:id="rId204" xr:uid="{8652B49A-9F35-4EF0-B1AC-5D7685A72DA2}"/>
+    <hyperlink ref="C99" r:id="rId205" display="https://halo.run/" xr:uid="{6BDD9378-15EC-49CA-A161-5C641D2DBDC3}"/>
+    <hyperlink ref="F99" r:id="rId206" xr:uid="{81E90FF2-27B6-4707-8ADB-317F6E115C17}"/>
+    <hyperlink ref="C100" r:id="rId207" display="https://cn.wordpress.org/" xr:uid="{1E3A6750-8C30-421D-989C-D82D9DC873C2}"/>
+    <hyperlink ref="F100" r:id="rId208" tooltip="https://s.w.org/favicon.ico?2" xr:uid="{C9EE672E-AD25-4A4A-8049-22B978FD2BA0}"/>
+    <hyperlink ref="C101" r:id="rId209" display="https://1panel.cn/" xr:uid="{95BDC2E2-AD94-4BD8-AF72-1F2F4AAA21EC}"/>
+    <hyperlink ref="F101" r:id="rId210" xr:uid="{211969F3-34B6-4F96-9FF5-BC9E9F7C37D2}"/>
+    <hyperlink ref="C102" r:id="rId211" tooltip="https://github.com/icret/EasyImages2.0" xr:uid="{EE0A8052-61BD-4618-9F54-911EA19F1E90}"/>
+    <hyperlink ref="F102" r:id="rId212" xr:uid="{9F4F7904-89CD-4548-9022-EE6229422607}"/>
+    <hyperlink ref="C103" r:id="rId213" xr:uid="{DB2EF0E5-E228-4E52-9A78-71C0BC63C71F}"/>
+    <hyperlink ref="F103" r:id="rId214" xr:uid="{7AA70837-A378-4FFD-8721-C6B5BF8642B7}"/>
+    <hyperlink ref="C104" r:id="rId215" xr:uid="{73842504-F098-413C-A087-F0A94F2E89B2}"/>
+    <hyperlink ref="F104" r:id="rId216" xr:uid="{E092ED89-8684-4616-997E-84887BDC2059}"/>
+    <hyperlink ref="C105" r:id="rId217" xr:uid="{17E105D7-690F-42E2-8720-0F91D15992A6}"/>
+    <hyperlink ref="F105" r:id="rId218" xr:uid="{9A4645EC-43C4-4510-87EA-7EE34E889E56}"/>
+    <hyperlink ref="C106" r:id="rId219" xr:uid="{EFDAB0A1-8FA2-47F3-8939-2E9CD188D631}"/>
+    <hyperlink ref="F106" r:id="rId220" xr:uid="{4F2217D2-2D4F-4E3C-82A9-1F3A32F8736B}"/>
+    <hyperlink ref="C107" r:id="rId221" xr:uid="{67DE1DAE-DA63-4E9A-9BC4-0F1263CC0D5A}"/>
+    <hyperlink ref="F107" r:id="rId222" xr:uid="{FD9D20E7-85DC-422B-AC71-BBBBC2602B10}"/>
+    <hyperlink ref="C108" r:id="rId223" xr:uid="{99041C1E-6874-4972-B559-6FD1D3AAF981}"/>
+    <hyperlink ref="F108" r:id="rId224" xr:uid="{AEEC24C7-F05B-4E43-9D0F-A98EBB6E693F}"/>
+    <hyperlink ref="C109" r:id="rId225" xr:uid="{7E5E1ED3-D314-4679-90AB-D0BE441BEA59}"/>
+    <hyperlink ref="C110" r:id="rId226" xr:uid="{8203D778-EADF-4D84-9521-8B418C447574}"/>
+    <hyperlink ref="F110" r:id="rId227" xr:uid="{F2F7B97C-9F58-4AA5-B096-E81B34FE7913}"/>
+    <hyperlink ref="C111" r:id="rId228" display="https://www.superbed.cn/" xr:uid="{C66A02BB-AF66-406B-8657-2DA9FF468358}"/>
+    <hyperlink ref="F111" r:id="rId229" xr:uid="{0CB9EF6E-D582-4787-BE44-805BC7CA2750}"/>
+    <hyperlink ref="C112" r:id="rId230" xr:uid="{4B4FEFC2-72DC-4988-A941-30D267AB2766}"/>
+    <hyperlink ref="F112" r:id="rId231" xr:uid="{BF7F093C-F9D7-4648-A3E7-4684CB20CD9E}"/>
+    <hyperlink ref="C113" r:id="rId232" xr:uid="{F5A2E196-E099-40FB-BC61-1AECE6ABFC24}"/>
+    <hyperlink ref="F113" r:id="rId233" xr:uid="{C61A4E36-FE96-4970-A73D-49A4F99B4313}"/>
+    <hyperlink ref="C114" r:id="rId234" xr:uid="{B09C5551-49E1-437A-9FE8-8C1263E0F786}"/>
+    <hyperlink ref="F114" r:id="rId235" xr:uid="{3F90E60C-7DAD-44CD-BD3F-2AEAD227E753}"/>
+    <hyperlink ref="C115" r:id="rId236" xr:uid="{425FEC12-A6C6-4D5E-8AFB-5126F61F0258}"/>
+    <hyperlink ref="F115" r:id="rId237" tooltip="https://www.locimg.com/favicon.ico" xr:uid="{3D234763-A99E-4D6E-AC0F-89E136CD4E21}"/>
+    <hyperlink ref="C116" r:id="rId238" xr:uid="{29A51CA8-2038-44EA-AF69-1B68F6FD2EC8}"/>
+    <hyperlink ref="F116" r:id="rId239" xr:uid="{60E5587E-F286-4F8E-B45C-7EBA4B9CA990}"/>
+    <hyperlink ref="C117" r:id="rId240" xr:uid="{DAB18D38-D620-48E1-B8EC-96F24DE35FE8}"/>
+    <hyperlink ref="F117" r:id="rId241" xr:uid="{1564229C-0373-4D5D-A429-59DB7D554508}"/>
+    <hyperlink ref="C118" r:id="rId242" xr:uid="{B6981EA3-70C7-4BBE-AA5A-EFBE7703DF7B}"/>
+    <hyperlink ref="F118" r:id="rId243" xr:uid="{5CB1008E-DAF0-459E-ABE7-4A52EEF9E130}"/>
+    <hyperlink ref="C119" r:id="rId244" xr:uid="{BA793805-6F70-4A8D-BD45-5099E793F839}"/>
+    <hyperlink ref="F119" r:id="rId245" xr:uid="{9421CAA4-B30E-4BD6-A277-7938038493DA}"/>
+    <hyperlink ref="C120" r:id="rId246" xr:uid="{00F1AFD4-5B6F-4A70-9DFD-5E63D7AB2148}"/>
+    <hyperlink ref="F120" r:id="rId247" xr:uid="{8989EB15-58F8-487D-8032-65037358A612}"/>
+    <hyperlink ref="C121" r:id="rId248" xr:uid="{1ADF1B5A-153C-424A-9A5E-E86986F6F0F3}"/>
+    <hyperlink ref="F121" r:id="rId249" xr:uid="{864B6E41-9E26-45B9-A834-2D71C17F107D}"/>
+    <hyperlink ref="C122" r:id="rId250" tooltip="https://hellogithub.com/" xr:uid="{1F034F62-A94B-4429-AB97-AEFC10557674}"/>
+    <hyperlink ref="F122" r:id="rId251" xr:uid="{D249C616-DFBD-4938-97E0-0C32CEB168B4}"/>
+    <hyperlink ref="H122" r:id="rId252" xr:uid="{59C5B305-68E1-4627-9F6D-EDF95B5CCC99}"/>
+    <hyperlink ref="C123" r:id="rId253" xr:uid="{80C0A10D-7CC2-4645-8DFB-F5E1D79AFBFC}"/>
+    <hyperlink ref="F123" r:id="rId254" xr:uid="{D5610245-D814-4D5D-8656-0DB68E9F9F5D}"/>
+    <hyperlink ref="H123" r:id="rId255" xr:uid="{2279062E-1795-4CFB-9052-B4A005FC4BD4}"/>
+    <hyperlink ref="C124" r:id="rId256" xr:uid="{29915D80-3CC4-4C21-AF2B-235E090A576F}"/>
+    <hyperlink ref="F124" r:id="rId257" xr:uid="{AEAE9F41-A914-408A-8287-BC3337760EC0}"/>
+    <hyperlink ref="C125" r:id="rId258" xr:uid="{CD741AC5-8472-4D42-8ADD-9B8A7BA69404}"/>
+    <hyperlink ref="F125" r:id="rId259" xr:uid="{9752009F-6759-4765-AF6E-DDE7E504E7A8}"/>
+    <hyperlink ref="C126" r:id="rId260" display="https://stackedit.cn/app" xr:uid="{1DA5BECC-9B94-46D7-B4D0-548A90C82015}"/>
+    <hyperlink ref="F126" r:id="rId261" xr:uid="{79FFEDB0-77BB-4BCD-AFB3-61F65E15B9B6}"/>
+    <hyperlink ref="C127" r:id="rId262" xr:uid="{CEB2BC3C-22BE-4FCF-BDC4-A956336E3240}"/>
+    <hyperlink ref="F127" r:id="rId263" xr:uid="{AD56DDCE-3363-4107-B9FF-C0F13ACF6B63}"/>
+    <hyperlink ref="C128" r:id="rId264" xr:uid="{0101D850-347B-40EF-B651-635C47006698}"/>
+    <hyperlink ref="F128" r:id="rId265" tooltip="https://editor.mdnice.com/favicon.svg" xr:uid="{7CD709F4-9DBE-45AA-A4E0-FC3FEE4AC56A}"/>
+    <hyperlink ref="C129" r:id="rId266" xr:uid="{183D9472-E419-4EC3-A905-756A0F1F38CA}"/>
+    <hyperlink ref="F129" r:id="rId267" xr:uid="{5261178A-6B0D-4016-8CD8-04CC49733D74}"/>
+    <hyperlink ref="C130" r:id="rId268" xr:uid="{04473AC6-E11B-40A7-8196-E248A5E65536}"/>
+    <hyperlink ref="F130" r:id="rId269" xr:uid="{55B8DEF3-E354-4021-AD43-F1901A8E9922}"/>
+    <hyperlink ref="C131" r:id="rId270" display="https://ttsmaker.cn/" xr:uid="{ACD428E5-1E56-4A96-B64F-6AC5A874371B}"/>
+    <hyperlink ref="F131" r:id="rId271" xr:uid="{4E904D38-B3E5-4F2B-B8E3-05FB8796E2EB}"/>
+    <hyperlink ref="C132" r:id="rId272" display="https://qrbtf.com/" xr:uid="{0118E662-33BF-407B-8408-A137E1C139DD}"/>
+    <hyperlink ref="F132" r:id="rId273" xr:uid="{6DE35AF9-1D59-4097-99C9-215F51F82D50}"/>
+    <hyperlink ref="C133" r:id="rId274" xr:uid="{033503E5-3EAA-4619-8EC3-A72B1BBE5D60}"/>
+    <hyperlink ref="F133" r:id="rId275" xr:uid="{00C5EBC0-A30C-4D69-8896-D46082AC9B71}"/>
+    <hyperlink ref="C134" r:id="rId276" display="https://www.weiciyun.com/" xr:uid="{C6E24283-C20C-4DA7-8B47-103FDDEC24AB}"/>
+    <hyperlink ref="F134" r:id="rId277" xr:uid="{BB4510FA-64EE-4C76-9073-D2BF4406C80F}"/>
+    <hyperlink ref="C135" r:id="rId278" display="https://vscode.dev/" xr:uid="{E8921723-CFD7-4348-AC4A-FA79CF1B7B8A}"/>
+    <hyperlink ref="F135" r:id="rId279" xr:uid="{0009C163-84E5-4764-9B10-8CC5705406CD}"/>
+    <hyperlink ref="C136" r:id="rId280" xr:uid="{85823319-EE44-436D-ABC6-2965C7DAC33B}"/>
+    <hyperlink ref="F136" r:id="rId281" xr:uid="{E2095685-3FF6-4D1F-98DF-065989E8B173}"/>
+    <hyperlink ref="C137" r:id="rId282" xr:uid="{E73DCB41-9EA3-4A17-B321-F19C00220745}"/>
+    <hyperlink ref="F137" r:id="rId283" xr:uid="{59F1BF2D-B1C8-4EDF-BEE9-1DC7755C89FF}"/>
+    <hyperlink ref="C138" r:id="rId284" xr:uid="{E9AC5AE6-94BF-46ED-B52D-C7C6E2B2676E}"/>
+    <hyperlink ref="F138" r:id="rId285" xr:uid="{1993FA65-71E4-49F1-B03E-BF5D90C89CB9}"/>
+    <hyperlink ref="C139" r:id="rId286" xr:uid="{621A4BBB-CAE6-4F80-B18A-3EF1C769487F}"/>
+    <hyperlink ref="F139" r:id="rId287" xr:uid="{EED75D7B-7EA4-4213-B563-3AF038974279}"/>
+    <hyperlink ref="C140" r:id="rId288" xr:uid="{2DD583B9-367B-4B15-8662-7A2E2ECD8A6B}"/>
+    <hyperlink ref="C141" r:id="rId289" xr:uid="{6BA7561A-E4DF-48F4-8C89-5CD6A631012F}"/>
+    <hyperlink ref="C142" r:id="rId290" xr:uid="{8728E1FA-5FC5-4467-82D6-05ACD0BB0424}"/>
+    <hyperlink ref="F142" r:id="rId291" xr:uid="{9504643D-6516-4EA2-9B10-66239BA3504B}"/>
+    <hyperlink ref="C143" r:id="rId292" xr:uid="{87A1AD7B-A179-4C29-A044-5CC7E4F4462C}"/>
+    <hyperlink ref="F143" r:id="rId293" tooltip="https://markdown.com.cn/editor/favicon.svg" xr:uid="{AA47BD8F-EBA3-4E67-AB08-FE92CD5FC272}"/>
+    <hyperlink ref="C144" r:id="rId294" xr:uid="{2C83B521-2075-4791-B384-05F2D6DFD0F0}"/>
+    <hyperlink ref="F144" r:id="rId295" xr:uid="{44078063-A7B9-468F-9AFD-6C51BCE0496B}"/>
+    <hyperlink ref="C145" r:id="rId296" xr:uid="{471F63B7-AC90-4420-9282-4AD54A88A432}"/>
+    <hyperlink ref="F145" r:id="rId297" xr:uid="{1F5049F5-178C-4BA5-A9FB-FCB046AA0B5D}"/>
+    <hyperlink ref="C146" r:id="rId298" xr:uid="{32D16C56-2E13-439A-9EB3-9FB5208B923A}"/>
+    <hyperlink ref="F146" r:id="rId299" xr:uid="{F97ED304-C958-4B38-BE6B-4AE50601E338}"/>
+    <hyperlink ref="C147" r:id="rId300" xr:uid="{55C1DB0F-4D02-468A-A6F5-7473064961AC}"/>
+    <hyperlink ref="F147" r:id="rId301" xr:uid="{7685962D-27AE-474F-9835-AC48B2B54776}"/>
+    <hyperlink ref="C148" r:id="rId302" xr:uid="{069DFCF8-F4D7-4CAB-A1B2-B821F07B2F1F}"/>
+    <hyperlink ref="F148" r:id="rId303" xr:uid="{C0DEA0F9-59DE-41AE-93FC-0EE4F6DDA5FB}"/>
+    <hyperlink ref="C149" r:id="rId304" xr:uid="{4DCC3D23-F3A0-44E4-BF6B-1E00695A689B}"/>
+    <hyperlink ref="F149" r:id="rId305" xr:uid="{B66C0B26-5EC8-4844-A815-2D706EE823C4}"/>
+    <hyperlink ref="C150" r:id="rId306" xr:uid="{2AFF3EA8-265E-4EE5-A46D-824B669B7399}"/>
+    <hyperlink ref="F150" r:id="rId307" xr:uid="{5D1AD282-0B5A-4DEF-B2CC-180DE3E61416}"/>
+    <hyperlink ref="C151" r:id="rId308" xr:uid="{4C2F044C-2548-44CA-B6B4-7FD39D03A44D}"/>
+    <hyperlink ref="F151" r:id="rId309" xr:uid="{37A45AB1-5CA5-42F6-A336-8DA8006D75E7}"/>
+    <hyperlink ref="C152" r:id="rId310" xr:uid="{3B8D561E-0823-4A77-AA47-BC5C8E4EA727}"/>
+    <hyperlink ref="F152" r:id="rId311" xr:uid="{F954C231-7B47-4A96-9A6C-6395807050C9}"/>
+    <hyperlink ref="C153" r:id="rId312" xr:uid="{46DE04EC-184A-43A2-BCCF-01D6AC81EB76}"/>
+    <hyperlink ref="F153" r:id="rId313" xr:uid="{305AE247-CB1B-4CF1-B29A-5B655A881452}"/>
+    <hyperlink ref="C154" r:id="rId314" xr:uid="{66E04E91-9CD4-4E8F-9601-434E866BB4D3}"/>
+    <hyperlink ref="F154" r:id="rId315" xr:uid="{0CC5B5C9-FAA6-49FA-BDB3-865EEF644554}"/>
+    <hyperlink ref="C155" r:id="rId316" xr:uid="{9355A90E-BE38-4217-ABB8-C908882F1EAF}"/>
+    <hyperlink ref="F155" r:id="rId317" xr:uid="{121C8B2E-4977-4351-855F-C6144AC6C7CB}"/>
+    <hyperlink ref="C156" r:id="rId318" xr:uid="{81415862-5E20-4E9F-BB3B-C552D7BAEB7B}"/>
+    <hyperlink ref="F156" r:id="rId319" xr:uid="{396C45B9-E505-494C-9C01-40D1C1F951A1}"/>
+    <hyperlink ref="C157" r:id="rId320" location="/" display="https://pearmini.github.io/colorfu/ - /" xr:uid="{54315C05-3CD0-4D0D-890A-2F9A20E66E99}"/>
+    <hyperlink ref="F157" r:id="rId321" xr:uid="{AF6D5ABD-B927-4C02-ADB5-CF2EDF985C4E}"/>
+    <hyperlink ref="C158" r:id="rId322" xr:uid="{019AE877-110E-4FBF-8139-B927D1DAF031}"/>
+    <hyperlink ref="F158" r:id="rId323" xr:uid="{A8B35339-A84B-4ADD-B57A-7C73B8F086D0}"/>
+    <hyperlink ref="C159" r:id="rId324" xr:uid="{890C0D28-BC90-46A7-A802-B13A341FEFC8}"/>
+    <hyperlink ref="F159" r:id="rId325" xr:uid="{AC703377-B44A-43E5-B7E9-1689DE353A7D}"/>
+    <hyperlink ref="C160" r:id="rId326" xr:uid="{4F66BACE-2BA9-4540-923C-2E3E1EAF91A8}"/>
+    <hyperlink ref="F160" r:id="rId327" xr:uid="{17F9F2A7-3E15-49AE-B80A-BF5C5D904F5B}"/>
+    <hyperlink ref="C161" r:id="rId328" xr:uid="{3D5E9F6B-6C95-4C97-AA2C-7E99A3DB4244}"/>
+    <hyperlink ref="F161" r:id="rId329" xr:uid="{EEBDC02A-A2EB-4D4A-8997-05D2253BFBC6}"/>
+    <hyperlink ref="C162" r:id="rId330" xr:uid="{9CD0F70C-A287-47F7-B2F0-A11D7A34A67F}"/>
+    <hyperlink ref="C163" r:id="rId331" xr:uid="{D2F1EDEB-C88A-461B-A247-85A9F95961EC}"/>
+    <hyperlink ref="F163" r:id="rId332" xr:uid="{9A99F990-8820-4052-881F-7A84C40DDB90}"/>
+    <hyperlink ref="C164" r:id="rId333" xr:uid="{C1D5BB3C-6918-49EC-AD1C-8A758EFF70A2}"/>
+    <hyperlink ref="F164" r:id="rId334" xr:uid="{80EFE002-2677-45CE-86EA-299F31DB151D}"/>
+    <hyperlink ref="C165" r:id="rId335" tooltip="https://ezpic.fun/zh" xr:uid="{69538A5D-128B-4053-B3A9-53C2310C2B1D}"/>
+    <hyperlink ref="F165" r:id="rId336" tooltip="https://ezpic.fun/favicon-48.png" xr:uid="{D4081FB6-21F4-4506-9B1E-0D2A037DDDCE}"/>
+    <hyperlink ref="C166" r:id="rId337" xr:uid="{8ED03D41-B456-44C1-A726-D84B8F1181BE}"/>
+    <hyperlink ref="F166" r:id="rId338" xr:uid="{864EECED-DF16-4DE5-BE33-9EBB21F9372E}"/>
+    <hyperlink ref="C167" r:id="rId339" xr:uid="{00837DE2-2B51-4BED-80B7-FC6904C89988}"/>
+    <hyperlink ref="F167" r:id="rId340" xr:uid="{1218E4B1-EBD8-4C6B-AE68-8C42A2FD6B7B}"/>
+    <hyperlink ref="C168" r:id="rId341" xr:uid="{D95A3B62-C2A1-4986-974D-4D839DB5E085}"/>
+    <hyperlink ref="F168" r:id="rId342" xr:uid="{1065A3B3-172F-4944-9E20-2F95576D4AE9}"/>
+    <hyperlink ref="C169" r:id="rId343" xr:uid="{F3C964DA-FB87-490B-98BF-F791E22E7888}"/>
+    <hyperlink ref="F169" r:id="rId344" xr:uid="{FD56EE7A-DB6F-4B5D-A63B-D2AC29F62A07}"/>
+    <hyperlink ref="C170" r:id="rId345" xr:uid="{9C55CD08-9B4C-4978-98D9-2C60C723902D}"/>
+    <hyperlink ref="F170" r:id="rId346" xr:uid="{24D2BDD0-F0F7-400D-821F-E25EC12E067A}"/>
+    <hyperlink ref="C171" r:id="rId347" xr:uid="{DDCA3209-7851-472D-A6B0-C43A36F714E8}"/>
+    <hyperlink ref="F171" r:id="rId348" xr:uid="{4EE6F881-9D53-4708-80E8-4DF21DAEF506}"/>
+    <hyperlink ref="C172" r:id="rId349" xr:uid="{BF631A87-0B75-4E8D-9BDB-D4672C3EB950}"/>
+    <hyperlink ref="F172" r:id="rId350" xr:uid="{A9C10D35-F986-4C17-8454-C9E12BF5FA25}"/>
+    <hyperlink ref="C173" r:id="rId351" xr:uid="{FE0E07EA-6F33-41D7-80E9-B365C9E1BB27}"/>
+    <hyperlink ref="F173" r:id="rId352" xr:uid="{02130E74-CC26-4B5C-A0FE-C5969EBDC634}"/>
+    <hyperlink ref="C174" r:id="rId353" xr:uid="{71F1B880-D121-44A8-B5E6-CE01A579D152}"/>
+    <hyperlink ref="F174" r:id="rId354" xr:uid="{98491E2A-92B1-4788-8587-E67CDC4D54D0}"/>
+    <hyperlink ref="C175" r:id="rId355" xr:uid="{5EAB5992-7F8B-459D-A0E3-0109ACC20BDC}"/>
+    <hyperlink ref="F175" r:id="rId356" xr:uid="{A2FECB62-FCAE-4B3C-9E6A-18553C62CF67}"/>
+    <hyperlink ref="C176" r:id="rId357" tooltip="https://www.ilovepdf.com/zh-cn" xr:uid="{7950763A-9636-4272-AC8C-A8A587C16C66}"/>
+    <hyperlink ref="F176" r:id="rId358" xr:uid="{16C7B5EF-EFD4-4CCB-8F07-6FAC461F040B}"/>
+    <hyperlink ref="C177" r:id="rId359" xr:uid="{39CC423E-9CA8-4292-BB9D-31B50534B7DF}"/>
+    <hyperlink ref="F177" r:id="rId360" xr:uid="{37A7F7B7-FFAC-443B-8B52-8C5E6A2A37F2}"/>
+    <hyperlink ref="C178" r:id="rId361" xr:uid="{D6ABBFA4-930C-44A1-B060-C76CF006E631}"/>
+    <hyperlink ref="F178" r:id="rId362" xr:uid="{86EB1B0C-08CB-4A0F-973E-A18FEC2FD000}"/>
+    <hyperlink ref="C179" r:id="rId363" xr:uid="{42242E9B-2A08-4198-B7A5-6734CA24B6A9}"/>
+    <hyperlink ref="F179" r:id="rId364" xr:uid="{9C7036BC-5C9C-456C-9CAA-751A8E4E6135}"/>
+    <hyperlink ref="C180" r:id="rId365" xr:uid="{944F39D2-7B3A-4347-8768-51DE2F8F0CCA}"/>
+    <hyperlink ref="C181" r:id="rId366" xr:uid="{6FDB1CE5-699C-424B-8B00-4F9871DBE205}"/>
+    <hyperlink ref="F181" r:id="rId367" xr:uid="{86FF46F6-9EED-4D29-8E32-2A6A7F1B0658}"/>
+    <hyperlink ref="H181" r:id="rId368" xr:uid="{E93996CF-8533-43C5-8779-33F1A463A5B3}"/>
+    <hyperlink ref="C182" r:id="rId369" display="https://磁力狗.xyz/" xr:uid="{11C9275E-7E5A-4883-8B47-D4C0186B5D9A}"/>
+    <hyperlink ref="F182" r:id="rId370" xr:uid="{82E2CB86-F8CA-4EF3-B979-6D455008F398}"/>
+    <hyperlink ref="C183" r:id="rId371" tooltip="https://xn--yets15cv4k.com/" xr:uid="{B0E1AC49-81EB-4844-B5E3-050890BBCCD9}"/>
+    <hyperlink ref="H183" r:id="rId372" display="https://小花猫.com/" xr:uid="{9FA7D9C6-4137-434B-8E92-DCD94B7925F3}"/>
+    <hyperlink ref="C184" r:id="rId373" xr:uid="{0292D744-078A-49BB-89CD-9F66D4AADC4F}"/>
+    <hyperlink ref="F184" r:id="rId374" xr:uid="{DD65FFC4-EDD0-480C-94B3-F7CD2C27F3F8}"/>
+    <hyperlink ref="C185" r:id="rId375" xr:uid="{47233D92-9E8B-4D2A-B6F4-65ED0756D1AB}"/>
+    <hyperlink ref="F185" r:id="rId376" xr:uid="{AD8A6CC5-C7C6-48D6-A6CB-97A24A65C78D}"/>
+    <hyperlink ref="C186" r:id="rId377" xr:uid="{393261FF-CCBB-4621-9AC4-A8D497A8D5F9}"/>
+    <hyperlink ref="F186" r:id="rId378" xr:uid="{0598333C-6FE5-445E-A49F-0B3B25AE0575}"/>
+    <hyperlink ref="C187" r:id="rId379" xr:uid="{16F3AA46-86EB-4027-8B0C-2D2F9AE6C04A}"/>
+    <hyperlink ref="F187" r:id="rId380" xr:uid="{5A65438E-E3F3-42FE-9F07-6E3A39D2355F}"/>
+    <hyperlink ref="H187" r:id="rId381" xr:uid="{F5CEA735-B1C7-42A5-A701-0BF208E56AEF}"/>
+    <hyperlink ref="C188" r:id="rId382" xr:uid="{38F62B30-C506-48CD-BAF2-18A0165900A8}"/>
+    <hyperlink ref="F188" r:id="rId383" xr:uid="{B927AE81-4C02-44B8-9B50-5DCF8BD93112}"/>
+    <hyperlink ref="H188" r:id="rId384" xr:uid="{B773B729-3C2F-4FCA-8E4D-D05527D1CCB5}"/>
+    <hyperlink ref="C189" r:id="rId385" xr:uid="{CBF564C1-44D5-4E5A-AC05-E28C93FD75B7}"/>
+    <hyperlink ref="F189" r:id="rId386" xr:uid="{D16AD55B-9EE9-4BC9-9934-E911C4B601DB}"/>
+    <hyperlink ref="C190" r:id="rId387" xr:uid="{1F7E2D7F-536C-43AC-85F1-ADF57AE3EC3D}"/>
+    <hyperlink ref="G190" r:id="rId388" xr:uid="{542DBC65-85AC-409B-B758-314D06C23ABC}"/>
+    <hyperlink ref="C191" r:id="rId389" xr:uid="{F6AB8E02-9BCC-4C95-8631-9A4ABD2D193F}"/>
+    <hyperlink ref="F191" r:id="rId390" xr:uid="{C48D9BF2-43B2-4A52-9D1C-F653CC74DFBF}"/>
+    <hyperlink ref="C192" r:id="rId391" xr:uid="{E37968AD-A363-47CB-B2D0-F111CFF3E65E}"/>
+    <hyperlink ref="C193" r:id="rId392" xr:uid="{B4A55229-B60C-4E9A-8612-CA0590D32F03}"/>
+    <hyperlink ref="F193" r:id="rId393" xr:uid="{C3913190-FBE0-4060-BF2E-E60F6EC55E97}"/>
+    <hyperlink ref="C194" r:id="rId394" xr:uid="{2AAFD670-E117-4582-9E40-0F60DFC3F584}"/>
+    <hyperlink ref="C195" r:id="rId395" tooltip="https://webgames.fun/zh/" xr:uid="{F1966E5A-289D-422E-B3BB-22ED9C1B8C71}"/>
+    <hyperlink ref="F195" r:id="rId396" xr:uid="{E9E80CBC-6A09-42B9-8149-3DB1CDA6010A}"/>
+    <hyperlink ref="C196" r:id="rId397" xr:uid="{7D35E5A8-223E-4A67-A784-E29988324C3F}"/>
+    <hyperlink ref="F196" r:id="rId398" xr:uid="{A3568D96-8707-45F3-9AF0-EA5E796E431F}"/>
+    <hyperlink ref="C197" r:id="rId399" tooltip="https://adzhp.cc/" xr:uid="{A17E094C-4D93-46B3-ADA2-CBEDF37C09DD}"/>
+    <hyperlink ref="C198" r:id="rId400" tooltip="https://fuliba123.net/#" display="https://fuliba123.net/" xr:uid="{89EF1E78-9080-4CB5-A646-C2D1008141A9}"/>
+    <hyperlink ref="F198" r:id="rId401" xr:uid="{41B59A6A-64AB-4079-A65A-1246C8B7D668}"/>
+    <hyperlink ref="C199" r:id="rId402" display="https://www.zkdh.net/" xr:uid="{3A53B156-B7A1-47DE-88DF-D0BE02C97455}"/>
+    <hyperlink ref="F199" r:id="rId403" xr:uid="{5C43CBE2-EB8E-4AC3-84CE-28967178283E}"/>
+    <hyperlink ref="C200" r:id="rId404" xr:uid="{C89E8277-4F72-4250-8F47-0A121A7AC617}"/>
+    <hyperlink ref="C201" r:id="rId405" display="https://shadiao.pro/" xr:uid="{93F4FE9D-9B35-4E74-AA68-258498D9BD95}"/>
+    <hyperlink ref="F201" r:id="rId406" xr:uid="{16BC024F-0C31-4C92-AE34-B04E2BC8315A}"/>
+    <hyperlink ref="C202" r:id="rId407" display="https://nav.iowen.cn/" xr:uid="{330125FB-47D6-4D8A-951E-10472EFCB9F2}"/>
+    <hyperlink ref="F202" r:id="rId408" xr:uid="{5B8A7C94-9D69-460F-A3E6-85FE4E2535CA}"/>
+    <hyperlink ref="C203" r:id="rId409" display="https://www.8kmm.com/" xr:uid="{ACEB2DA2-A5DF-4BA0-8491-01F0E1E1F61B}"/>
+    <hyperlink ref="F203" r:id="rId410" xr:uid="{7EE84D0F-BFC5-43C1-BDA9-757967E30382}"/>
+    <hyperlink ref="C204" r:id="rId411" display="https://www.996dh.cn/" xr:uid="{B323ED28-C341-40D7-BC9F-48014A144A50}"/>
+    <hyperlink ref="F204" r:id="rId412" xr:uid="{A0940953-1534-43F2-B5D1-D46A8515844A}"/>
+    <hyperlink ref="C205" r:id="rId413" display="https://www.tboxn.com/" xr:uid="{B60F2A75-D4C8-45CE-90E5-E41E09DF6C6B}"/>
+    <hyperlink ref="F205" r:id="rId414" xr:uid="{C50AC9BE-58D3-4E6D-9B4E-7C69B60CC6CC}"/>
+    <hyperlink ref="C206" r:id="rId415" xr:uid="{DA7D01EB-185A-4698-BF89-9880E083DE94}"/>
+    <hyperlink ref="F206" r:id="rId416" xr:uid="{33040E2B-65FD-4AE6-A1C3-71ECB58F181C}"/>
+    <hyperlink ref="C207" r:id="rId417" display="https://hellowindows.cn/" xr:uid="{0FFEADE6-A96E-480E-864C-335404C7E09C}"/>
+    <hyperlink ref="F207" r:id="rId418" xr:uid="{E99CCED6-67B1-42D4-B39E-81EB89486FD8}"/>
+    <hyperlink ref="C208" r:id="rId419" xr:uid="{E5AD5B59-EDBD-45AF-9E11-41D62482E94B}"/>
+    <hyperlink ref="F208" r:id="rId420" xr:uid="{D65D19F3-B1A9-4D86-9D16-9CAA90787115}"/>
+    <hyperlink ref="C209" r:id="rId421" xr:uid="{8A31CC80-3F1C-41E9-81F1-4503A3A48B66}"/>
+    <hyperlink ref="C210" r:id="rId422" xr:uid="{C8E8B38D-1A00-41BC-83E2-04BB6C20BA5E}"/>
+    <hyperlink ref="F210" r:id="rId423" xr:uid="{8F99AC61-39E1-4993-A96D-AC581FE02DB9}"/>
+    <hyperlink ref="C211" r:id="rId424" xr:uid="{323F79C5-A084-430D-A4D2-8EF527BAF520}"/>
+    <hyperlink ref="F211" r:id="rId425" xr:uid="{123684BA-CEF5-4C0B-A478-51BF804E2A1F}"/>
+    <hyperlink ref="C212" r:id="rId426" xr:uid="{E87681F7-A9A0-4628-8A37-7500070C108C}"/>
+    <hyperlink ref="F212" r:id="rId427" xr:uid="{858C3E98-E07C-4A68-B535-A4D39120D00D}"/>
+    <hyperlink ref="C213" r:id="rId428" xr:uid="{8D0DB425-7D3E-4DE5-A605-A781D11CF594}"/>
+    <hyperlink ref="F213" r:id="rId429" xr:uid="{579FAE4B-182A-48AB-A9B1-A01ABFEC0696}"/>
+    <hyperlink ref="C214" r:id="rId430" xr:uid="{AF9B0E8F-2667-45BF-9B90-19939FB534D4}"/>
+    <hyperlink ref="F214" r:id="rId431" xr:uid="{D5B521AC-0D03-4BC9-87AB-5FEFE4F93083}"/>
+    <hyperlink ref="C215" r:id="rId432" xr:uid="{296FCEF2-EFC5-4F92-AC06-E510A4C4533D}"/>
+    <hyperlink ref="F215" r:id="rId433" xr:uid="{04E01420-3BDF-4214-ADFD-81C0CAE1C5C0}"/>
+    <hyperlink ref="C216" r:id="rId434" xr:uid="{B6EF7CE4-B246-4798-ADFF-1EFF22114931}"/>
+    <hyperlink ref="F216" r:id="rId435" xr:uid="{2A4346C6-F788-4C0F-BD88-CEA259C67C98}"/>
+    <hyperlink ref="C217" r:id="rId436" xr:uid="{6DBE5321-68FA-4D3F-BE55-1705739BF35D}"/>
+    <hyperlink ref="F217" r:id="rId437" xr:uid="{4CA26E30-9284-45FE-B96C-592A09749659}"/>
+    <hyperlink ref="C218" r:id="rId438" xr:uid="{33076074-73EB-4572-9198-E03C56818B2F}"/>
+    <hyperlink ref="F218" r:id="rId439" xr:uid="{2FB38A5C-D3E4-437F-8949-D58E4828CEC2}"/>
+    <hyperlink ref="C219" r:id="rId440" xr:uid="{947A9C3D-6B64-4982-A66E-1267AB6A6A55}"/>
+    <hyperlink ref="C220" r:id="rId441" xr:uid="{5DEFFD11-B917-406E-8E5F-7BA7574FA159}"/>
+    <hyperlink ref="F220" r:id="rId442" xr:uid="{B49A379C-35FF-47DC-AC8C-56AEDF43230B}"/>
+    <hyperlink ref="C221" r:id="rId443" xr:uid="{2DFE4ABA-0EEA-4583-B498-139BD0C4F44F}"/>
+    <hyperlink ref="F221" r:id="rId444" xr:uid="{7C6A67A8-5CB0-40E7-9AB9-2A3A0D039199}"/>
+    <hyperlink ref="C222" r:id="rId445" xr:uid="{565B9EAF-3AA3-4105-88E7-CB0CF2A07643}"/>
+    <hyperlink ref="F222" r:id="rId446" xr:uid="{3C3FDD3A-AA38-4B00-9A03-9B6A7F9F05BA}"/>
+    <hyperlink ref="C223" r:id="rId447" xr:uid="{92204128-456D-4F79-A6A7-7DF0866CBEBD}"/>
+    <hyperlink ref="F223" r:id="rId448" xr:uid="{47AF363D-1AD7-415B-A667-39CEE7A8EED7}"/>
+    <hyperlink ref="C224" r:id="rId449" xr:uid="{440BEFFC-5221-47B1-B2A7-E652165C892B}"/>
+    <hyperlink ref="F224" r:id="rId450" xr:uid="{E886B6AD-FEBE-4D8C-8647-7FADA3F80201}"/>
+    <hyperlink ref="C225" r:id="rId451" xr:uid="{1B5028A5-BCF4-4E8E-B3A2-578304E25B97}"/>
+    <hyperlink ref="C226" r:id="rId452" xr:uid="{1E10B783-7E1A-45AF-B7E6-7BEE61E51442}"/>
+    <hyperlink ref="F226" r:id="rId453" xr:uid="{D53A70D2-849D-4531-95E2-2439FAFD5DF0}"/>
+    <hyperlink ref="C227" r:id="rId454" xr:uid="{62355ACB-ED11-4A0B-9B6A-E31DCB7EA4F8}"/>
+    <hyperlink ref="F227" r:id="rId455" tooltip="https://zh.learnlayout.com/images/logo.png" xr:uid="{61CAF886-E9AD-499E-BF53-8E2196E155E0}"/>
+    <hyperlink ref="C228" r:id="rId456" xr:uid="{B21F2B4C-270B-4802-A593-ACD53B101FC4}"/>
+    <hyperlink ref="F228" r:id="rId457" xr:uid="{9F4FC4E4-DCF4-4C19-8F78-DCBEAD088C29}"/>
+    <hyperlink ref="C229" r:id="rId458" xr:uid="{F2209707-C262-44A8-8CF0-5AB365A05915}"/>
+    <hyperlink ref="F229" r:id="rId459" xr:uid="{8EE049F6-B47E-4D54-A22A-4544125F3634}"/>
+    <hyperlink ref="C230" r:id="rId460" xr:uid="{5BDD6B07-5402-4183-AD3D-7CA79FA1ED78}"/>
+    <hyperlink ref="F230" r:id="rId461" xr:uid="{449797B1-335D-46B7-A2F3-97C16A54412B}"/>
+    <hyperlink ref="C231" r:id="rId462" xr:uid="{4193B9B4-D0E6-43DC-8E66-8BAAFBB397BA}"/>
+    <hyperlink ref="F231" r:id="rId463" xr:uid="{3AA0BD05-1A00-4ABF-B835-6530A439EB18}"/>
+    <hyperlink ref="C232" r:id="rId464" xr:uid="{7F65FFC1-8264-4674-B135-F51D4A7B839A}"/>
+    <hyperlink ref="C233" r:id="rId465" xr:uid="{0BCD83AB-FA3A-4F45-A36B-6144C7934C15}"/>
+    <hyperlink ref="C234" r:id="rId466" xr:uid="{6C3148EF-925B-4FDE-8894-27C9AA7D8BA7}"/>
+    <hyperlink ref="F234" r:id="rId467" xr:uid="{295E459A-C4FF-49D0-9945-0C911128297B}"/>
+    <hyperlink ref="C235" r:id="rId468" xr:uid="{BE4522FD-C4BD-42B5-BF54-6B5C34706497}"/>
+    <hyperlink ref="F235" r:id="rId469" xr:uid="{05676B8C-61F0-4FF5-BD1F-1B4EE0F1D82E}"/>
+    <hyperlink ref="C236" r:id="rId470" xr:uid="{7DD2D669-3E93-4207-9617-EB23956D8511}"/>
+    <hyperlink ref="F236" r:id="rId471" xr:uid="{05D524A5-05C4-4DF4-A5F1-FFDDA7E68896}"/>
+    <hyperlink ref="C237" r:id="rId472" xr:uid="{7A950715-0481-408A-8327-2DEA14D56A0B}"/>
+    <hyperlink ref="F237" r:id="rId473" xr:uid="{53F175B8-9610-445D-8A19-DDF1FC2AC7FE}"/>
+    <hyperlink ref="C238" r:id="rId474" xr:uid="{F507025E-DD6B-418E-A843-D4634F08B1EA}"/>
+    <hyperlink ref="F238" r:id="rId475" xr:uid="{04BAF83F-A77A-4DFD-A706-71E1631ECE3B}"/>
+    <hyperlink ref="C239" r:id="rId476" xr:uid="{69D5C383-EDE6-49F6-807C-9969F4534607}"/>
+    <hyperlink ref="F239" r:id="rId477" xr:uid="{082003EB-555E-4E2B-A3EB-07AA910BB41B}"/>
+    <hyperlink ref="C240" r:id="rId478" xr:uid="{39370A53-CF22-4366-BAC5-51A3F574C6A7}"/>
+    <hyperlink ref="F240" r:id="rId479" xr:uid="{856E74BE-8CBF-46CE-8B54-725F9C8A6A37}"/>
+    <hyperlink ref="C241" r:id="rId480" xr:uid="{C89D80ED-982E-4391-AF0D-90900ED74102}"/>
+    <hyperlink ref="F241" r:id="rId481" xr:uid="{A68B529A-E0DE-4690-BC8A-C289E0B18519}"/>
+    <hyperlink ref="C242" r:id="rId482" xr:uid="{FF79090C-97B8-44A9-9EE6-ADF77888254E}"/>
+    <hyperlink ref="F242" r:id="rId483" xr:uid="{1DC8B9B5-42C7-4EF8-B698-D9142E65259C}"/>
+    <hyperlink ref="C243" r:id="rId484" display="https://xingedu.cn/" xr:uid="{36DF79A1-9CAB-4802-94B3-273323F64312}"/>
+    <hyperlink ref="F243" r:id="rId485" xr:uid="{B157410E-7F0F-40DC-A54B-90FC3CE7D1B4}"/>
+    <hyperlink ref="C244" r:id="rId486" xr:uid="{3849A5CB-669F-4E36-B169-FAFCBC04682B}"/>
+    <hyperlink ref="F244" r:id="rId487" xr:uid="{85F602A9-974D-4B89-9597-D33E3064CC90}"/>
+    <hyperlink ref="C245" r:id="rId488" display="https://fuun.fun/" xr:uid="{5B8B5BEF-53ED-4485-9104-CBC8817D61DC}"/>
+    <hyperlink ref="F245" r:id="rId489" tooltip="https://fuun.fun/favicon.ico" xr:uid="{8F963991-A228-4FF4-B5C8-ABC33CF7B332}"/>
+    <hyperlink ref="C246" r:id="rId490" tooltip="https://pano.dpm.org.cn/" xr:uid="{F9B6385E-2808-4510-BEF0-14A4AD5070C4}"/>
+    <hyperlink ref="F246" r:id="rId491" xr:uid="{A219376E-47AD-472E-A1C4-FD9BDA6358E1}"/>
+    <hyperlink ref="C247" r:id="rId492" display="https://www.zhijianshang.com/" xr:uid="{C12389D9-A542-4D5D-9A60-FE21203905C2}"/>
+    <hyperlink ref="F247" r:id="rId493" xr:uid="{46B65024-6FCA-4995-8208-AD3E2BBF7384}"/>
+    <hyperlink ref="C248" r:id="rId494" xr:uid="{EF02B176-9885-4285-B068-2C45728CFED7}"/>
+    <hyperlink ref="F248" r:id="rId495" xr:uid="{62687124-8384-4B8D-9B5B-2432E2D3CED0}"/>
+    <hyperlink ref="C249" r:id="rId496" xr:uid="{755EE0B6-3A9E-4C6C-8C79-79B26FE72D64}"/>
+    <hyperlink ref="F249" r:id="rId497" xr:uid="{EBCC3A03-9EA5-445E-8C45-389948703523}"/>
+    <hyperlink ref="C250" r:id="rId498" display="https://zypuu.com/" xr:uid="{6C0496DE-CBBD-4B74-8648-DDE16A3C7B78}"/>
+    <hyperlink ref="F250" r:id="rId499" xr:uid="{F708712F-E098-43FF-BC4D-9F862D9E772A}"/>
+    <hyperlink ref="C251" r:id="rId500" location="/zh_CN" display="https://996.icu/ - /zh_CN" xr:uid="{CBDE87D0-F536-426B-8807-A84AFEC819FB}"/>
+    <hyperlink ref="F251" r:id="rId501" xr:uid="{33417FED-6788-4DE0-A060-F2EAA1DBFE06}"/>
+    <hyperlink ref="C252" r:id="rId502" xr:uid="{020713B0-D658-4B24-869A-1864AC9D2EB4}"/>
+    <hyperlink ref="F252" r:id="rId503" xr:uid="{2BD1EFA0-7BDC-4561-B700-3BC528E0E984}"/>
+    <hyperlink ref="C253" r:id="rId504" xr:uid="{1A1AD985-2B9F-4A91-A936-0626E5D319F9}"/>
+    <hyperlink ref="F253" r:id="rId505" xr:uid="{72FB898F-6632-4828-A841-6BDCEEA86091}"/>
+    <hyperlink ref="C254" r:id="rId506" xr:uid="{EDCD141A-FD58-4D47-9C54-C6BB9ADED32A}"/>
+    <hyperlink ref="C255" r:id="rId507" xr:uid="{0F828186-5117-4C34-BB2E-44C237D2181C}"/>
+    <hyperlink ref="F255" r:id="rId508" xr:uid="{50B12CED-5DDE-4A0F-8EC7-4AB2FAD7E1F5}"/>
+    <hyperlink ref="C256" r:id="rId509" xr:uid="{254CBD9D-3A07-4BE0-A31A-2EA2EE16970B}"/>
+    <hyperlink ref="F256" r:id="rId510" xr:uid="{C63193B1-5FDC-4644-B35B-9AFE0845F106}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
